--- a/FishLandings/data/fishbase.xlsx
+++ b/FishLandings/data/fishbase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Kenya_SamakiSalama/FishLandings/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877ECEE3-E6AB-E549-97E3-44E66EBF13BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB124CF2-37C9-BD4F-9868-50A3C89EB000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21080" yWindow="3920" windowWidth="10000" windowHeight="12660" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
+    <workbookView xWindow="6880" yWindow="2580" windowWidth="25200" windowHeight="15660" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,22 +35,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>scientific_name</t>
+  </si>
+  <si>
+    <t>Leptoscarus vaigiensis</t>
+  </si>
+  <si>
+    <t>Lethrinus nebulosus</t>
+  </si>
+  <si>
+    <t>Scarus ghobban</t>
+  </si>
+  <si>
+    <t>Siganus canaliculutus</t>
+  </si>
+  <si>
+    <t>Siganus sutor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Monaco"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27ABF6E-FCDE-A64A-8E31-FB070AB67392}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
@@ -407,6 +429,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FishLandings/data/fishbase.xlsx
+++ b/FishLandings/data/fishbase.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Kenya_SamakiSalama/FishLandings/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB124CF2-37C9-BD4F-9868-50A3C89EB000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3ED682-FA6B-5345-A3BB-DA29FB0069CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="2580" windowWidth="25200" windowHeight="15660" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
+    <workbookView xWindow="5900" yWindow="460" windowWidth="27680" windowHeight="19540" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="key" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="193">
   <si>
     <t>scientific_name</t>
   </si>
@@ -49,18 +50,592 @@
     <t>Scarus ghobban</t>
   </si>
   <si>
-    <t>Siganus canaliculutus</t>
-  </si>
-  <si>
     <t>Siganus sutor</t>
+  </si>
+  <si>
+    <t>Acanthurus dussumieri</t>
+  </si>
+  <si>
+    <t>Acanthurus triostegus</t>
+  </si>
+  <si>
+    <t>Acanthurus xanthopterus</t>
+  </si>
+  <si>
+    <t>Cephalopholis argus</t>
+  </si>
+  <si>
+    <t>Gerres oyena</t>
+  </si>
+  <si>
+    <t>Hipposcarus harid</t>
+  </si>
+  <si>
+    <t>Lethrinus conchyliatus</t>
+  </si>
+  <si>
+    <t>Lethrinus harak</t>
+  </si>
+  <si>
+    <t>Lutjanus fulviflamma</t>
+  </si>
+  <si>
+    <t>Monotaxis grandoculis</t>
+  </si>
+  <si>
+    <t>Mulloidichthys flavolineatus</t>
+  </si>
+  <si>
+    <t>Naso annulatus</t>
+  </si>
+  <si>
+    <t>Naso brachycentron</t>
+  </si>
+  <si>
+    <t>Parupeneus heptacanthus</t>
+  </si>
+  <si>
+    <t>Parupeneus macronemus</t>
+  </si>
+  <si>
+    <t>Plectorhinchus gaterinus</t>
+  </si>
+  <si>
+    <t>Plectorhinchus sordidus</t>
+  </si>
+  <si>
+    <t>Plectorhinchus vittatus</t>
+  </si>
+  <si>
+    <t>Sardinella melanura</t>
+  </si>
+  <si>
+    <t>Scarus rubroviolaceus</t>
+  </si>
+  <si>
+    <t>Siganus canaliculatus</t>
+  </si>
+  <si>
+    <t>Trichiurus lepturus</t>
+  </si>
+  <si>
+    <t>depth_min</t>
+  </si>
+  <si>
+    <t>depth_max</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=1256&amp;GenusName=Acanthurus&amp;SpeciesName=dussumieri&amp;vStockCode=1272&amp;fc=412</t>
+  </si>
+  <si>
+    <t>Lmax</t>
+  </si>
+  <si>
+    <t>Linf</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>Eyestripe surgeonfish</t>
+  </si>
+  <si>
+    <t>tm</t>
+  </si>
+  <si>
+    <t>Lm</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>LH_Unit</t>
+  </si>
+  <si>
+    <t>Lm_se_min</t>
+  </si>
+  <si>
+    <t>Lm_se_max</t>
+  </si>
+  <si>
+    <t>Lopt</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>LH_unit</t>
+  </si>
+  <si>
+    <t>Life history unit (TL = tail length)</t>
+  </si>
+  <si>
+    <t>Depth_min</t>
+  </si>
+  <si>
+    <t>Minimum depth where that fish is found</t>
+  </si>
+  <si>
+    <t>Depth_max</t>
+  </si>
+  <si>
+    <t>Maximum depth where that fish is found</t>
+  </si>
+  <si>
+    <t>L infinity (measured TL)</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>value per year</t>
+  </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>Median Ø' value with related Linf. and K.</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural mortality </t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Generation time / Estimated from Linf., K and to.</t>
+  </si>
+  <si>
+    <t>Age at first maturity / Estimated from Linf., K and to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lm </t>
+  </si>
+  <si>
+    <t>L maturity / Estimated from Linf.  (measured TL)</t>
+  </si>
+  <si>
+    <t>standard error minimum (se) from Lm</t>
+  </si>
+  <si>
+    <t>standard error maximum (se) from Lm</t>
+  </si>
+  <si>
+    <t>Lopt_se_min</t>
+  </si>
+  <si>
+    <t>Lopt_se_max</t>
+  </si>
+  <si>
+    <t>L maximum yield / Estimated from Linf.  (measured TL)</t>
+  </si>
+  <si>
+    <t>standard error minimum (se) from Lopt</t>
+  </si>
+  <si>
+    <t>standard error maximum (se) from Lopt</t>
+  </si>
+  <si>
+    <t>Life span approx. / Estimated from Linf., K and to.</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length-weight (FL) </t>
+  </si>
+  <si>
+    <t>Wet_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wet weight in grams from LW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W </t>
+  </si>
+  <si>
+    <t>W = VALUE * L ^ coef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coefficient related to the equation above </t>
+  </si>
+  <si>
+    <t>W_coef</t>
+  </si>
+  <si>
+    <t>NP_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen and protein weight in grams </t>
+  </si>
+  <si>
+    <t>Whole_N_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whole body nitrogen in grams </t>
+  </si>
+  <si>
+    <t>Whole_P_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whole body crude protein in grams </t>
+  </si>
+  <si>
+    <t>F_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecundity maximum </t>
+  </si>
+  <si>
+    <t>F_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecundity minimum </t>
+  </si>
+  <si>
+    <t>YR</t>
+  </si>
+  <si>
+    <t>Relative yield per recruit (Y'/R)</t>
+  </si>
+  <si>
+    <t>Lc</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Lc (TL) / Estimate Y'/R from M/K, Lc/Linf and E.</t>
+  </si>
+  <si>
+    <t>Estimate Y'/R from M/K, Lc/Linf and E.</t>
+  </si>
+  <si>
+    <t>Emsy</t>
+  </si>
+  <si>
+    <t>per year / Estimate Y'/R from M/K, Lc/Linf and E.</t>
+  </si>
+  <si>
+    <t>Eopt</t>
+  </si>
+  <si>
+    <t>Fmsy</t>
+  </si>
+  <si>
+    <t>Fopt</t>
+  </si>
+  <si>
+    <t>Rm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intrinsic rate of increase per year </t>
+  </si>
+  <si>
+    <t>Lr</t>
+  </si>
+  <si>
+    <t>Variable associated with Rm (Estimated from Fmsy at Lc = length of recruitment (Lr))</t>
+  </si>
+  <si>
+    <t>Trophic</t>
+  </si>
+  <si>
+    <t>Trophic level (estimated from food data)</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food consumption (Q/B) = value times the body weight per year </t>
+  </si>
+  <si>
+    <t>Winf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">associated to calculate Q/B </t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>within calculation for Q/B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>aspect ratio within the calculation for Q/B</t>
+  </si>
+  <si>
+    <t>Pred</t>
+  </si>
+  <si>
+    <t>type of predator (detrivore, herbivore, omnivore, and carnivore)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Detrivore</t>
+  </si>
+  <si>
+    <t>Convict surgeonfish</t>
+  </si>
+  <si>
+    <t>M_se_min</t>
+  </si>
+  <si>
+    <t>M_se_max</t>
+  </si>
+  <si>
+    <t>standard error minimum (se) from M</t>
+  </si>
+  <si>
+    <t>standard error maximum (se) from M</t>
+  </si>
+  <si>
+    <t>Trophic_se</t>
+  </si>
+  <si>
+    <t>Carnivore</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=1260&amp;GenusName=Acanthurus&amp;SpeciesName=triostegus&amp;vStockCode=1277&amp;fc=412</t>
+  </si>
+  <si>
+    <t>Yellowfin surgeonfish</t>
+  </si>
+  <si>
+    <t>Herbivore</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=1261&amp;GenusName=Acanthurus&amp;SpeciesName=xanthopterus&amp;vStockCode=1278&amp;fc=412</t>
+  </si>
+  <si>
+    <t>Peacock hind</t>
+  </si>
+  <si>
+    <t>Lspan</t>
+  </si>
+  <si>
+    <t>Lspan_se_min</t>
+  </si>
+  <si>
+    <t>Lspan_se_max</t>
+  </si>
+  <si>
+    <t>standard error minimum (se) from Lspan</t>
+  </si>
+  <si>
+    <t>standard error maximum (se) from Lspan</t>
+  </si>
+  <si>
+    <t>GT_se_min</t>
+  </si>
+  <si>
+    <t>GT_se_max</t>
+  </si>
+  <si>
+    <t>standard error minimum (se) from GT</t>
+  </si>
+  <si>
+    <t>standard error maximum (se) from GT</t>
+  </si>
+  <si>
+    <t>tm_se_min</t>
+  </si>
+  <si>
+    <t>tm_se_max</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=6396&amp;GenusName=Cephalopholis&amp;SpeciesName=argus&amp;vStockCode=6717&amp;fc=289</t>
+  </si>
+  <si>
+    <t>Common silver-biddy</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=5996&amp;GenusName=Gerres&amp;SpeciesName=oyena&amp;vStockCode=6306&amp;fc=326</t>
+  </si>
+  <si>
+    <t>Candelamoa parrotfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=7906&amp;GenusName=Hipposcarus&amp;SpeciesName=harid&amp;vStockCode=8217&amp;fc=364</t>
+  </si>
+  <si>
+    <t>Marbled parrotfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=4360&amp;GenusName=Leptoscarus&amp;SpeciesName=vaigiensis&amp;vStockCode=4555&amp;fc=364</t>
+  </si>
+  <si>
+    <t>Redaxil emperor</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=1868&amp;GenusName=Lethrinus&amp;SpeciesName=conchyliatus&amp;vStockCode=2064&amp;fc=328</t>
+  </si>
+  <si>
+    <t>Thumbprint emperor</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=1851&amp;GenusName=Lethrinus&amp;SpeciesName=harak&amp;vStockCode=2047&amp;fc=328</t>
+  </si>
+  <si>
+    <t>Spangled emperor</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=1846&amp;GenusName=Lethrinus&amp;SpeciesName=nebulosus&amp;vStockCode=2042&amp;fc=328</t>
+  </si>
+  <si>
+    <t>Dory snapper</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=261&amp;GenusName=Lutjanus&amp;SpeciesName=fulviflamma&amp;vStockCode=275&amp;fc=323</t>
+  </si>
+  <si>
+    <t>Humpnose big-eye bream</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=1869&amp;GenusName=Monotaxis&amp;SpeciesName=grandoculis&amp;vStockCode=2065&amp;fc=328</t>
+  </si>
+  <si>
+    <t>Yellowstripe goatfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=5983&amp;GenusName=Mulloidichthys&amp;SpeciesName=flavolineatus&amp;vStockCode=6292&amp;fc=332</t>
+  </si>
+  <si>
+    <t>Whitemargin unicornfish</t>
+  </si>
+  <si>
+    <t>Maximum length (measured from TL) cm</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=6019&amp;GenusName=Naso&amp;SpeciesName=annulatus&amp;vStockCode=6333&amp;fc=412</t>
+  </si>
+  <si>
+    <t>Humpback unicornfish</t>
+  </si>
+  <si>
+    <t>Linf_se_min</t>
+  </si>
+  <si>
+    <t>Linf_se_max</t>
+  </si>
+  <si>
+    <t>standard error minimum (se) from Linf</t>
+  </si>
+  <si>
+    <t>standard error maximum (se) from Linf</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_4.php?ID=6020&amp;GenusName=Naso&amp;SpeciesName=brachycentron&amp;vStockCode=6334&amp;fc=412&amp;var_tmax=31</t>
+  </si>
+  <si>
+    <t>Cinnabar goatfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=5991&amp;GenusName=Parupeneus&amp;SpeciesName=heptacanthus&amp;vStockCode=6300&amp;fc=332</t>
+  </si>
+  <si>
+    <t>Long-barbel goatfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=7878&amp;GenusName=Parupeneus&amp;SpeciesName=macronemus&amp;vStockCode=8188&amp;fc=332</t>
+  </si>
+  <si>
+    <t>Blackspotted rubberlip</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=7703&amp;GenusName=Plectorhinchus&amp;SpeciesName=gaterinus&amp;vStockCode=8012&amp;fc=327</t>
+  </si>
+  <si>
+    <t>Sordid rubberlip</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_3.php?ID=7626&amp;GenusName=Plectorhinchus&amp;SpeciesName=sordidus&amp;vStockCode=7934&amp;fc=327&amp;var_tm=2.0999999046325684</t>
+  </si>
+  <si>
+    <t>Indian Ocean oriental sweetlips</t>
+  </si>
+  <si>
+    <t>Omnivore</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=25706&amp;GenusName=Plectorhinchus&amp;SpeciesName=vittatus&amp;vStockCode=20280&amp;fc=327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blacktip sardinella </t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=1513&amp;GenusName=Sardinella&amp;SpeciesName=melanura&amp;vStockCode=1706&amp;fc=43</t>
+  </si>
+  <si>
+    <t>Blue-barred parrotfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_3.php?ID=5548&amp;GenusName=Scarus&amp;SpeciesName=ghobban&amp;vStockCode=5838&amp;fc=364&amp;var_tm=2</t>
+  </si>
+  <si>
+    <t>Ember parrotfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=5555&amp;GenusName=Scarus&amp;SpeciesName=rubroviolaceus&amp;vStockCode=5845&amp;fc=364</t>
+  </si>
+  <si>
+    <t>White-spotted spinefoot</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Fecundity</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=4456&amp;GenusName=Siganus&amp;SpeciesName=canaliculatus&amp;vStockCode=4654&amp;fc=413</t>
+  </si>
+  <si>
+    <t>Shoemaker spinefoot</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=4615&amp;GenusName=Siganus&amp;SpeciesName=sutor&amp;vStockCode=4802&amp;fc=413</t>
+  </si>
+  <si>
+    <t>Largehead hairtail</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=1288&amp;GenusName=Trichiurus&amp;SpeciesName=lepturus&amp;vStockCode=1305&amp;fc=415</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -70,8 +645,8 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Monaco"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,7 +657,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,13 +665,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,47 +1008,5163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27ABF6E-FCDE-A64A-8E31-FB070AB67392}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:BD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="AP26" sqref="AP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" customWidth="1"/>
+    <col min="12" max="12" width="7.5" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" customWidth="1"/>
+    <col min="19" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5" customWidth="1"/>
+    <col min="22" max="23" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.83203125" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.33203125" customWidth="1"/>
+    <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.33203125" customWidth="1"/>
+    <col min="31" max="31" width="10.1640625" customWidth="1"/>
+    <col min="32" max="32" width="9.33203125" customWidth="1"/>
+    <col min="33" max="33" width="10.5" customWidth="1"/>
+    <col min="34" max="34" width="9.1640625" customWidth="1"/>
+    <col min="38" max="38" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.6640625" customWidth="1"/>
+    <col min="41" max="41" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:56" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>131</v>
+      </c>
+      <c r="F2">
+        <v>54</v>
+      </c>
+      <c r="G2">
+        <v>40.5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2.69</v>
+      </c>
+      <c r="L2">
+        <v>0.64</v>
+      </c>
+      <c r="M2">
+        <v>0.43</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="O2" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2">
+        <v>2.7</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="U2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="X2">
+        <v>23.2</v>
+      </c>
+      <c r="Y2">
+        <v>17.3</v>
+      </c>
+      <c r="Z2">
+        <v>31.1</v>
+      </c>
+      <c r="AA2">
+        <v>25.2</v>
+      </c>
+      <c r="AB2">
+        <v>21.3</v>
+      </c>
+      <c r="AC2">
+        <v>29.8</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="AE2">
+        <v>1737.8</v>
+      </c>
+      <c r="AF2">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>2.8682599999999998</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>1738</v>
+      </c>
+      <c r="AI2">
+        <v>48.7</v>
+      </c>
+      <c r="AJ2">
+        <v>304.2</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN2">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AO2">
+        <v>16.2</v>
+      </c>
+      <c r="AP2">
+        <v>0.5</v>
+      </c>
+      <c r="AQ2">
+        <v>0.66</v>
+      </c>
+      <c r="AR2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS2">
+        <v>1.24</v>
+      </c>
+      <c r="AT2">
+        <v>0.88</v>
+      </c>
+      <c r="AU2">
+        <v>2.48</v>
+      </c>
+      <c r="AV2">
+        <v>16.2</v>
+      </c>
+      <c r="AW2">
+        <v>2</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY2">
+        <v>17.5</v>
+      </c>
+      <c r="AZ2">
+        <v>1737.8</v>
+      </c>
+      <c r="BA2">
+        <v>26</v>
+      </c>
+      <c r="BB2">
+        <v>1.32</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="K3" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="L3">
+        <v>1.92</v>
+      </c>
+      <c r="M3">
+        <v>1.27</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3">
+        <v>0.8</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="X3">
+        <v>12.3</v>
+      </c>
+      <c r="Y3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Z3">
+        <v>16.5</v>
+      </c>
+      <c r="AA3">
+        <v>12.2</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>20</v>
+      </c>
+      <c r="AE3">
+        <v>217.2</v>
+      </c>
+      <c r="AF3">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>3.081</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>218</v>
+      </c>
+      <c r="AI3">
+        <v>5.7</v>
+      </c>
+      <c r="AJ3">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN3">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="AO3">
+        <v>8</v>
+      </c>
+      <c r="AP3">
+        <v>0.5</v>
+      </c>
+      <c r="AQ3">
+        <v>0.64</v>
+      </c>
+      <c r="AR3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS3">
+        <v>3.41</v>
+      </c>
+      <c r="AT3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AU3">
+        <v>6.82</v>
+      </c>
+      <c r="AV3">
+        <v>8</v>
+      </c>
+      <c r="AW3">
+        <v>2.8</v>
+      </c>
+      <c r="AX3">
+        <v>0.35</v>
+      </c>
+      <c r="AY3">
+        <v>11.2</v>
+      </c>
+      <c r="AZ3">
+        <v>217.2</v>
+      </c>
+      <c r="BA3">
+        <v>27</v>
+      </c>
+      <c r="BB3">
+        <v>1.32</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="G4" s="2">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K4" s="9">
+        <v>3.08</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="O4" s="10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="U4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="X4">
+        <v>35.5</v>
+      </c>
+      <c r="Y4">
+        <v>26.5</v>
+      </c>
+      <c r="Z4">
+        <v>47.5</v>
+      </c>
+      <c r="AA4">
+        <v>41.2</v>
+      </c>
+      <c r="AB4">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AC4">
+        <v>48.8</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>65</v>
+      </c>
+      <c r="AE4">
+        <v>6489.6</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>2.92</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>6490</v>
+      </c>
+      <c r="AI4">
+        <v>189.1</v>
+      </c>
+      <c r="AJ4">
+        <v>1181.5999999999999</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN4">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="AO4">
+        <v>26</v>
+      </c>
+      <c r="AP4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ4">
+        <v>0.64</v>
+      </c>
+      <c r="AR4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS4">
+        <v>0.96</v>
+      </c>
+      <c r="AT4">
+        <v>0.72</v>
+      </c>
+      <c r="AU4">
+        <v>1.92</v>
+      </c>
+      <c r="AV4">
+        <v>26</v>
+      </c>
+      <c r="AW4">
+        <v>2.9</v>
+      </c>
+      <c r="AX4">
+        <v>0.36</v>
+      </c>
+      <c r="AY4">
+        <v>18.2</v>
+      </c>
+      <c r="AZ4">
+        <v>6489.6</v>
+      </c>
+      <c r="BA4">
+        <v>26</v>
+      </c>
+      <c r="BB4">
+        <v>1.32</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5" s="2">
+        <v>62.2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="O5" s="10">
+        <v>15.9</v>
+      </c>
+      <c r="P5" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="R5" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="S5" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="T5" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="U5" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="V5" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="W5" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X5">
+        <v>34.1</v>
+      </c>
+      <c r="Y5">
+        <v>25.5</v>
+      </c>
+      <c r="Z5">
+        <v>45.7</v>
+      </c>
+      <c r="AA5">
+        <v>39.4</v>
+      </c>
+      <c r="AB5">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AC5">
+        <v>46.6</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>62.2</v>
+      </c>
+      <c r="AE5">
+        <v>4487</v>
+      </c>
+      <c r="AF5">
+        <v>1.09E-2</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>3.13</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>4487</v>
+      </c>
+      <c r="AI5">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="AJ5">
+        <v>808</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN5">
+        <v>2.35E-2</v>
+      </c>
+      <c r="AO5">
+        <v>24.9</v>
+      </c>
+      <c r="AP5">
+        <v>0.5</v>
+      </c>
+      <c r="AQ5">
+        <v>0.67</v>
+      </c>
+      <c r="AR5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS5">
+        <v>0.81</v>
+      </c>
+      <c r="AT5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AU5">
+        <v>1.62</v>
+      </c>
+      <c r="AV5">
+        <v>24.9</v>
+      </c>
+      <c r="AW5">
+        <v>4.5</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY5">
+        <v>5.8</v>
+      </c>
+      <c r="AZ5">
+        <v>4487.3999999999996</v>
+      </c>
+      <c r="BA5">
+        <v>26</v>
+      </c>
+      <c r="BB5">
+        <v>1.32</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="N6" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="O6" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0.7</v>
+      </c>
+      <c r="V6">
+        <v>0.5</v>
+      </c>
+      <c r="W6">
+        <v>0.9</v>
+      </c>
+      <c r="X6">
+        <v>18.5</v>
+      </c>
+      <c r="Y6">
+        <v>13.8</v>
+      </c>
+      <c r="Z6">
+        <v>24.8</v>
+      </c>
+      <c r="AA6">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AB6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>22.9</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="AE6">
+        <v>835</v>
+      </c>
+      <c r="AF6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>3.2320000000000002</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>835</v>
+      </c>
+      <c r="AI6">
+        <v>22.9</v>
+      </c>
+      <c r="AJ6">
+        <v>143</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN6">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="AO6">
+        <v>12.6</v>
+      </c>
+      <c r="AP6">
+        <v>0.5</v>
+      </c>
+      <c r="AQ6">
+        <v>0.62</v>
+      </c>
+      <c r="AR6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AS6">
+        <v>3.02</v>
+      </c>
+      <c r="AT6">
+        <v>2.31</v>
+      </c>
+      <c r="AU6">
+        <v>6.04</v>
+      </c>
+      <c r="AV6">
+        <v>12.6</v>
+      </c>
+      <c r="AW6">
+        <v>2.7</v>
+      </c>
+      <c r="AX6">
+        <v>0.24</v>
+      </c>
+      <c r="AY6">
+        <v>8.6</v>
+      </c>
+      <c r="AZ6">
+        <v>835.1</v>
+      </c>
+      <c r="BA6">
+        <v>27.2</v>
+      </c>
+      <c r="BB6">
+        <v>1.32</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>75</v>
+      </c>
+      <c r="G7" s="2">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2.69</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O7" s="10">
+        <v>16.8</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="R7" s="10">
+        <v>5</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="U7">
+        <v>3.9</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="X7">
+        <v>30</v>
+      </c>
+      <c r="Y7">
+        <v>22.4</v>
+      </c>
+      <c r="Z7">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AA7">
+        <v>34</v>
+      </c>
+      <c r="AB7">
+        <v>28.7</v>
+      </c>
+      <c r="AC7">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>54</v>
+      </c>
+      <c r="AE7">
+        <v>2309.3000000000002</v>
+      </c>
+      <c r="AF7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>2.91</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>2310</v>
+      </c>
+      <c r="AI7">
+        <v>65.2</v>
+      </c>
+      <c r="AJ7">
+        <v>407.6</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN7">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="AO7">
+        <v>21.6</v>
+      </c>
+      <c r="AP7">
+        <v>0.5</v>
+      </c>
+      <c r="AQ7">
+        <v>0.67</v>
+      </c>
+      <c r="AR7">
+        <v>0.59</v>
+      </c>
+      <c r="AS7">
+        <v>0.77</v>
+      </c>
+      <c r="AT7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU7">
+        <v>1.54</v>
+      </c>
+      <c r="AV7">
+        <v>21.6</v>
+      </c>
+      <c r="AW7">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="AX7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY7">
+        <v>15.7</v>
+      </c>
+      <c r="AZ7">
+        <v>2309.3000000000002</v>
+      </c>
+      <c r="BA7">
+        <v>25</v>
+      </c>
+      <c r="BB7">
+        <v>1.32</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G8" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="N8" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O8" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R8" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="S8" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="T8" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="U8" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="V8" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W8" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="X8" s="12">
+        <v>21.3</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>15.9</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>28.5</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>22.8</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>19.3</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>27</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>760</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>2.9649999999999999</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>759</v>
+      </c>
+      <c r="AI8">
+        <v>20.8</v>
+      </c>
+      <c r="AJ8">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN8">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="AO8">
+        <v>14.7</v>
+      </c>
+      <c r="AP8">
+        <v>0.5</v>
+      </c>
+      <c r="AQ8">
+        <v>0.6</v>
+      </c>
+      <c r="AR8">
+        <v>0.54</v>
+      </c>
+      <c r="AS8">
+        <v>1.08</v>
+      </c>
+      <c r="AT8">
+        <v>0.86</v>
+      </c>
+      <c r="AU8">
+        <v>2.16</v>
+      </c>
+      <c r="AV8">
+        <v>14.7</v>
+      </c>
+      <c r="AW8">
+        <v>2</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY8">
+        <v>11.2</v>
+      </c>
+      <c r="AZ8">
+        <v>759.9</v>
+      </c>
+      <c r="BA8">
+        <v>14.3</v>
+      </c>
+      <c r="BB8">
+        <v>1.32</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>220</v>
+      </c>
+      <c r="F9">
+        <v>76</v>
+      </c>
+      <c r="G9" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="O9" s="10">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="P9" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="R9" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="S9" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="T9" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="U9" s="13">
+        <v>3.7</v>
+      </c>
+      <c r="V9" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="W9" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="X9" s="13">
+        <v>42</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>31.4</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>56.3</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>50.2</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>42.4</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>59.4</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN9">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="AO9">
+        <v>31.4</v>
+      </c>
+      <c r="AP9">
+        <v>0.5</v>
+      </c>
+      <c r="AQ9">
+        <v>0.65</v>
+      </c>
+      <c r="AR9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS9">
+        <v>0.65</v>
+      </c>
+      <c r="AT9">
+        <v>0.47</v>
+      </c>
+      <c r="AU9">
+        <v>1.3</v>
+      </c>
+      <c r="AV9">
+        <v>31.4</v>
+      </c>
+      <c r="AW9">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="AX9">
+        <v>0.67</v>
+      </c>
+      <c r="AY9">
+        <v>5.4</v>
+      </c>
+      <c r="AZ9">
+        <v>4837.3999999999996</v>
+      </c>
+      <c r="BA9">
+        <v>25</v>
+      </c>
+      <c r="BB9">
+        <v>1.32</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="N10" s="9">
+        <v>1.22</v>
+      </c>
+      <c r="O10" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R10" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U10" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" s="12">
+        <v>23.6</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>31.6</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>25.8</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>41.2</v>
+      </c>
+      <c r="AE10">
+        <v>1391.2</v>
+      </c>
+      <c r="AF10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>3.0422600000000002</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>1392</v>
+      </c>
+      <c r="AI10">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AJ10">
+        <v>241.9</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN10">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="AO10">
+        <v>16.5</v>
+      </c>
+      <c r="AP10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ10">
+        <v>0.63</v>
+      </c>
+      <c r="AR10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AS10">
+        <v>1.38</v>
+      </c>
+      <c r="AT10">
+        <v>1.03</v>
+      </c>
+      <c r="AU10">
+        <v>2.76</v>
+      </c>
+      <c r="AV10">
+        <v>16.5</v>
+      </c>
+      <c r="AW10">
+        <v>3.6</v>
+      </c>
+      <c r="AX10">
+        <v>0.47</v>
+      </c>
+      <c r="AY10">
+        <v>6.3</v>
+      </c>
+      <c r="AZ10">
+        <v>1391.2</v>
+      </c>
+      <c r="BA10">
+        <v>23</v>
+      </c>
+      <c r="BB10">
+        <v>1.32</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>87</v>
+      </c>
+      <c r="G11" s="2">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.63</v>
+      </c>
+      <c r="O11" s="10">
+        <v>13.6</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R11" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U11" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" s="12">
+        <v>37.4</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>27.9</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>50.1</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>43.9</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>37.1</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>51.9</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>69</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>5193.7</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>2.86E-2</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>2.86</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>5194</v>
+      </c>
+      <c r="AI11">
+        <v>150.30000000000001</v>
+      </c>
+      <c r="AJ11">
+        <v>939.3</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN11">
+        <v>2.93E-2</v>
+      </c>
+      <c r="AO11">
+        <v>27.6</v>
+      </c>
+      <c r="AP11">
+        <v>0.5</v>
+      </c>
+      <c r="AQ11">
+        <v>0.64</v>
+      </c>
+      <c r="AR11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS11">
+        <v>0.73</v>
+      </c>
+      <c r="AT11">
+        <v>0.54</v>
+      </c>
+      <c r="AU11">
+        <v>1.46</v>
+      </c>
+      <c r="AV11">
+        <v>27.6</v>
+      </c>
+      <c r="AW11">
+        <v>3.8</v>
+      </c>
+      <c r="AX11">
+        <v>0.19</v>
+      </c>
+      <c r="AY11">
         <v>5</v>
+      </c>
+      <c r="AZ11">
+        <v>5193.7</v>
+      </c>
+      <c r="BA11">
+        <v>24</v>
+      </c>
+      <c r="BB11">
+        <v>1.32</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" s="12">
+        <v>13.6</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>10.1</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>18.2</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>14</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>22.3</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>296.2</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>2.95</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>297</v>
+      </c>
+      <c r="AI12">
+        <v>7.9</v>
+      </c>
+      <c r="AJ12">
+        <v>49.2</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN12">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="AO12">
+        <v>8.9</v>
+      </c>
+      <c r="AP12">
+        <v>0.5</v>
+      </c>
+      <c r="AQ12">
+        <v>0.62</v>
+      </c>
+      <c r="AR12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AS12">
+        <v>2.63</v>
+      </c>
+      <c r="AT12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AU12">
+        <v>5.26</v>
+      </c>
+      <c r="AV12">
+        <v>8.9</v>
+      </c>
+      <c r="AW12">
+        <v>3.8</v>
+      </c>
+      <c r="AX12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AY12">
+        <v>9</v>
+      </c>
+      <c r="AZ12">
+        <v>296.2</v>
+      </c>
+      <c r="BA12">
+        <v>24</v>
+      </c>
+      <c r="BB12">
+        <v>1.32</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13" s="2">
+        <v>62.2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="O13" s="10">
+        <v>13</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="R13" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="S13" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="T13" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="U13" s="12">
+        <v>3</v>
+      </c>
+      <c r="V13" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="W13" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="X13" s="12">
+        <v>34.1</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>25.5</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>45.7</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>39.4</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>46.6</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>62.2</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>4682</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>2.851</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>4681</v>
+      </c>
+      <c r="AI13">
+        <v>135.1</v>
+      </c>
+      <c r="AJ13">
+        <v>844.1</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN13">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="AO13">
+        <v>24.9</v>
+      </c>
+      <c r="AP13">
+        <v>0.5</v>
+      </c>
+      <c r="AQ13">
+        <v>0.65</v>
+      </c>
+      <c r="AR13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS13">
+        <v>0.84</v>
+      </c>
+      <c r="AT13">
+        <v>0.61</v>
+      </c>
+      <c r="AU13">
+        <v>1.68</v>
+      </c>
+      <c r="AV13">
+        <v>24.9</v>
+      </c>
+      <c r="AW13">
+        <v>3.4</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY13">
+        <v>5.4</v>
+      </c>
+      <c r="AZ13">
+        <v>4681.6000000000004</v>
+      </c>
+      <c r="BA13">
+        <v>25</v>
+      </c>
+      <c r="BB13">
+        <v>1.32</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>76</v>
+      </c>
+      <c r="F14">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0.97</v>
+      </c>
+      <c r="O14" s="10">
+        <v>10.5</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R14" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U14" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X14" s="12">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>14.8</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>26.6</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>21</v>
+      </c>
+      <c r="AB14" s="12">
+        <v>17.8</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>24.9</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>34.1</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>652.79999999999995</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>1.38E-2</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>3.05</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>653</v>
+      </c>
+      <c r="AI14">
+        <v>17.8</v>
+      </c>
+      <c r="AJ14">
+        <v>110.9</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN14">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AO14">
+        <v>13.6</v>
+      </c>
+      <c r="AP14">
+        <v>0.5</v>
+      </c>
+      <c r="AQ14">
+        <v>0.68</v>
+      </c>
+      <c r="AR14">
+        <v>0.59</v>
+      </c>
+      <c r="AS14">
+        <v>1.36</v>
+      </c>
+      <c r="AT14">
+        <v>0.92</v>
+      </c>
+      <c r="AU14">
+        <v>2.72</v>
+      </c>
+      <c r="AV14">
+        <v>13.6</v>
+      </c>
+      <c r="AW14">
+        <v>3.8</v>
+      </c>
+      <c r="AX14">
+        <v>0.32</v>
+      </c>
+      <c r="AY14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AZ14">
+        <v>652.79999999999995</v>
+      </c>
+      <c r="BA14">
+        <v>27.5</v>
+      </c>
+      <c r="BB14">
+        <v>1.32</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2">
+        <v>72.8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="O15" s="10">
+        <v>13.7</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R15" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U15" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X15" s="12">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>29.3</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>52.6</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>46.4</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>54.9</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>72.8</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>5806.9</v>
+      </c>
+      <c r="AF15" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="AG15" s="7">
+        <v>2.7153700000000001</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>5807</v>
+      </c>
+      <c r="AI15">
+        <v>168.6</v>
+      </c>
+      <c r="AJ15">
+        <v>1053.8</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN15">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="AO15">
+        <v>29.1</v>
+      </c>
+      <c r="AP15">
+        <v>0.5</v>
+      </c>
+      <c r="AQ15">
+        <v>0.65</v>
+      </c>
+      <c r="AR15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS15">
+        <v>0.8</v>
+      </c>
+      <c r="AT15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AU15">
+        <v>1.6</v>
+      </c>
+      <c r="AV15">
+        <v>29.1</v>
+      </c>
+      <c r="AW15">
+        <v>2.1</v>
+      </c>
+      <c r="AX15">
+        <v>0.09</v>
+      </c>
+      <c r="AY15">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AZ15">
+        <v>5806.9</v>
+      </c>
+      <c r="BA15">
+        <v>26</v>
+      </c>
+      <c r="BB15">
+        <v>1.32</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16" s="2">
+        <v>92.7</v>
+      </c>
+      <c r="H16" s="2">
+        <v>78.2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>109.9</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" s="10">
+        <v>32</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R16" s="12">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="S16" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="T16" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="U16" s="12">
+        <v>7</v>
+      </c>
+      <c r="V16" s="12">
+        <v>5.6</v>
+      </c>
+      <c r="W16" s="12">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="X16" s="12">
+        <v>48.8</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>36.4</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>59.7</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>50.4</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN16">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="AO16">
+        <v>37.1</v>
+      </c>
+      <c r="AP16">
+        <v>0.5</v>
+      </c>
+      <c r="AQ16">
+        <v>0.68</v>
+      </c>
+      <c r="AR16">
+        <v>0.6</v>
+      </c>
+      <c r="AS16">
+        <v>0.45</v>
+      </c>
+      <c r="AT16">
+        <v>0.31</v>
+      </c>
+      <c r="AU16">
+        <v>0.9</v>
+      </c>
+      <c r="AV16">
+        <v>37.1</v>
+      </c>
+      <c r="AW16">
+        <v>2.7</v>
+      </c>
+      <c r="AX16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AY16">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AZ16">
+        <v>7966</v>
+      </c>
+      <c r="BA16">
+        <v>26</v>
+      </c>
+      <c r="BB16">
+        <v>1.32</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>350</v>
+      </c>
+      <c r="F17">
+        <v>36</v>
+      </c>
+      <c r="G17" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="N17" s="9">
+        <v>1.61</v>
+      </c>
+      <c r="O17" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R17" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U17" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X17" s="12">
+        <v>17.5</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>13.1</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>23.4</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>18.2</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>15.3</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>29.6</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>571</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>3.07802</v>
+      </c>
+      <c r="AH17" s="8">
+        <v>571</v>
+      </c>
+      <c r="AI17">
+        <v>15.5</v>
+      </c>
+      <c r="AJ17">
+        <v>96.6</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN17">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="AO17">
+        <v>11.8</v>
+      </c>
+      <c r="AP17">
+        <v>0.5</v>
+      </c>
+      <c r="AQ17">
+        <v>0.65</v>
+      </c>
+      <c r="AR17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS17">
+        <v>1.97</v>
+      </c>
+      <c r="AT17">
+        <v>1.47</v>
+      </c>
+      <c r="AU17">
+        <v>3.94</v>
+      </c>
+      <c r="AV17">
+        <v>11.8</v>
+      </c>
+      <c r="AW17">
+        <v>3.4</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY17">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AZ17">
+        <v>570.9</v>
+      </c>
+      <c r="BA17">
+        <v>28</v>
+      </c>
+      <c r="BB17">
+        <v>1.32</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="G18" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="O18" s="10">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="R18" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="S18" s="12">
+        <v>2</v>
+      </c>
+      <c r="T18" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U18" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="V18" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="W18" s="12">
+        <v>3</v>
+      </c>
+      <c r="X18" s="12">
+        <v>23.8</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>17.8</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>31.9</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>26</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>21.9</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>30.7</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>41.7</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>1208</v>
+      </c>
+      <c r="AF18" s="12">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="AG18" s="7">
+        <v>3.2970000000000002</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>1207</v>
+      </c>
+      <c r="AI18">
+        <v>33.5</v>
+      </c>
+      <c r="AJ18">
+        <v>209.1</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN18">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="AO18">
+        <v>16.7</v>
+      </c>
+      <c r="AP18">
+        <v>0.5</v>
+      </c>
+      <c r="AQ18">
+        <v>0.66</v>
+      </c>
+      <c r="AR18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS18">
+        <v>1.24</v>
+      </c>
+      <c r="AT18">
+        <v>0.9</v>
+      </c>
+      <c r="AU18">
+        <v>2.48</v>
+      </c>
+      <c r="AV18">
+        <v>16.7</v>
+      </c>
+      <c r="AW18">
+        <v>3.5</v>
+      </c>
+      <c r="AX18">
+        <v>0.37</v>
+      </c>
+      <c r="AY18">
+        <v>7.9</v>
+      </c>
+      <c r="AZ18">
+        <v>1207.7</v>
+      </c>
+      <c r="BA18">
+        <v>27</v>
+      </c>
+      <c r="BB18">
+        <v>1.32</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19" s="2">
+        <v>52</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0.69</v>
+      </c>
+      <c r="O19" s="10">
+        <v>13.6</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="R19" s="10">
+        <v>4</v>
+      </c>
+      <c r="S19" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="T19" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="U19" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="V19" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="W19" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X19" s="12">
+        <v>29</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>21.7</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>38.9</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>27.6</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>38.6</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN19">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="AO19">
+        <v>20.8</v>
+      </c>
+      <c r="AP19">
+        <v>0.5</v>
+      </c>
+      <c r="AQ19">
+        <v>0.66</v>
+      </c>
+      <c r="AR19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS19">
+        <v>0.87</v>
+      </c>
+      <c r="AT19">
+        <v>0.63</v>
+      </c>
+      <c r="AU19">
+        <v>1.74</v>
+      </c>
+      <c r="AV19">
+        <v>20.8</v>
+      </c>
+      <c r="AW19">
+        <v>4</v>
+      </c>
+      <c r="AX19">
+        <v>0.66</v>
+      </c>
+      <c r="AY19">
+        <v>6.9</v>
+      </c>
+      <c r="AZ19">
+        <v>1406.1</v>
+      </c>
+      <c r="BA19">
+        <v>25</v>
+      </c>
+      <c r="BB19">
+        <v>1.32</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20" s="2">
+        <v>62.2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="O20" s="10">
+        <v>9</v>
+      </c>
+      <c r="P20" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="R20" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="S20" s="12">
+        <v>2</v>
+      </c>
+      <c r="T20" s="12">
+        <v>4</v>
+      </c>
+      <c r="U20" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="V20" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="W20" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="X20" s="12">
+        <v>34.1</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>25.5</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>45.7</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>39.4</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>46.6</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>62.2</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>3085</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="AH20" s="8">
+        <v>3084</v>
+      </c>
+      <c r="AI20">
+        <v>87.9</v>
+      </c>
+      <c r="AJ20">
+        <v>549.29999999999995</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN20">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="AO20">
+        <v>24.9</v>
+      </c>
+      <c r="AP20">
+        <v>0.5</v>
+      </c>
+      <c r="AQ20">
+        <v>0.63</v>
+      </c>
+      <c r="AR20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+      <c r="AT20">
+        <v>0.77</v>
+      </c>
+      <c r="AU20">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AV20">
+        <v>24.9</v>
+      </c>
+      <c r="AW20">
+        <v>4</v>
+      </c>
+      <c r="AX20">
+        <v>0.66</v>
+      </c>
+      <c r="AY20">
+        <v>5.9</v>
+      </c>
+      <c r="AZ20">
+        <v>3084.8</v>
+      </c>
+      <c r="BA20">
+        <v>25</v>
+      </c>
+      <c r="BB20">
+        <v>1.32</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>72</v>
+      </c>
+      <c r="G21" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="H21" s="11">
+        <v>62.8</v>
+      </c>
+      <c r="I21" s="12">
+        <v>88.3</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="X21" s="12">
+        <v>40</v>
+      </c>
+      <c r="Y21" s="12">
+        <v>29.9</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>53.7</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>47.4</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>40.1</v>
+      </c>
+      <c r="AC21" s="12">
+        <v>56.1</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO21">
+        <v>29.8</v>
+      </c>
+      <c r="AP21">
+        <v>0.5</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV21">
+        <v>29.8</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY21">
+        <v>12.3</v>
+      </c>
+      <c r="AZ21">
+        <v>4118.3</v>
+      </c>
+      <c r="BA21">
+        <v>25</v>
+      </c>
+      <c r="BB21">
+        <v>1.32</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>20.3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="K22" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="N22" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O22" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="X22" s="12">
+        <v>13.5</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>10</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>18</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>13.4</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>11.3</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>15.8</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>22.1</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>153.9</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>1.26E-2</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>3.04</v>
+      </c>
+      <c r="AH22" s="8">
+        <v>154</v>
+      </c>
+      <c r="AI22">
+        <v>4</v>
+      </c>
+      <c r="AJ22">
+        <v>25.1</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AO22">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AP22">
+        <v>0.5</v>
+      </c>
+      <c r="AQ22">
+        <v>0.65</v>
+      </c>
+      <c r="AR22">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS22">
+        <v>2.84</v>
+      </c>
+      <c r="AT22">
+        <v>2.11</v>
+      </c>
+      <c r="AU22">
+        <v>5.68</v>
+      </c>
+      <c r="AV22">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY22">
+        <v>28.6</v>
+      </c>
+      <c r="AZ22">
+        <v>153.9</v>
+      </c>
+      <c r="BA22">
+        <v>28.5</v>
+      </c>
+      <c r="BB22">
+        <v>1.32</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>90</v>
+      </c>
+      <c r="F23">
+        <v>75</v>
+      </c>
+      <c r="G23" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="H23" s="11">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="I23" s="12">
+        <v>91.9</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.91</v>
+      </c>
+      <c r="O23" s="10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P23" s="12">
+        <v>6.6</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>11.2</v>
+      </c>
+      <c r="R23" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="S23" s="12">
+        <v>2</v>
+      </c>
+      <c r="T23" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="U23" s="12">
+        <v>2</v>
+      </c>
+      <c r="V23" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="W23" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="X23" s="12">
+        <v>41.5</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>31</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>55.7</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>49.5</v>
+      </c>
+      <c r="AB23" s="12">
+        <v>41.8</v>
+      </c>
+      <c r="AC23" s="12">
+        <v>58.6</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>77.5</v>
+      </c>
+      <c r="AE23" s="12">
+        <v>15383</v>
+      </c>
+      <c r="AF23" s="12">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="AG23" s="14">
+        <v>3.0230000000000001</v>
+      </c>
+      <c r="AH23" s="12">
+        <v>15382</v>
+      </c>
+      <c r="AI23" s="12">
+        <v>459.9</v>
+      </c>
+      <c r="AJ23" s="12">
+        <v>2874.2</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN23">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="AO23">
+        <v>31</v>
+      </c>
+      <c r="AP23">
+        <v>0.5</v>
+      </c>
+      <c r="AQ23">
+        <v>0.63</v>
+      </c>
+      <c r="AR23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AS23">
+        <v>1.02</v>
+      </c>
+      <c r="AT23">
+        <v>0.76</v>
+      </c>
+      <c r="AU23">
+        <v>2.04</v>
+      </c>
+      <c r="AV23">
+        <v>31</v>
+      </c>
+      <c r="AW23">
+        <v>2</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY23">
+        <v>11.8</v>
+      </c>
+      <c r="AZ23">
+        <v>15382.6</v>
+      </c>
+      <c r="BA23">
+        <v>27</v>
+      </c>
+      <c r="BB23">
+        <v>1.32</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>36</v>
+      </c>
+      <c r="F24">
+        <v>70</v>
+      </c>
+      <c r="G24" s="2">
+        <v>46.6</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K24" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="L24" s="12">
+        <v>1.04</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="N24" s="9">
+        <v>1.57</v>
+      </c>
+      <c r="O24" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R24" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U24" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X24" s="12">
+        <v>26.3</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>29.2</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>46.6</v>
+      </c>
+      <c r="AE24" s="12">
+        <v>2303.4</v>
+      </c>
+      <c r="AF24" s="12">
+        <v>1.14E-2</v>
+      </c>
+      <c r="AG24" s="14">
+        <v>3.18</v>
+      </c>
+      <c r="AH24" s="8">
+        <v>2304</v>
+      </c>
+      <c r="AI24" s="12">
+        <v>65</v>
+      </c>
+      <c r="AJ24" s="12">
+        <v>406.6</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN24">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="AO24">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AP24">
+        <v>0.5</v>
+      </c>
+      <c r="AQ24">
+        <v>0.62</v>
+      </c>
+      <c r="AR24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AS24">
+        <v>1.7</v>
+      </c>
+      <c r="AT24">
+        <v>1.32</v>
+      </c>
+      <c r="AU24">
+        <v>3.4</v>
+      </c>
+      <c r="AV24">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AW24">
+        <v>2</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY24">
+        <v>17.3</v>
+      </c>
+      <c r="AZ24">
+        <v>2303.4</v>
+      </c>
+      <c r="BA24">
+        <v>27</v>
+      </c>
+      <c r="BB24">
+        <v>1.32</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>40</v>
+      </c>
+      <c r="G25" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="9">
+        <v>3.28</v>
+      </c>
+      <c r="K25" s="12">
+        <v>2.93</v>
+      </c>
+      <c r="L25" s="12">
+        <v>5.04</v>
+      </c>
+      <c r="M25" s="12">
+        <v>3.33</v>
+      </c>
+      <c r="N25" s="9">
+        <v>7.62</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R25" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U25" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X25" s="12">
+        <v>10.1</v>
+      </c>
+      <c r="Y25" s="12">
+        <v>7.6</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>13.6</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>10.6</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AE25" s="12">
+        <v>53.4</v>
+      </c>
+      <c r="AF25" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AG25" s="14">
+        <v>2.9430000000000001</v>
+      </c>
+      <c r="AH25" s="12">
+        <v>54</v>
+      </c>
+      <c r="AI25" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="AJ25" s="12">
+        <v>8.4</v>
+      </c>
+      <c r="AK25" s="12">
+        <v>205555</v>
+      </c>
+      <c r="AL25" s="12">
+        <v>42253</v>
+      </c>
+      <c r="AM25" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="AN25" s="12">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AO25" s="12">
+        <v>6.4</v>
+      </c>
+      <c r="AP25" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AQ25" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="AR25" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AS25" s="12">
+        <v>7.56</v>
+      </c>
+      <c r="AT25" s="12">
+        <v>6.16</v>
+      </c>
+      <c r="AU25" s="12">
+        <v>15.12</v>
+      </c>
+      <c r="AV25" s="12">
+        <v>6.4</v>
+      </c>
+      <c r="AW25" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="AX25" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="AY25" s="12">
+        <v>61.5</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>115</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>45</v>
+      </c>
+      <c r="G26" s="2">
+        <v>46</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="K26" s="12">
+        <v>3.14</v>
+      </c>
+      <c r="L26" s="12">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M26" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1.71</v>
+      </c>
+      <c r="O26" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R26" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U26" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X26" s="12">
+        <v>26</v>
+      </c>
+      <c r="Y26" s="12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>29.1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>46</v>
+      </c>
+      <c r="AE26" s="12">
+        <v>2265.6999999999998</v>
+      </c>
+      <c r="AF26" s="12">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="AG26" s="14">
+        <v>2.754</v>
+      </c>
+      <c r="AH26" s="8">
+        <v>2266</v>
+      </c>
+      <c r="AI26" s="12">
+        <v>64</v>
+      </c>
+      <c r="AJ26" s="12">
+        <v>399.7</v>
+      </c>
+      <c r="AK26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN26" s="12">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="AO26" s="12">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AP26" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AQ26" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="AR26" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AS26" s="12">
+        <v>1.84</v>
+      </c>
+      <c r="AT26" s="12">
+        <v>1.44</v>
+      </c>
+      <c r="AU26" s="12">
+        <v>3.68</v>
+      </c>
+      <c r="AV26" s="12">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AW26" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AX26" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="AY26" s="12">
+        <v>17.2</v>
+      </c>
+      <c r="AZ26" s="12">
+        <v>2265.6999999999998</v>
+      </c>
+      <c r="BA26" s="12">
+        <v>26.7</v>
+      </c>
+      <c r="BB26" s="12">
+        <v>1.32</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>589</v>
+      </c>
+      <c r="F27">
+        <v>234</v>
+      </c>
+      <c r="G27" s="2">
+        <v>151</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="K27" s="12">
+        <v>3.76</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="O27" s="10">
+        <v>11.6</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R27" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U27" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X27" s="12">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>56.4</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>101.3</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>108.9</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD27" s="12">
+        <v>151</v>
+      </c>
+      <c r="AE27" s="12">
+        <v>2413.8000000000002</v>
+      </c>
+      <c r="AF27" s="12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AG27" s="14">
+        <v>3.25</v>
+      </c>
+      <c r="AH27" s="12">
+        <v>2414</v>
+      </c>
+      <c r="AI27" s="12">
+        <v>68.3</v>
+      </c>
+      <c r="AJ27" s="12">
+        <v>426.6</v>
+      </c>
+      <c r="AK27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN27" s="12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AO27" s="12">
+        <v>60.4</v>
+      </c>
+      <c r="AP27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AQ27" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="AR27" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="AS27" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="AT27" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="AU27" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="AV27" s="12">
+        <v>60.4</v>
+      </c>
+      <c r="AW27" s="12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AX27" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="AY27" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="AZ27" s="12">
+        <v>2413.8000000000002</v>
+      </c>
+      <c r="BA27" s="12">
+        <v>12</v>
+      </c>
+      <c r="BB27" s="12">
+        <v>1.32</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1A89FE-919C-A74C-BCA7-A46C6985575E}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/data/fishbase.xlsx
+++ b/FishLandings/data/fishbase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Kenya_SamakiSalama/FishLandings/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3ED682-FA6B-5345-A3BB-DA29FB0069CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33DF57F-328D-3A4B-A5AA-8AE24F86501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5900" yWindow="460" windowWidth="27680" windowHeight="19540" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
   </bookViews>
@@ -622,11 +622,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -647,6 +647,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -675,27 +683,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1010,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27ABF6E-FCDE-A64A-8E31-FB070AB67392}">
   <dimension ref="A1:BD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP26" sqref="AP26"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AZ28" sqref="AZ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4620,7 +4631,7 @@
       <c r="BC21" t="s">
         <v>177</v>
       </c>
-      <c r="BD21" t="s">
+      <c r="BD21" s="15" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4790,7 +4801,7 @@
       <c r="BC22" t="s">
         <v>177</v>
       </c>
-      <c r="BD22" t="s">
+      <c r="BD22" s="15" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5741,6 +5752,10 @@
       <c r="L36" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="BD21" r:id="rId1" xr:uid="{0855E8CE-BF5D-FE4C-B242-2206D93E6385}"/>
+    <hyperlink ref="BD22" r:id="rId2" xr:uid="{D17C73AE-DE32-7A49-92CA-00525E9614E3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/FishLandings/data/fishbase.xlsx
+++ b/FishLandings/data/fishbase.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Kenya_SamakiSalama/FishLandings/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33DF57F-328D-3A4B-A5AA-8AE24F86501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA691EE6-67AA-AB4B-9400-D7A04B3BE69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="460" windowWidth="27680" windowHeight="19540" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="key" sheetId="2" r:id="rId2"/>
+    <sheet name="life history" sheetId="1" r:id="rId1"/>
+    <sheet name="biomass" sheetId="3" r:id="rId2"/>
+    <sheet name="key" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LWRelationshipList" localSheetId="1">biomass!$E$3</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="264">
   <si>
     <t>scientific_name</t>
   </si>
@@ -615,6 +619,219 @@
   </si>
   <si>
     <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=1288&amp;GenusName=Trichiurus&amp;SpeciesName=lepturus&amp;vStockCode=1305&amp;fc=415</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Life History</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>L_cm</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>2.5-51.5</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1256&amp;GenusName=Acanthurus&amp;SpeciesName=dussumieri&amp;fc=412</t>
+  </si>
+  <si>
+    <t>juvenile</t>
+  </si>
+  <si>
+    <t>3.0-16.6</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1260&amp;GenusName=Acanthurus&amp;SpeciesName=triostegus&amp;fc=412</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Other options if we don't want to include juvenile</t>
+  </si>
+  <si>
+    <t>8.0-57.0</t>
+  </si>
+  <si>
+    <t>see below as another option</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1261&amp;GenusName=Acanthurus&amp;SpeciesName=xanthopterus&amp;fc=412</t>
+  </si>
+  <si>
+    <t>unsexed</t>
+  </si>
+  <si>
+    <t>15.5-47.0</t>
+  </si>
+  <si>
+    <t>see above as another option</t>
+  </si>
+  <si>
+    <t>17.2-41.5</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=6396&amp;GenusName=Cephalopholis&amp;SpeciesName=argus&amp;fc=289</t>
+  </si>
+  <si>
+    <t>7.0-23.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5996&amp;GenusName=Gerres&amp;SpeciesName=oyena&amp;fc=326</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=7906&amp;GenusName=Hipposcarus&amp;SpeciesName=harid&amp;fc=364</t>
+  </si>
+  <si>
+    <t>16.8-35.2</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=4360&amp;GenusName=Leptoscarus&amp;SpeciesName=vaigiensis&amp;fc=364</t>
+  </si>
+  <si>
+    <t>No length-weight option on fishbase. Info from the length-length page</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LLRelationshipList.php?ID=1868&amp;GenusName=Lethrinus&amp;SpeciesName=conchyliatus&amp;fc=328</t>
+  </si>
+  <si>
+    <t>6.0-32.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1851&amp;GenusName=Lethrinus&amp;SpeciesName=harak&amp;fc=328</t>
+  </si>
+  <si>
+    <t>3.5-69.5</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1846&amp;GenusName=Lethrinus&amp;SpeciesName=nebulosus&amp;fc=328</t>
+  </si>
+  <si>
+    <t>5.0-32.5</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=261&amp;GenusName=Lutjanus&amp;SpeciesName=fulviflamma&amp;fc=323</t>
+  </si>
+  <si>
+    <t>15.0-48.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1869&amp;GenusName=Monotaxis&amp;SpeciesName=grandoculis&amp;fc=328</t>
+  </si>
+  <si>
+    <t>8.3-31.4</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5983&amp;GenusName=Mulloidichthys&amp;SpeciesName=flavolineatus&amp;fc=332</t>
+  </si>
+  <si>
+    <t>28.0-42.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=6019&amp;GenusName=Naso&amp;SpeciesName=annulatus&amp;fc=412</t>
+  </si>
+  <si>
+    <t>23.4-55.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=6020&amp;GenusName=Naso&amp;SpeciesName=brachycentron&amp;fc=412</t>
+  </si>
+  <si>
+    <t>5.5-23.5</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5991&amp;GenusName=Parupeneus&amp;SpeciesName=heptacanthus&amp;fc=332</t>
+  </si>
+  <si>
+    <t>8.1-22.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=7878&amp;GenusName=Parupeneus&amp;SpeciesName=macronemus&amp;fc=332</t>
+  </si>
+  <si>
+    <t>6.2-27.5</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LLRelationshipList.php?ID=7703&amp;GenusName=Plectorhinchus&amp;SpeciesName=gaterinus&amp;fc=327</t>
+  </si>
+  <si>
+    <t>17.6-33.8</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=7626&amp;GenusName=Plectorhinchus&amp;SpeciesName=sordidus&amp;fc=327</t>
+  </si>
+  <si>
+    <t>6.1-36.6</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LLRelationshipList.php?ID=25706&amp;GenusName=Plectorhinchus&amp;SpeciesName=vittatus&amp;fc=327</t>
+  </si>
+  <si>
+    <t>5.7-12.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1513&amp;GenusName=Sardinella&amp;SpeciesName=melanura&amp;fc=43</t>
+  </si>
+  <si>
+    <t>6.0-49.5</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5548&amp;GenusName=Scarus&amp;SpeciesName=ghobban&amp;fc=364</t>
+  </si>
+  <si>
+    <t>17.2-54.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5555&amp;GenusName=Scarus&amp;SpeciesName=rubroviolaceus&amp;fc=364</t>
+  </si>
+  <si>
+    <t>4.2-22.5</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=4456&amp;GenusName=Siganus&amp;SpeciesName=canaliculatus&amp;fc=413</t>
+  </si>
+  <si>
+    <t>14.0-46.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=4615&amp;GenusName=Siganus&amp;SpeciesName=sutor&amp;fc=413</t>
+  </si>
+  <si>
+    <t>2.0-89.6</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1288&amp;GenusName=Trichiurus&amp;SpeciesName=lepturus&amp;fc=415</t>
   </si>
 </sst>
 </file>
@@ -626,7 +843,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -652,6 +869,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -687,23 +912,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1019,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27ABF6E-FCDE-A64A-8E31-FB070AB67392}">
-  <dimension ref="A1:BD36"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AZ28" sqref="AZ28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1263,10 +1485,10 @@
       <c r="I2" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>0.3</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>2.69</v>
       </c>
       <c r="L2">
@@ -1275,34 +1497,34 @@
       <c r="M2">
         <v>0.43</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>0.97</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>9.5</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>115</v>
       </c>
       <c r="R2">
         <v>2.7</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="S2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>115</v>
       </c>
       <c r="U2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="W2" s="5" t="s">
+      <c r="V2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>115</v>
       </c>
       <c r="X2">
@@ -1323,7 +1545,7 @@
       <c r="AC2">
         <v>29.8</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD2" s="4">
         <v>40.5</v>
       </c>
       <c r="AE2">
@@ -1332,10 +1554,10 @@
       <c r="AF2">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="AG2" s="7">
+      <c r="AG2" s="6">
         <v>2.8682599999999998</v>
       </c>
-      <c r="AH2" s="8">
+      <c r="AH2" s="7">
         <v>1738</v>
       </c>
       <c r="AI2">
@@ -1401,7 +1623,7 @@
       <c r="BC2" t="s">
         <v>116</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BD2" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1433,10 +1655,10 @@
       <c r="I3" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>2.6</v>
       </c>
       <c r="L3">
@@ -1445,34 +1667,34 @@
       <c r="M3">
         <v>1.27</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>2.9</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>2.8</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>115</v>
       </c>
       <c r="R3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T3" s="5" t="s">
+      <c r="S3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>115</v>
       </c>
       <c r="U3">
         <v>0.8</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="W3" s="5" t="s">
+      <c r="V3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="W3" s="4" t="s">
         <v>115</v>
       </c>
       <c r="X3">
@@ -1493,7 +1715,7 @@
       <c r="AC3" t="s">
         <v>115</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD3" s="4">
         <v>20</v>
       </c>
       <c r="AE3">
@@ -1502,10 +1724,10 @@
       <c r="AF3">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG3" s="6">
         <v>3.081</v>
       </c>
-      <c r="AH3" s="8">
+      <c r="AH3" s="7">
         <v>218</v>
       </c>
       <c r="AI3">
@@ -1594,7 +1816,7 @@
       <c r="F4">
         <v>70</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>65</v>
       </c>
       <c r="H4" t="s">
@@ -1603,46 +1825,46 @@
       <c r="I4" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="3">
         <v>3.08</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>0.54</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4">
         <v>0.36</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="3">
         <v>0.82</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="R4" s="2">
+      <c r="P4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4">
         <v>3.1</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T4" s="10" t="s">
+      <c r="S4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>115</v>
       </c>
       <c r="U4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="W4" s="5" t="s">
+      <c r="V4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>115</v>
       </c>
       <c r="X4">
@@ -1663,19 +1885,19 @@
       <c r="AC4">
         <v>48.8</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AD4" s="4">
         <v>65</v>
       </c>
       <c r="AE4">
         <v>6489.6</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AF4" s="5">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AG4" s="6">
         <v>2.92</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH4" s="7">
         <v>6490</v>
       </c>
       <c r="AI4">
@@ -1764,7 +1986,7 @@
       <c r="F5">
         <v>60</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>62.2</v>
       </c>
       <c r="H5" t="s">
@@ -1773,46 +1995,46 @@
       <c r="I5" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="3">
         <v>0.18</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="K5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5">
         <v>0.4</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>0.26</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="3">
         <v>0.6</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="4">
         <v>15.9</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="4">
         <v>1.4</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="4">
         <v>2.9</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="4">
         <v>4.8</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="4">
         <v>3.5</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="4">
         <v>6.9</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <v>3.6</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <v>2.9</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <v>4.5999999999999996</v>
       </c>
       <c r="X5">
@@ -1833,7 +2055,7 @@
       <c r="AC5">
         <v>46.6</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AD5" s="4">
         <v>62.2</v>
       </c>
       <c r="AE5">
@@ -1842,10 +2064,10 @@
       <c r="AF5">
         <v>1.09E-2</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AG5" s="6">
         <v>3.13</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AH5" s="7">
         <v>4487</v>
       </c>
       <c r="AI5">
@@ -1934,7 +2156,7 @@
       <c r="F6">
         <v>30</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>31.5</v>
       </c>
       <c r="H6" t="s">
@@ -1943,37 +2165,37 @@
       <c r="I6" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="K6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6">
         <v>1.85</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6">
         <v>1.22</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="3">
         <v>2.8</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="4">
         <v>2.6</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6">
         <v>0.2</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6">
         <v>0.5</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6">
         <v>0.7</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6">
         <v>0.5</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
@@ -2003,7 +2225,7 @@
       <c r="AC6">
         <v>22.9</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" s="4">
         <v>31.5</v>
       </c>
       <c r="AE6">
@@ -2012,10 +2234,10 @@
       <c r="AF6">
         <v>1.2E-2</v>
       </c>
-      <c r="AG6" s="7">
+      <c r="AG6" s="6">
         <v>3.2320000000000002</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AH6" s="7">
         <v>835</v>
       </c>
       <c r="AI6">
@@ -2104,7 +2326,7 @@
       <c r="F7">
         <v>75</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>54</v>
       </c>
       <c r="H7" t="s">
@@ -2113,46 +2335,46 @@
       <c r="I7" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="3">
         <v>0.17</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="3">
         <v>2.69</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>0.38</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7">
         <v>0.25</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="4">
         <v>16.8</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="R7" s="10">
+      <c r="P7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="R7" s="4">
         <v>5</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T7" s="10" t="s">
+      <c r="S7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>115</v>
       </c>
       <c r="U7">
         <v>3.9</v>
       </c>
-      <c r="V7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="W7" s="5" t="s">
+      <c r="V7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="W7" s="4" t="s">
         <v>115</v>
       </c>
       <c r="X7">
@@ -2173,7 +2395,7 @@
       <c r="AC7">
         <v>40.200000000000003</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AD7" s="4">
         <v>54</v>
       </c>
       <c r="AE7">
@@ -2182,10 +2404,10 @@
       <c r="AF7">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AG7" s="7">
+      <c r="AG7" s="6">
         <v>2.91</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AH7" s="7">
         <v>2310</v>
       </c>
       <c r="AI7">
@@ -2274,7 +2496,7 @@
       <c r="F8">
         <v>35.200000000000003</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>36.799999999999997</v>
       </c>
       <c r="H8" t="s">
@@ -2283,79 +2505,79 @@
       <c r="I8" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="3">
         <v>0.49</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="K8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8">
         <v>0.72</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8">
         <v>0.48</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="4">
         <v>5.8</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8">
         <v>0.5</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8">
         <v>1.7</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8">
         <v>1.2</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8">
         <v>2.4</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8">
         <v>1.4</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8">
         <v>1.8</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8">
         <v>21.3</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8">
         <v>15.9</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="Z8">
         <v>28.5</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AA8">
         <v>22.8</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AB8">
         <v>19.3</v>
       </c>
-      <c r="AC8" s="12">
+      <c r="AC8">
         <v>27</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AD8" s="4">
         <v>36.799999999999997</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AE8">
         <v>760</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AF8">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="AG8" s="7">
+      <c r="AG8" s="6">
         <v>2.9649999999999999</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AH8" s="7">
         <v>759</v>
       </c>
       <c r="AI8">
@@ -2444,7 +2666,7 @@
       <c r="F9">
         <v>76</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>78.5</v>
       </c>
       <c r="H9" t="s">
@@ -2453,64 +2675,64 @@
       <c r="I9" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="3">
         <v>0.17</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9">
         <v>0.35</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9">
         <v>0.23</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="3">
         <v>0.53</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="4">
         <v>1.5</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="4">
         <v>3.1</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="4">
         <v>5.2</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="4">
         <v>3.8</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="4">
         <v>7.5</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="4">
         <v>3.7</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="4">
         <v>3</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="4">
         <v>4.7</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X9" s="4">
         <v>42</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="Y9" s="4">
         <v>31.4</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="Z9" s="4">
         <v>56.3</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AA9" s="4">
         <v>50.2</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AB9" s="4">
         <v>42.4</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9" s="4">
         <v>59.4</v>
       </c>
       <c r="AD9" t="s">
@@ -2614,7 +2836,7 @@
       <c r="F10">
         <v>50</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>41.2</v>
       </c>
       <c r="H10" t="s">
@@ -2623,58 +2845,58 @@
       <c r="I10" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="3">
         <v>0.45</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>2.88</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <v>0.81</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10">
         <v>0.53</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="3">
         <v>1.22</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="4">
         <v>6.3</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R10" s="12">
+      <c r="P10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>115</v>
+      </c>
+      <c r="R10">
         <v>1.9</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U10" s="12">
+      <c r="S10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T10" t="s">
+        <v>115</v>
+      </c>
+      <c r="U10">
         <v>1.6</v>
       </c>
-      <c r="V10" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="X10" s="12">
+      <c r="V10" t="s">
+        <v>115</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10">
         <v>23.6</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10">
         <v>17.600000000000001</v>
       </c>
-      <c r="Z10" s="12">
+      <c r="Z10">
         <v>31.6</v>
       </c>
-      <c r="AA10" s="12">
+      <c r="AA10">
         <v>25.8</v>
       </c>
       <c r="AB10" t="s">
@@ -2683,7 +2905,7 @@
       <c r="AC10" t="s">
         <v>115</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AD10" s="4">
         <v>41.2</v>
       </c>
       <c r="AE10">
@@ -2692,10 +2914,10 @@
       <c r="AF10">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AG10" s="7">
+      <c r="AG10" s="6">
         <v>3.0422600000000002</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AH10" s="7">
         <v>1392</v>
       </c>
       <c r="AI10">
@@ -2784,7 +3006,7 @@
       <c r="F11">
         <v>87</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>69</v>
       </c>
       <c r="H11" t="s">
@@ -2793,79 +3015,79 @@
       <c r="I11" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="3">
         <v>0.21</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <v>0.41</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11">
         <v>0.27</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="3">
         <v>0.63</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="4">
         <v>13.6</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R11" s="10">
+      <c r="P11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>115</v>
+      </c>
+      <c r="R11" s="4">
         <v>4.2</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U11" s="12">
+      <c r="S11" t="s">
+        <v>115</v>
+      </c>
+      <c r="T11" t="s">
+        <v>115</v>
+      </c>
+      <c r="U11">
         <v>3.1</v>
       </c>
-      <c r="V11" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="X11" s="12">
+      <c r="V11" t="s">
+        <v>115</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11">
         <v>37.4</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11">
         <v>27.9</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="Z11">
         <v>50.1</v>
       </c>
-      <c r="AA11" s="12">
+      <c r="AA11">
         <v>43.9</v>
       </c>
-      <c r="AB11" s="12">
+      <c r="AB11">
         <v>37.1</v>
       </c>
-      <c r="AC11" s="12">
+      <c r="AC11">
         <v>51.9</v>
       </c>
-      <c r="AD11" s="5">
+      <c r="AD11" s="4">
         <v>69</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AE11">
         <v>5193.7</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AF11">
         <v>2.86E-2</v>
       </c>
-      <c r="AG11" s="7">
+      <c r="AG11" s="6">
         <v>2.86</v>
       </c>
-      <c r="AH11" s="8">
+      <c r="AH11" s="7">
         <v>5194</v>
       </c>
       <c r="AI11">
@@ -2954,7 +3176,7 @@
       <c r="F12">
         <v>35</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>22.3</v>
       </c>
       <c r="H12" t="s">
@@ -2963,58 +3185,58 @@
       <c r="I12" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="3">
         <v>0.9</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <v>2.65</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O12" s="10">
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" s="4">
         <v>3.1</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R12" s="12">
+      <c r="P12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>115</v>
+      </c>
+      <c r="R12">
         <v>0.9</v>
       </c>
-      <c r="S12" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="U12" s="12">
+      <c r="S12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12" t="s">
+        <v>115</v>
+      </c>
+      <c r="U12">
         <v>0.9</v>
       </c>
-      <c r="V12" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="X12" s="12">
+      <c r="V12" t="s">
+        <v>115</v>
+      </c>
+      <c r="W12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12">
         <v>13.6</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y12">
         <v>10.1</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="Z12">
         <v>18.2</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="AA12">
         <v>14</v>
       </c>
       <c r="AB12" t="s">
@@ -3023,19 +3245,19 @@
       <c r="AC12" t="s">
         <v>115</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AD12" s="4">
         <v>22.3</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AE12">
         <v>296.2</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AF12">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="AG12" s="7">
+      <c r="AG12" s="6">
         <v>2.95</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AH12" s="7">
         <v>297</v>
       </c>
       <c r="AI12">
@@ -3124,7 +3346,7 @@
       <c r="F13">
         <v>60</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>62.2</v>
       </c>
       <c r="H13" t="s">
@@ -3133,79 +3355,79 @@
       <c r="I13" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="3">
         <v>0.22</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13">
         <v>0.45</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13">
         <v>0.3</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="3">
         <v>0.68</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="4">
         <v>13</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13">
         <v>1.2</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13">
         <v>2.4</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="4">
         <v>3.9</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13">
         <v>2.9</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13">
         <v>5.7</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13">
         <v>3</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13">
         <v>2.4</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W13">
         <v>3.8</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13">
         <v>34.1</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13">
         <v>25.5</v>
       </c>
-      <c r="Z13" s="12">
+      <c r="Z13">
         <v>45.7</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA13">
         <v>39.4</v>
       </c>
-      <c r="AB13" s="12">
+      <c r="AB13">
         <v>33.299999999999997</v>
       </c>
-      <c r="AC13" s="12">
+      <c r="AC13">
         <v>46.6</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AD13" s="4">
         <v>62.2</v>
       </c>
-      <c r="AE13" s="12">
+      <c r="AE13">
         <v>4682</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="AG13" s="7">
+      <c r="AG13" s="6">
         <v>2.851</v>
       </c>
-      <c r="AH13" s="8">
+      <c r="AH13" s="7">
         <v>4681</v>
       </c>
       <c r="AI13">
@@ -3294,7 +3516,7 @@
       <c r="F14">
         <v>43</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>34.1</v>
       </c>
       <c r="H14" t="s">
@@ -3303,79 +3525,79 @@
       <c r="I14" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="3">
         <v>0.27</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14">
         <v>2.4900000000000002</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14">
         <v>0.64</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14">
         <v>0.42</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="3">
         <v>0.97</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="4">
         <v>10.5</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R14" s="12">
+      <c r="P14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>115</v>
+      </c>
+      <c r="R14">
         <v>2.9</v>
       </c>
-      <c r="S14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U14" s="12">
+      <c r="S14" t="s">
+        <v>115</v>
+      </c>
+      <c r="T14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U14">
         <v>2.6</v>
       </c>
-      <c r="V14" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="X14" s="12">
+      <c r="V14" t="s">
+        <v>115</v>
+      </c>
+      <c r="W14" t="s">
+        <v>115</v>
+      </c>
+      <c r="X14">
         <v>19.899999999999999</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Y14">
         <v>14.8</v>
       </c>
-      <c r="Z14" s="12">
+      <c r="Z14">
         <v>26.6</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA14">
         <v>21</v>
       </c>
-      <c r="AB14" s="12">
+      <c r="AB14">
         <v>17.8</v>
       </c>
-      <c r="AC14" s="12">
+      <c r="AC14">
         <v>24.9</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AD14" s="4">
         <v>34.1</v>
       </c>
-      <c r="AE14" s="12">
+      <c r="AE14">
         <v>652.79999999999995</v>
       </c>
-      <c r="AF14" s="12">
+      <c r="AF14">
         <v>1.38E-2</v>
       </c>
-      <c r="AG14" s="7">
+      <c r="AG14" s="6">
         <v>3.05</v>
       </c>
-      <c r="AH14" s="8">
+      <c r="AH14" s="7">
         <v>653</v>
       </c>
       <c r="AI14">
@@ -3464,7 +3686,7 @@
       <c r="F15">
         <v>100</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>72.8</v>
       </c>
       <c r="H15" t="s">
@@ -3473,79 +3695,79 @@
       <c r="I15" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="3">
         <v>0.21</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
         <v>3.05</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15">
         <v>0.43</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="3">
         <v>0.65</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="4">
         <v>13.7</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R15" s="10">
+      <c r="P15" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>115</v>
+      </c>
+      <c r="R15" s="4">
         <v>4.2</v>
       </c>
-      <c r="S15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U15" s="12">
+      <c r="S15" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" t="s">
+        <v>115</v>
+      </c>
+      <c r="U15">
         <v>3.1</v>
       </c>
-      <c r="V15" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="X15" s="12">
+      <c r="V15" t="s">
+        <v>115</v>
+      </c>
+      <c r="W15" t="s">
+        <v>115</v>
+      </c>
+      <c r="X15">
         <v>39.299999999999997</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="Y15">
         <v>29.3</v>
       </c>
-      <c r="Z15" s="12">
+      <c r="Z15">
         <v>52.6</v>
       </c>
-      <c r="AA15" s="12">
+      <c r="AA15">
         <v>46.4</v>
       </c>
-      <c r="AB15" s="12">
+      <c r="AB15">
         <v>39.200000000000003</v>
       </c>
-      <c r="AC15" s="12">
+      <c r="AC15">
         <v>54.9</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AD15" s="4">
         <v>72.8</v>
       </c>
-      <c r="AE15" s="12">
+      <c r="AE15">
         <v>5806.9</v>
       </c>
-      <c r="AF15" s="12">
+      <c r="AF15">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="AG15" s="7">
+      <c r="AG15" s="6">
         <v>2.7153700000000001</v>
       </c>
-      <c r="AH15" s="8">
+      <c r="AH15" s="7">
         <v>5807</v>
       </c>
       <c r="AI15">
@@ -3634,73 +3856,73 @@
       <c r="F16">
         <v>90</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>92.7</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <v>78.2</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>109.9</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="3">
         <v>0.09</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O16" s="10">
+      <c r="K16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" s="4">
         <v>32</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R16" s="12">
+      <c r="P16" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>115</v>
+      </c>
+      <c r="R16">
         <v>10.199999999999999</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16">
         <v>7.4</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16">
         <v>14.6</v>
       </c>
-      <c r="U16" s="12">
+      <c r="U16">
         <v>7</v>
       </c>
-      <c r="V16" s="12">
+      <c r="V16">
         <v>5.6</v>
       </c>
-      <c r="W16" s="12">
+      <c r="W16">
         <v>8.6999999999999993</v>
       </c>
-      <c r="X16" s="12">
+      <c r="X16">
         <v>48.8</v>
       </c>
-      <c r="Y16" s="12">
+      <c r="Y16">
         <v>36.4</v>
       </c>
-      <c r="Z16" s="12">
+      <c r="Z16">
         <v>65.400000000000006</v>
       </c>
-      <c r="AA16" s="12">
+      <c r="AA16">
         <v>59.7</v>
       </c>
-      <c r="AB16" s="12">
+      <c r="AB16">
         <v>50.4</v>
       </c>
-      <c r="AC16" s="12">
+      <c r="AC16">
         <v>70.599999999999994</v>
       </c>
       <c r="AD16" t="s">
@@ -3804,88 +4026,88 @@
       <c r="F17">
         <v>36</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>29.6</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="H17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="3">
         <v>0.5</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17">
         <v>2.64</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17">
         <v>1.06</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17">
         <v>0.7</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="3">
         <v>1.61</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="4">
         <v>5.7</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R17" s="10">
+      <c r="P17" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>115</v>
+      </c>
+      <c r="R17" s="4">
         <v>1.6</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U17" s="12">
+      <c r="S17" t="s">
+        <v>115</v>
+      </c>
+      <c r="T17" t="s">
+        <v>115</v>
+      </c>
+      <c r="U17">
         <v>1.5</v>
       </c>
-      <c r="V17" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="X17" s="12">
+      <c r="V17" t="s">
+        <v>115</v>
+      </c>
+      <c r="W17" t="s">
+        <v>115</v>
+      </c>
+      <c r="X17">
         <v>17.5</v>
       </c>
-      <c r="Y17" s="12">
+      <c r="Y17">
         <v>13.1</v>
       </c>
-      <c r="Z17" s="12">
+      <c r="Z17">
         <v>23.4</v>
       </c>
-      <c r="AA17" s="12">
+      <c r="AA17">
         <v>18.2</v>
       </c>
-      <c r="AB17" s="12">
+      <c r="AB17">
         <v>15.3</v>
       </c>
-      <c r="AC17" s="12">
+      <c r="AC17">
         <v>21.5</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="AD17" s="4">
         <v>29.6</v>
       </c>
-      <c r="AE17" s="12">
+      <c r="AE17">
         <v>571</v>
       </c>
-      <c r="AF17" s="12">
+      <c r="AF17">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="AG17" s="7">
+      <c r="AG17" s="6">
         <v>3.07802</v>
       </c>
-      <c r="AH17" s="8">
+      <c r="AH17" s="7">
         <v>571</v>
       </c>
       <c r="AI17">
@@ -3974,88 +4196,88 @@
       <c r="F18">
         <v>40</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <v>41.7</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L18" s="2">
+      <c r="K18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18">
         <v>0.64</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18">
         <v>0.42</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="3">
         <v>0.96</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18">
         <v>0.9</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18">
         <v>1.9</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18">
         <v>2.8</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18">
         <v>2</v>
       </c>
-      <c r="T18" s="12">
+      <c r="T18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="U18" s="12">
+      <c r="U18">
         <v>2.4</v>
       </c>
-      <c r="V18" s="12">
+      <c r="V18">
         <v>1.9</v>
       </c>
-      <c r="W18" s="12">
+      <c r="W18">
         <v>3</v>
       </c>
-      <c r="X18" s="12">
+      <c r="X18">
         <v>23.8</v>
       </c>
-      <c r="Y18" s="12">
+      <c r="Y18">
         <v>17.8</v>
       </c>
-      <c r="Z18" s="12">
+      <c r="Z18">
         <v>31.9</v>
       </c>
-      <c r="AA18" s="12">
+      <c r="AA18">
         <v>26</v>
       </c>
-      <c r="AB18" s="12">
+      <c r="AB18">
         <v>21.9</v>
       </c>
-      <c r="AC18" s="12">
+      <c r="AC18">
         <v>30.7</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AD18" s="4">
         <v>41.7</v>
       </c>
-      <c r="AE18" s="12">
+      <c r="AE18">
         <v>1208</v>
       </c>
-      <c r="AF18" s="12">
+      <c r="AF18">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="AG18" s="7">
+      <c r="AG18" s="6">
         <v>3.2970000000000002</v>
       </c>
-      <c r="AH18" s="8">
+      <c r="AH18" s="7">
         <v>1207</v>
       </c>
       <c r="AI18">
@@ -4144,73 +4366,73 @@
       <c r="F19">
         <v>50</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <v>52</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="H19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="3">
         <v>0.21</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L19" s="2">
+      <c r="K19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19">
         <v>0.45</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19">
         <v>0.3</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="3">
         <v>0.69</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="4">
         <v>13.6</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19">
         <v>1.2</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19">
         <v>2.6</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="4">
         <v>4</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19">
         <v>2.9</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19">
         <v>5.8</v>
       </c>
-      <c r="U19" s="12">
+      <c r="U19">
         <v>3.2</v>
       </c>
-      <c r="V19" s="12">
+      <c r="V19">
         <v>2.6</v>
       </c>
-      <c r="W19" s="12">
+      <c r="W19">
         <v>4.0999999999999996</v>
       </c>
-      <c r="X19" s="12">
+      <c r="X19">
         <v>29</v>
       </c>
-      <c r="Y19" s="12">
+      <c r="Y19">
         <v>21.7</v>
       </c>
-      <c r="Z19" s="12">
+      <c r="Z19">
         <v>38.9</v>
       </c>
-      <c r="AA19" s="12">
+      <c r="AA19">
         <v>32.700000000000003</v>
       </c>
-      <c r="AB19" s="12">
+      <c r="AB19">
         <v>27.6</v>
       </c>
-      <c r="AC19" s="12">
+      <c r="AC19">
         <v>38.6</v>
       </c>
       <c r="AD19" t="s">
@@ -4314,88 +4536,88 @@
       <c r="F20">
         <v>60</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20">
         <v>62.2</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20">
         <v>52.5</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20">
         <v>73.8</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="3">
         <v>0.32</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="2">
+      <c r="K20" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20">
         <v>0.59</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20">
         <v>0.39</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="3">
         <v>0.9</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="4">
         <v>9</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20">
         <v>6.6</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20">
         <v>11.6</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20">
         <v>2.8</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20">
         <v>2</v>
       </c>
-      <c r="T20" s="12">
+      <c r="T20">
         <v>4</v>
       </c>
-      <c r="U20" s="12">
+      <c r="U20">
         <v>2.1</v>
       </c>
-      <c r="V20" s="12">
+      <c r="V20">
         <v>1.7</v>
       </c>
-      <c r="W20" s="12">
+      <c r="W20">
         <v>2.7</v>
       </c>
-      <c r="X20" s="12">
+      <c r="X20">
         <v>34.1</v>
       </c>
-      <c r="Y20" s="12">
+      <c r="Y20">
         <v>25.5</v>
       </c>
-      <c r="Z20" s="12">
+      <c r="Z20">
         <v>45.7</v>
       </c>
-      <c r="AA20" s="12">
+      <c r="AA20">
         <v>39.4</v>
       </c>
-      <c r="AB20" s="12">
+      <c r="AB20">
         <v>33.299999999999997</v>
       </c>
-      <c r="AC20" s="12">
+      <c r="AC20">
         <v>46.6</v>
       </c>
-      <c r="AD20" s="5">
+      <c r="AD20" s="4">
         <v>62.2</v>
       </c>
-      <c r="AE20" s="12">
+      <c r="AE20">
         <v>3085</v>
       </c>
-      <c r="AF20" s="12">
+      <c r="AF20">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="AG20" s="7">
+      <c r="AG20" s="6">
         <v>2.75</v>
       </c>
-      <c r="AH20" s="8">
+      <c r="AH20" s="7">
         <v>3084</v>
       </c>
       <c r="AI20">
@@ -4484,73 +4706,73 @@
       <c r="F21">
         <v>72</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
         <v>74.400000000000006</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21">
         <v>62.8</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21">
         <v>88.3</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="X21" s="12">
+      <c r="J21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" t="s">
+        <v>115</v>
+      </c>
+      <c r="N21" t="s">
+        <v>115</v>
+      </c>
+      <c r="O21" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>115</v>
+      </c>
+      <c r="R21" t="s">
+        <v>115</v>
+      </c>
+      <c r="S21" t="s">
+        <v>115</v>
+      </c>
+      <c r="T21" t="s">
+        <v>115</v>
+      </c>
+      <c r="U21" t="s">
+        <v>115</v>
+      </c>
+      <c r="V21" t="s">
+        <v>115</v>
+      </c>
+      <c r="W21" t="s">
+        <v>115</v>
+      </c>
+      <c r="X21">
         <v>40</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="Y21">
         <v>29.9</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="Z21">
         <v>53.7</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AA21">
         <v>47.4</v>
       </c>
-      <c r="AB21" s="12">
+      <c r="AB21">
         <v>40.1</v>
       </c>
-      <c r="AC21" s="12">
+      <c r="AC21">
         <v>56.1</v>
       </c>
       <c r="AD21" t="s">
@@ -4631,7 +4853,7 @@
       <c r="BC21" t="s">
         <v>177</v>
       </c>
-      <c r="BD21" s="15" t="s">
+      <c r="BD21" s="8" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4654,88 +4876,88 @@
       <c r="F22">
         <v>20.3</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
         <v>22.1</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" s="9">
+      <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="3">
         <v>0.73</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22">
         <v>1.53</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22">
         <v>1.01</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22">
         <v>2.3199999999999998</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="4">
         <v>3.9</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R22" s="2">
+      <c r="P22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>115</v>
+      </c>
+      <c r="R22">
         <v>1.4</v>
       </c>
-      <c r="S22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U22" s="2">
+      <c r="S22" t="s">
+        <v>115</v>
+      </c>
+      <c r="T22" t="s">
+        <v>115</v>
+      </c>
+      <c r="U22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="X22" s="12">
+      <c r="V22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W22" t="s">
+        <v>115</v>
+      </c>
+      <c r="X22">
         <v>13.5</v>
       </c>
-      <c r="Y22" s="12">
+      <c r="Y22">
         <v>10</v>
       </c>
-      <c r="Z22" s="12">
+      <c r="Z22">
         <v>18</v>
       </c>
-      <c r="AA22" s="12">
+      <c r="AA22">
         <v>13.4</v>
       </c>
-      <c r="AB22" s="12">
+      <c r="AB22">
         <v>11.3</v>
       </c>
-      <c r="AC22" s="12">
+      <c r="AC22">
         <v>15.8</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AD22" s="4">
         <v>22.1</v>
       </c>
-      <c r="AE22" s="12">
+      <c r="AE22">
         <v>153.9</v>
       </c>
-      <c r="AF22" s="12">
+      <c r="AF22">
         <v>1.26E-2</v>
       </c>
-      <c r="AG22" s="7">
+      <c r="AG22" s="6">
         <v>3.04</v>
       </c>
-      <c r="AH22" s="8">
+      <c r="AH22" s="7">
         <v>154</v>
       </c>
       <c r="AI22">
@@ -4801,7 +5023,7 @@
       <c r="BC22" t="s">
         <v>177</v>
       </c>
-      <c r="BD22" s="15" t="s">
+      <c r="BD22" s="8" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4824,94 +5046,94 @@
       <c r="F23">
         <v>75</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23">
         <v>77.5</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23">
         <v>65.400000000000006</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23">
         <v>91.9</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="3">
         <v>0.33</v>
       </c>
-      <c r="K23" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="L23" s="12">
+      <c r="K23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23">
         <v>0.6</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23">
         <v>0.4</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="3">
         <v>0.91</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23">
         <v>6.6</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23">
         <v>11.2</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23">
         <v>2.8</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23">
         <v>2</v>
       </c>
-      <c r="T23" s="12">
+      <c r="T23">
         <v>3.9</v>
       </c>
-      <c r="U23" s="12">
+      <c r="U23">
         <v>2</v>
       </c>
-      <c r="V23" s="12">
+      <c r="V23">
         <v>1.6</v>
       </c>
-      <c r="W23" s="12">
+      <c r="W23">
         <v>2.5</v>
       </c>
-      <c r="X23" s="12">
+      <c r="X23">
         <v>41.5</v>
       </c>
-      <c r="Y23" s="12">
+      <c r="Y23">
         <v>31</v>
       </c>
-      <c r="Z23" s="12">
+      <c r="Z23">
         <v>55.7</v>
       </c>
-      <c r="AA23" s="12">
+      <c r="AA23">
         <v>49.5</v>
       </c>
-      <c r="AB23" s="12">
+      <c r="AB23">
         <v>41.8</v>
       </c>
-      <c r="AC23" s="12">
+      <c r="AC23">
         <v>58.6</v>
       </c>
-      <c r="AD23" s="12">
+      <c r="AD23">
         <v>77.5</v>
       </c>
-      <c r="AE23" s="12">
+      <c r="AE23">
         <v>15383</v>
       </c>
-      <c r="AF23" s="12">
+      <c r="AF23">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="AG23" s="14">
+      <c r="AG23" s="6">
         <v>3.0230000000000001</v>
       </c>
-      <c r="AH23" s="12">
+      <c r="AH23">
         <v>15382</v>
       </c>
-      <c r="AI23" s="12">
+      <c r="AI23">
         <v>459.9</v>
       </c>
-      <c r="AJ23" s="12">
+      <c r="AJ23">
         <v>2874.2</v>
       </c>
       <c r="AK23" t="s">
@@ -4994,67 +5216,67 @@
       <c r="F24">
         <v>70</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>46.6</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="J24" s="9">
+      <c r="H24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24">
         <v>3.1</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24">
         <v>1.04</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24">
         <v>0.69</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="3">
         <v>1.57</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R24" s="12">
+      <c r="P24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>115</v>
+      </c>
+      <c r="R24">
         <v>1.4</v>
       </c>
-      <c r="S24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U24" s="12">
+      <c r="S24" t="s">
+        <v>115</v>
+      </c>
+      <c r="T24" t="s">
+        <v>115</v>
+      </c>
+      <c r="U24">
         <v>1.2</v>
       </c>
-      <c r="V24" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="X24" s="12">
+      <c r="V24" t="s">
+        <v>115</v>
+      </c>
+      <c r="W24" t="s">
+        <v>115</v>
+      </c>
+      <c r="X24">
         <v>26.3</v>
       </c>
-      <c r="Y24" s="12">
+      <c r="Y24">
         <v>19.600000000000001</v>
       </c>
-      <c r="Z24" s="12">
+      <c r="Z24">
         <v>35.200000000000003</v>
       </c>
-      <c r="AA24" s="12">
+      <c r="AA24">
         <v>29.2</v>
       </c>
       <c r="AB24" t="s">
@@ -5063,25 +5285,25 @@
       <c r="AC24" t="s">
         <v>115</v>
       </c>
-      <c r="AD24" s="5">
+      <c r="AD24" s="4">
         <v>46.6</v>
       </c>
-      <c r="AE24" s="12">
+      <c r="AE24">
         <v>2303.4</v>
       </c>
-      <c r="AF24" s="12">
+      <c r="AF24">
         <v>1.14E-2</v>
       </c>
-      <c r="AG24" s="14">
+      <c r="AG24" s="6">
         <v>3.18</v>
       </c>
-      <c r="AH24" s="8">
+      <c r="AH24" s="7">
         <v>2304</v>
       </c>
-      <c r="AI24" s="12">
+      <c r="AI24">
         <v>65</v>
       </c>
-      <c r="AJ24" s="12">
+      <c r="AJ24">
         <v>406.6</v>
       </c>
       <c r="AK24" t="s">
@@ -5164,67 +5386,67 @@
       <c r="F25">
         <v>40</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <v>16.100000000000001</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="J25" s="9">
+      <c r="H25" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="3">
         <v>3.28</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25">
         <v>2.93</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25">
         <v>5.04</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25">
         <v>3.33</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="3">
         <v>7.62</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="4">
         <v>0.9</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R25" s="12">
+      <c r="P25" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>115</v>
+      </c>
+      <c r="R25">
         <v>0.3</v>
       </c>
-      <c r="S25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U25" s="12">
+      <c r="S25" t="s">
+        <v>115</v>
+      </c>
+      <c r="T25" t="s">
+        <v>115</v>
+      </c>
+      <c r="U25">
         <v>0.3</v>
       </c>
-      <c r="V25" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="W25" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="X25" s="12">
+      <c r="V25" t="s">
+        <v>115</v>
+      </c>
+      <c r="W25" t="s">
+        <v>115</v>
+      </c>
+      <c r="X25">
         <v>10.1</v>
       </c>
-      <c r="Y25" s="12">
+      <c r="Y25">
         <v>7.6</v>
       </c>
-      <c r="Z25" s="12">
+      <c r="Z25">
         <v>13.6</v>
       </c>
-      <c r="AA25" s="12">
+      <c r="AA25">
         <v>10.6</v>
       </c>
       <c r="AB25" t="s">
@@ -5233,70 +5455,70 @@
       <c r="AC25" t="s">
         <v>115</v>
       </c>
-      <c r="AD25" s="12">
+      <c r="AD25">
         <v>16.100000000000001</v>
       </c>
-      <c r="AE25" s="12">
+      <c r="AE25">
         <v>53.4</v>
       </c>
-      <c r="AF25" s="12">
+      <c r="AF25">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG25" s="14">
+      <c r="AG25" s="6">
         <v>2.9430000000000001</v>
       </c>
-      <c r="AH25" s="12">
+      <c r="AH25">
         <v>54</v>
       </c>
-      <c r="AI25" s="12">
+      <c r="AI25">
         <v>1.3</v>
       </c>
-      <c r="AJ25" s="12">
+      <c r="AJ25">
         <v>8.4</v>
       </c>
-      <c r="AK25" s="12">
+      <c r="AK25">
         <v>205555</v>
       </c>
-      <c r="AL25" s="12">
+      <c r="AL25">
         <v>42253</v>
       </c>
-      <c r="AM25" s="12">
+      <c r="AM25">
         <v>1000000</v>
       </c>
-      <c r="AN25" s="12">
+      <c r="AN25">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AO25" s="12">
+      <c r="AO25">
         <v>6.4</v>
       </c>
-      <c r="AP25" s="12">
+      <c r="AP25">
         <v>0.5</v>
       </c>
-      <c r="AQ25" s="12">
+      <c r="AQ25">
         <v>0.6</v>
       </c>
-      <c r="AR25" s="12">
+      <c r="AR25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AS25" s="12">
+      <c r="AS25">
         <v>7.56</v>
       </c>
-      <c r="AT25" s="12">
+      <c r="AT25">
         <v>6.16</v>
       </c>
-      <c r="AU25" s="12">
+      <c r="AU25">
         <v>15.12</v>
       </c>
-      <c r="AV25" s="12">
+      <c r="AV25">
         <v>6.4</v>
       </c>
-      <c r="AW25" s="12">
+      <c r="AW25">
         <v>2.8</v>
       </c>
-      <c r="AX25" s="12">
+      <c r="AX25">
         <v>0.31</v>
       </c>
-      <c r="AY25" s="12">
+      <c r="AY25">
         <v>61.5</v>
       </c>
       <c r="AZ25" t="s">
@@ -5334,67 +5556,67 @@
       <c r="F26">
         <v>45</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
         <v>46</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="J26" s="9">
+      <c r="H26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" s="3">
         <v>0.65</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26">
         <v>3.14</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26">
         <v>1.1299999999999999</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26">
         <v>0.74</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="3">
         <v>1.71</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R26" s="12">
+      <c r="P26" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>115</v>
+      </c>
+      <c r="R26">
         <v>1.3</v>
       </c>
-      <c r="S26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U26" s="12">
+      <c r="S26" t="s">
+        <v>115</v>
+      </c>
+      <c r="T26" t="s">
+        <v>115</v>
+      </c>
+      <c r="U26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V26" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="W26" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="X26" s="12">
+      <c r="V26" t="s">
+        <v>115</v>
+      </c>
+      <c r="W26" t="s">
+        <v>115</v>
+      </c>
+      <c r="X26">
         <v>26</v>
       </c>
-      <c r="Y26" s="12">
+      <c r="Y26">
         <v>19.399999999999999</v>
       </c>
-      <c r="Z26" s="12">
+      <c r="Z26">
         <v>34.799999999999997</v>
       </c>
-      <c r="AA26" s="12">
+      <c r="AA26">
         <v>29.1</v>
       </c>
       <c r="AB26" t="s">
@@ -5403,79 +5625,79 @@
       <c r="AC26" t="s">
         <v>115</v>
       </c>
-      <c r="AD26" s="5">
+      <c r="AD26" s="4">
         <v>46</v>
       </c>
-      <c r="AE26" s="12">
+      <c r="AE26">
         <v>2265.6999999999998</v>
       </c>
-      <c r="AF26" s="12">
+      <c r="AF26">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="AG26" s="14">
+      <c r="AG26" s="6">
         <v>2.754</v>
       </c>
-      <c r="AH26" s="8">
+      <c r="AH26" s="7">
         <v>2266</v>
       </c>
-      <c r="AI26" s="12">
+      <c r="AI26">
         <v>64</v>
       </c>
-      <c r="AJ26" s="12">
+      <c r="AJ26">
         <v>399.7</v>
       </c>
-      <c r="AK26" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL26" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM26" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN26" s="12">
+      <c r="AK26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN26">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="AO26" s="12">
+      <c r="AO26">
         <v>18.399999999999999</v>
       </c>
-      <c r="AP26" s="12">
+      <c r="AP26">
         <v>0.5</v>
       </c>
-      <c r="AQ26" s="12">
+      <c r="AQ26">
         <v>0.62</v>
       </c>
-      <c r="AR26" s="12">
+      <c r="AR26">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AS26" s="12">
+      <c r="AS26">
         <v>1.84</v>
       </c>
-      <c r="AT26" s="12">
+      <c r="AT26">
         <v>1.44</v>
       </c>
-      <c r="AU26" s="12">
+      <c r="AU26">
         <v>3.68</v>
       </c>
-      <c r="AV26" s="12">
+      <c r="AV26">
         <v>18.399999999999999</v>
       </c>
-      <c r="AW26" s="12">
+      <c r="AW26">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AX26" s="12">
+      <c r="AX26">
         <v>0.2</v>
       </c>
-      <c r="AY26" s="12">
+      <c r="AY26">
         <v>17.2</v>
       </c>
-      <c r="AZ26" s="12">
+      <c r="AZ26">
         <v>2265.6999999999998</v>
       </c>
-      <c r="BA26" s="12">
+      <c r="BA26">
         <v>26.7</v>
       </c>
-      <c r="BB26" s="12">
+      <c r="BB26">
         <v>1.32</v>
       </c>
       <c r="BC26" t="s">
@@ -5504,67 +5726,67 @@
       <c r="F27">
         <v>234</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27">
         <v>151</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="J27" s="9">
+      <c r="H27" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="3">
         <v>0.25</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27">
         <v>3.76</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27">
         <v>0.19</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="3">
         <v>0.45</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="4">
         <v>11.6</v>
       </c>
-      <c r="P27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R27" s="12">
+      <c r="P27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>115</v>
+      </c>
+      <c r="R27">
         <v>4.7</v>
       </c>
-      <c r="S27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U27" s="12">
+      <c r="S27" t="s">
+        <v>115</v>
+      </c>
+      <c r="T27" t="s">
+        <v>115</v>
+      </c>
+      <c r="U27">
         <v>2.2999999999999998</v>
       </c>
-      <c r="V27" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="W27" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="X27" s="12">
+      <c r="V27" t="s">
+        <v>115</v>
+      </c>
+      <c r="W27" t="s">
+        <v>115</v>
+      </c>
+      <c r="X27">
         <v>75.599999999999994</v>
       </c>
-      <c r="Y27" s="12">
+      <c r="Y27">
         <v>56.4</v>
       </c>
-      <c r="Z27" s="12">
+      <c r="Z27">
         <v>101.3</v>
       </c>
-      <c r="AA27" s="12">
+      <c r="AA27">
         <v>108.9</v>
       </c>
       <c r="AB27" t="s">
@@ -5573,79 +5795,79 @@
       <c r="AC27" t="s">
         <v>115</v>
       </c>
-      <c r="AD27" s="12">
+      <c r="AD27">
         <v>151</v>
       </c>
-      <c r="AE27" s="12">
+      <c r="AE27">
         <v>2413.8000000000002</v>
       </c>
-      <c r="AF27" s="12">
+      <c r="AF27">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AG27" s="14">
+      <c r="AG27" s="6">
         <v>3.25</v>
       </c>
-      <c r="AH27" s="12">
+      <c r="AH27">
         <v>2414</v>
       </c>
-      <c r="AI27" s="12">
+      <c r="AI27">
         <v>68.3</v>
       </c>
-      <c r="AJ27" s="12">
+      <c r="AJ27">
         <v>426.6</v>
       </c>
-      <c r="AK27" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL27" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM27" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN27" s="12">
+      <c r="AK27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN27">
         <v>6.3E-2</v>
       </c>
-      <c r="AO27" s="12">
+      <c r="AO27">
         <v>60.4</v>
       </c>
-      <c r="AP27" s="12">
+      <c r="AP27">
         <v>0.5</v>
       </c>
-      <c r="AQ27" s="12">
+      <c r="AQ27">
         <v>0.59</v>
       </c>
-      <c r="AR27" s="12">
+      <c r="AR27">
         <v>0.54</v>
       </c>
-      <c r="AS27" s="12">
+      <c r="AS27">
         <v>0.42</v>
       </c>
-      <c r="AT27" s="12">
+      <c r="AT27">
         <v>0.34</v>
       </c>
-      <c r="AU27" s="12">
+      <c r="AU27">
         <v>0.84</v>
       </c>
-      <c r="AV27" s="12">
+      <c r="AV27">
         <v>60.4</v>
       </c>
-      <c r="AW27" s="12">
+      <c r="AW27">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX27" s="12">
+      <c r="AX27">
         <v>0.37</v>
       </c>
-      <c r="AY27" s="12">
+      <c r="AY27">
         <v>3.1</v>
       </c>
-      <c r="AZ27" s="12">
+      <c r="AZ27">
         <v>2413.8000000000002</v>
       </c>
-      <c r="BA27" s="12">
+      <c r="BA27">
         <v>12</v>
       </c>
-      <c r="BB27" s="12">
+      <c r="BB27">
         <v>1.32</v>
       </c>
       <c r="BC27" t="s">
@@ -5654,535 +5876,1446 @@
       <c r="BD27" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="BD21" r:id="rId1" xr:uid="{0855E8CE-BF5D-FE4C-B242-2206D93E6385}"/>
     <hyperlink ref="BD22" r:id="rId2" xr:uid="{D17C73AE-DE32-7A49-92CA-00525E9614E3}"/>
+    <hyperlink ref="BD2" r:id="rId3" xr:uid="{38067483-B59C-D642-AF43-86FEC10F9C16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8401CC-45AA-794F-825D-4F3F9F3C5EA7}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>0.99</v>
+      </c>
+      <c r="D2">
+        <v>4.2560000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I2">
+        <v>95</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <v>0.99</v>
+      </c>
+      <c r="D3">
+        <v>3.61E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3">
+        <v>0.99</v>
+      </c>
+      <c r="I3">
+        <v>159</v>
+      </c>
+      <c r="J3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2.673E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.984</v>
+      </c>
+      <c r="F4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4">
+        <v>0.998</v>
+      </c>
+      <c r="I4">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <v>0.98</v>
+      </c>
+      <c r="D5">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5">
+        <v>0.98</v>
+      </c>
+      <c r="I5">
+        <v>991</v>
+      </c>
+      <c r="J5" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6">
+        <v>0.98</v>
+      </c>
+      <c r="D6">
+        <v>1.17E-2</v>
+      </c>
+      <c r="E6">
+        <v>3.14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6">
+        <v>0.98</v>
+      </c>
+      <c r="I6">
+        <v>662</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7">
+        <v>0.96</v>
+      </c>
+      <c r="D7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I7">
+        <v>257</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8">
+        <v>0.99</v>
+      </c>
+      <c r="D8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>2.91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I8">
+        <v>594</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9">
+        <v>0.97</v>
+      </c>
+      <c r="D9">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9">
+        <v>0.97</v>
+      </c>
+      <c r="I9">
+        <v>813</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11">
+        <v>0.99</v>
+      </c>
+      <c r="D11">
+        <v>1.7010000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="F11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I11">
+        <v>111</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12">
+        <v>0.99</v>
+      </c>
+      <c r="D12">
+        <v>1.8710000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>2.996</v>
+      </c>
+      <c r="F12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I12">
+        <v>2980</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13">
+        <v>0.99</v>
+      </c>
+      <c r="D13">
+        <v>2.0480000000000002E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" t="s">
+        <v>232</v>
+      </c>
+      <c r="H13">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I13">
+        <v>867</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14">
+        <v>0.99</v>
+      </c>
+      <c r="D14">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14">
+        <v>0.99</v>
+      </c>
+      <c r="I14">
+        <v>1581</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15">
+        <v>0.99</v>
+      </c>
+      <c r="D15">
+        <v>1.38E-2</v>
+      </c>
+      <c r="E15">
+        <v>3.05</v>
+      </c>
+      <c r="F15" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15">
+        <v>0.99</v>
+      </c>
+      <c r="I15">
+        <v>2798</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16">
+        <v>0.98</v>
+      </c>
+      <c r="D16">
+        <v>5.1029999999999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.7149999999999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17">
+        <v>0.98</v>
+      </c>
+      <c r="D17">
+        <v>1.89E-2</v>
+      </c>
+      <c r="E17">
+        <v>2.99</v>
+      </c>
+      <c r="F17" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17">
+        <v>0.98</v>
+      </c>
+      <c r="I17">
+        <v>143</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18">
+        <v>0.98</v>
+      </c>
+      <c r="D18">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="E18">
+        <v>3.0779999999999998</v>
+      </c>
+      <c r="F18" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H18">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I18">
+        <v>522</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19">
+        <v>0.94</v>
+      </c>
+      <c r="D19">
+        <v>5.4599999999999996E-3</v>
+      </c>
+      <c r="E19">
+        <v>3.2970000000000002</v>
+      </c>
+      <c r="F19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H19">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="I19">
+        <v>371</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20">
+        <v>-1.3260000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G20" t="s">
+        <v>246</v>
+      </c>
+      <c r="H20">
+        <v>0.99586699999999995</v>
+      </c>
+      <c r="I20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" t="s">
+        <v>226</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21">
+        <v>0.86</v>
+      </c>
+      <c r="D21">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E21">
+        <v>2.75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H21">
+        <v>0.86</v>
+      </c>
+      <c r="I21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22">
+        <v>-0.78100000000000003</v>
+      </c>
+      <c r="E22">
+        <v>0.85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" t="s">
+        <v>250</v>
+      </c>
+      <c r="H22">
+        <v>0.99932600000000005</v>
+      </c>
+      <c r="I22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" t="s">
+        <v>226</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23">
+        <v>0.89</v>
+      </c>
+      <c r="D23">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E23">
+        <v>3.04</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>252</v>
+      </c>
+      <c r="H23">
+        <v>0.89</v>
+      </c>
+      <c r="I23">
+        <v>29</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24">
+        <v>0.99</v>
+      </c>
+      <c r="D24">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>3.0409999999999999</v>
+      </c>
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
+        <v>254</v>
+      </c>
+      <c r="H24">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I24">
+        <v>247</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25">
+        <v>0.99</v>
+      </c>
+      <c r="D25">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E25">
+        <v>3.18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25">
+        <v>0.99</v>
+      </c>
+      <c r="I25">
+        <v>4570</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26">
+        <v>0.99</v>
+      </c>
+      <c r="D26">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="E26">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="F26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I26">
+        <v>67</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27">
+        <v>0.91</v>
+      </c>
+      <c r="D27">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="E27">
+        <v>2.7160000000000002</v>
+      </c>
+      <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>260</v>
+      </c>
+      <c r="H27">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I27">
+        <v>736</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="E28">
+        <v>2.97</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28">
+        <v>0.997</v>
+      </c>
+      <c r="I28">
+        <v>5260</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{8F4D621E-43EB-8D4E-BA81-9914764DC562}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{CE0D795E-CBC3-5640-93F2-6E4183A062AF}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{73838D47-2FDD-8446-8BB3-D615A72952CE}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{E05ECAFE-EAAD-804F-98F6-A103E3271EAE}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{F6622A8C-B6A1-C542-B272-FAF2E977DB6D}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{8CE69DF3-9219-214A-8677-6A78425CE6D5}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{4C76DB39-A4EA-DC46-ADFC-94F6DE2AE7E4}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{EAEA16B5-E4FD-9246-9EE1-C5E83C0DBC13}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{58CC5ABB-F6C1-3542-9CDD-664A51EA1FF7}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{D7E2D995-CAD7-9446-8AB5-44D79FC12E63}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{7ABEB231-E5EC-024C-97CD-C17C17AA70FD}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{8830493F-C047-B94C-BF49-0226AA9CC3C9}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{E1A2C3C4-4B25-1040-A684-1001F70BF156}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{E6C0A7D3-87F6-FF44-96C5-A67CD705F916}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{FF8E2AD6-A5E6-F341-B898-B1D37144D670}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{E41F6D15-7783-464F-961C-1FF851DFC485}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{14E2620E-B61D-524F-BB98-4B64C3D6A21A}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{EFB83752-E9E9-8645-82F8-ED6C5AAB5636}"/>
+    <hyperlink ref="K20" r:id="rId19" xr:uid="{F41C14F0-2848-2045-BF70-4E39EB33DAF3}"/>
+    <hyperlink ref="K21" r:id="rId20" xr:uid="{D9956A9E-F0CC-F245-9425-6783DF44E2EB}"/>
+    <hyperlink ref="K22" r:id="rId21" xr:uid="{4B030049-A4C8-4642-865C-EB8D8ED9CED2}"/>
+    <hyperlink ref="K23" r:id="rId22" xr:uid="{2409C74E-7543-D949-8CC7-8886087BE2B8}"/>
+    <hyperlink ref="K24" r:id="rId23" xr:uid="{6365C9B9-0714-1F4F-8CFC-385934885BC0}"/>
+    <hyperlink ref="K25" r:id="rId24" xr:uid="{810518F6-D776-744B-B653-45FE7E0B0654}"/>
+    <hyperlink ref="K26" r:id="rId25" xr:uid="{339C461A-9B2A-3042-81B0-713633982DD9}"/>
+    <hyperlink ref="K27" r:id="rId26" xr:uid="{80F7FB94-CB99-7F4F-89EC-A0676B20F509}"/>
+    <hyperlink ref="K28" r:id="rId27" xr:uid="{0018D18B-4CF2-F643-9FF2-61C2355BF2C6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1A89FE-919C-A74C-BCA7-A46C6985575E}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="73.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FishLandings/data/fishbase.xlsx
+++ b/FishLandings/data/fishbase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Kenya_SamakiSalama/FishLandings/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA691EE6-67AA-AB4B-9400-D7A04B3BE69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BC5030-0E00-3646-AE00-CAA2F172365F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="life history" sheetId="1" r:id="rId1"/>
@@ -912,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -925,7 +925,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1243,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27ABF6E-FCDE-A64A-8E31-FB070AB67392}">
   <dimension ref="A1:BD27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1793,7 +1792,7 @@
       <c r="BC3" t="s">
         <v>123</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BD3" s="8" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1963,7 +1962,7 @@
       <c r="BC4" t="s">
         <v>126</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BD4" s="8" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2133,7 +2132,7 @@
       <c r="BC5" t="s">
         <v>123</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BD5" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2303,7 +2302,7 @@
       <c r="BC6" t="s">
         <v>123</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BD6" s="8" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2473,7 +2472,7 @@
       <c r="BC7" t="s">
         <v>116</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BD7" s="8" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2643,7 +2642,7 @@
       <c r="BC8" t="s">
         <v>116</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BD8" s="8" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2813,7 +2812,7 @@
       <c r="BC9" t="s">
         <v>123</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BD9" s="8" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2983,7 +2982,7 @@
       <c r="BC10" t="s">
         <v>123</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BD10" s="8" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3153,7 +3152,7 @@
       <c r="BC11" t="s">
         <v>123</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BD11" s="8" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3323,7 +3322,7 @@
       <c r="BC12" t="s">
         <v>123</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BD12" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3493,7 +3492,7 @@
       <c r="BC13" t="s">
         <v>123</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BD13" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3663,7 +3662,7 @@
       <c r="BC14" t="s">
         <v>123</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BD14" s="8" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3833,7 +3832,7 @@
       <c r="BC15" t="s">
         <v>126</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="BD15" s="8" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4003,7 +4002,7 @@
       <c r="BC16" t="s">
         <v>126</v>
       </c>
-      <c r="BD16" t="s">
+      <c r="BD16" s="8" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4173,7 +4172,7 @@
       <c r="BC17" t="s">
         <v>123</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BD17" s="8" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4343,7 +4342,7 @@
       <c r="BC18" t="s">
         <v>123</v>
       </c>
-      <c r="BD18" t="s">
+      <c r="BD18" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4513,7 +4512,7 @@
       <c r="BC19" t="s">
         <v>123</v>
       </c>
-      <c r="BD19" t="s">
+      <c r="BD19" s="8" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4683,7 +4682,7 @@
       <c r="BC20" t="s">
         <v>123</v>
       </c>
-      <c r="BD20" t="s">
+      <c r="BD20" s="8" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5193,7 +5192,7 @@
       <c r="BC23" t="s">
         <v>116</v>
       </c>
-      <c r="BD23" t="s">
+      <c r="BD23" s="8" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5363,7 +5362,7 @@
       <c r="BC24" t="s">
         <v>116</v>
       </c>
-      <c r="BD24" t="s">
+      <c r="BD24" s="8" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5438,7 +5437,7 @@
         <v>115</v>
       </c>
       <c r="X25">
-        <v>10.1</v>
+        <v>18</v>
       </c>
       <c r="Y25">
         <v>7.6</v>
@@ -5533,7 +5532,7 @@
       <c r="BC25" t="s">
         <v>115</v>
       </c>
-      <c r="BD25" t="s">
+      <c r="BD25" s="8" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5703,7 +5702,7 @@
       <c r="BC26" t="s">
         <v>116</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BD26" s="8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5873,7 +5872,7 @@
       <c r="BC27" t="s">
         <v>123</v>
       </c>
-      <c r="BD27" t="s">
+      <c r="BD27" s="8" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5882,6 +5881,29 @@
     <hyperlink ref="BD21" r:id="rId1" xr:uid="{0855E8CE-BF5D-FE4C-B242-2206D93E6385}"/>
     <hyperlink ref="BD22" r:id="rId2" xr:uid="{D17C73AE-DE32-7A49-92CA-00525E9614E3}"/>
     <hyperlink ref="BD2" r:id="rId3" xr:uid="{38067483-B59C-D642-AF43-86FEC10F9C16}"/>
+    <hyperlink ref="BD3" r:id="rId4" xr:uid="{CFFA8496-BE23-0C4F-AEC4-8A0A04997450}"/>
+    <hyperlink ref="BD4" r:id="rId5" xr:uid="{677FBD8D-F25D-2243-880A-2371DC12D95D}"/>
+    <hyperlink ref="BD5" r:id="rId6" xr:uid="{26D6EA70-2D41-D448-BDF6-47A2CF69E5CC}"/>
+    <hyperlink ref="BD6" r:id="rId7" xr:uid="{6296BF72-1ABA-5047-8572-1FF2BC6EAABF}"/>
+    <hyperlink ref="BD7" r:id="rId8" xr:uid="{AB23F2B5-4BFC-454F-91B7-F54C1FB37453}"/>
+    <hyperlink ref="BD8" r:id="rId9" xr:uid="{39B968CB-A289-CC43-B951-E99C00F5E4DF}"/>
+    <hyperlink ref="BD9" r:id="rId10" xr:uid="{F1909E87-B801-3C46-BAF2-05AB6306EB99}"/>
+    <hyperlink ref="BD10" r:id="rId11" xr:uid="{EB035819-7BF3-8244-8F1C-14DE7EDE402E}"/>
+    <hyperlink ref="BD11" r:id="rId12" xr:uid="{62FC950A-A6EC-8745-9103-F31440AF2DEE}"/>
+    <hyperlink ref="BD12" r:id="rId13" xr:uid="{47A2EA28-FFD6-344B-AAC2-D0580249A3DF}"/>
+    <hyperlink ref="BD13" r:id="rId14" xr:uid="{F00FCC60-9045-494A-AB8B-5738E488CF5E}"/>
+    <hyperlink ref="BD14" r:id="rId15" xr:uid="{ECEC3F9E-4BAD-5B46-91CD-80EE4D5E5287}"/>
+    <hyperlink ref="BD15" r:id="rId16" xr:uid="{0F1FBA8F-BB1D-7C4D-8DF3-F1DD4386C45B}"/>
+    <hyperlink ref="BD16" r:id="rId17" xr:uid="{762B6CA9-F342-F94C-9E76-F64D19BE9A4A}"/>
+    <hyperlink ref="BD17" r:id="rId18" xr:uid="{6463625B-CAA8-334C-A78C-572EEA83533F}"/>
+    <hyperlink ref="BD18" r:id="rId19" xr:uid="{8B621993-8381-0447-A698-C6D77EB34BAC}"/>
+    <hyperlink ref="BD19" r:id="rId20" xr:uid="{D49CEB6D-0B0E-C54E-BD22-6708290964AA}"/>
+    <hyperlink ref="BD20" r:id="rId21" xr:uid="{B8DC0A52-E78A-A249-A613-00AFE789A090}"/>
+    <hyperlink ref="BD23" r:id="rId22" xr:uid="{4DFAED8A-4275-E942-9634-88ACAF0339A5}"/>
+    <hyperlink ref="BD24" r:id="rId23" xr:uid="{80AD5238-B799-2643-BE1A-5572F5838B19}"/>
+    <hyperlink ref="BD25" r:id="rId24" xr:uid="{09FB9F76-3AF0-CA43-85C7-BBBDA3AA1192}"/>
+    <hyperlink ref="BD26" r:id="rId25" xr:uid="{01D1F225-7340-2443-B7A0-0E60B60F02C2}"/>
+    <hyperlink ref="BD27" r:id="rId26" xr:uid="{95218792-52ED-4F47-8230-79B878773FBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5891,8 +5913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8401CC-45AA-794F-825D-4F3F9F3C5EA7}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5933,7 +5955,7 @@
       <c r="J1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/FishLandings/data/fishbase.xlsx
+++ b/FishLandings/data/fishbase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Kenya_SamakiSalama/FishLandings/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BC5030-0E00-3646-AE00-CAA2F172365F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBBE165-5B3F-6449-AF4B-795B08946C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
+    <workbookView xWindow="5740" yWindow="460" windowWidth="38400" windowHeight="19720" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="life history" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="306">
   <si>
     <t>scientific_name</t>
   </si>
@@ -780,9 +780,6 @@
     <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=7878&amp;GenusName=Parupeneus&amp;SpeciesName=macronemus&amp;fc=332</t>
   </si>
   <si>
-    <t>6.2-27.5</t>
-  </si>
-  <si>
     <t>https://www.fishbase.se/popdyn/LLRelationshipList.php?ID=7703&amp;GenusName=Plectorhinchus&amp;SpeciesName=gaterinus&amp;fc=327</t>
   </si>
   <si>
@@ -792,9 +789,6 @@
     <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=7626&amp;GenusName=Plectorhinchus&amp;SpeciesName=sordidus&amp;fc=327</t>
   </si>
   <si>
-    <t>6.1-36.6</t>
-  </si>
-  <si>
     <t>https://www.fishbase.se/popdyn/LLRelationshipList.php?ID=25706&amp;GenusName=Plectorhinchus&amp;SpeciesName=vittatus&amp;fc=327</t>
   </si>
   <si>
@@ -832,6 +826,138 @@
   </si>
   <si>
     <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1288&amp;GenusName=Trichiurus&amp;SpeciesName=lepturus&amp;fc=415</t>
+  </si>
+  <si>
+    <t>Acanthurus nigrofuscus</t>
+  </si>
+  <si>
+    <t>Cantherhines sandwichiensis</t>
+  </si>
+  <si>
+    <t>Chaetodon auriga</t>
+  </si>
+  <si>
+    <t>Chaetodon selene</t>
+  </si>
+  <si>
+    <t>Lethrinus mahsena</t>
+  </si>
+  <si>
+    <t>Parupeneus indicus</t>
+  </si>
+  <si>
+    <t>Plectorhinchus flavomaculatus</t>
+  </si>
+  <si>
+    <t>Scarus psittacus</t>
+  </si>
+  <si>
+    <t>Scarus russelii</t>
+  </si>
+  <si>
+    <t>Siganus stellatus</t>
+  </si>
+  <si>
+    <t>Brown surgeonfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/KeyfactsSummary_1.php?ID=4739&amp;GenusName=Acanthurus&amp;SpeciesName=nigrofuscus&amp;vStockCode=4963&amp;fc=412</t>
+  </si>
+  <si>
+    <t>5.7-16.5</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/LWRelationshipList.php?ID=4739&amp;GenusName=Acanthurus&amp;SpeciesName=nigrofuscus&amp;fc=412</t>
+  </si>
+  <si>
+    <t>Sandwich isle file</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/KeyfactsSummary_2v2.php?ID=7835&amp;GenusName=Cantherhines&amp;SpeciesName=sandwichiensis&amp;vStockCode=8145&amp;fc=517</t>
+  </si>
+  <si>
+    <t>Threadfin butterflyfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/KeyfactsSummary_1.php?ID=5557&amp;GenusName=Chaetodon&amp;SpeciesName=auriga&amp;vStockCode=5847&amp;fc=343</t>
+  </si>
+  <si>
+    <t>Yellow-dotted butterflyfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/KeyfactsSummary_2v2.php?ID=6634&amp;GenusName=Chaetodon&amp;SpeciesName=selene&amp;vStockCode=6954&amp;fc=343</t>
+  </si>
+  <si>
+    <t>4.5-19</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/LWRelationshipList.php?ID=5557&amp;GenusName=Chaetodon&amp;SpeciesName=auriga&amp;fc=343</t>
+  </si>
+  <si>
+    <t>Sky emperor</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/KeyfactsSummary_1.php?ID=1843&amp;GenusName=Lethrinus&amp;SpeciesName=mahsena&amp;vStockCode=2039&amp;fc=328</t>
+  </si>
+  <si>
+    <t>Indian goatfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/KeyfactsSummary_2v2.php?ID=5992&amp;GenusName=Parupeneus&amp;SpeciesName=indicus&amp;vStockCode=6301&amp;fc=332</t>
+  </si>
+  <si>
+    <t>8.5-31.6</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/LWRelationshipList.php?ID=5992&amp;GenusName=Parupeneus&amp;SpeciesName=indicus&amp;fc=332</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/LWRelationshipList.php?ID=1843&amp;GenusName=Lethrinus&amp;SpeciesName=mahsena&amp;fc=328</t>
+  </si>
+  <si>
+    <t>Lemonfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/KeyfactsSummary_2v2.php?ID=7625&amp;GenusName=Plectorhinchus&amp;SpeciesName=flavomaculatus&amp;vStockCode=7933&amp;fc=327</t>
+  </si>
+  <si>
+    <t>17.5-49</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/LWRelationshipList.php?ID=7625&amp;GenusName=Plectorhinchus&amp;SpeciesName=flavomaculatus&amp;fc=327</t>
+  </si>
+  <si>
+    <t>Common parrotfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/KeyfactsSummary_1.php?ID=5553&amp;GenusName=Scarus&amp;SpeciesName=psittacus&amp;vStockCode=5843&amp;fc=364</t>
+  </si>
+  <si>
+    <t>18.0-34.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/LWRelationshipList.php?ID=5553&amp;GenusName=Scarus&amp;SpeciesName=psittacus&amp;fc=364</t>
+  </si>
+  <si>
+    <t>Eclipse parrotfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/KeyfactsSummary_2v2.php?ID=7912&amp;GenusName=Scarus&amp;SpeciesName=russelii&amp;vStockCode=8223&amp;fc=364</t>
+  </si>
+  <si>
+    <t>Brown-spotted spinefoot</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/KeyfactsSummary_2v2.php?ID=4622&amp;GenusName=Siganus&amp;SpeciesName=stellatus&amp;vStockCode=4809&amp;fc=413</t>
+  </si>
+  <si>
+    <t>12.0-34.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.de/popdyn/LWRelationshipList.php?ID=4622&amp;GenusName=Siganus&amp;SpeciesName=stellatus&amp;fc=413</t>
   </si>
 </sst>
 </file>
@@ -1240,15 +1366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27ABF6E-FCDE-A64A-8E31-FB070AB67392}">
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -5876,6 +6002,1706 @@
         <v>192</v>
       </c>
     </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="K28">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L28">
+        <v>1.77</v>
+      </c>
+      <c r="M28">
+        <v>1.17</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2.67</v>
+      </c>
+      <c r="O28" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="P28" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>115</v>
+      </c>
+      <c r="R28">
+        <v>1.5</v>
+      </c>
+      <c r="S28" t="s">
+        <v>115</v>
+      </c>
+      <c r="T28" t="s">
+        <v>115</v>
+      </c>
+      <c r="U28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V28" t="s">
+        <v>115</v>
+      </c>
+      <c r="W28" t="s">
+        <v>115</v>
+      </c>
+      <c r="X28">
+        <v>7.8</v>
+      </c>
+      <c r="Y28">
+        <v>5.8</v>
+      </c>
+      <c r="Z28">
+        <v>10.4</v>
+      </c>
+      <c r="AA28">
+        <v>7.1</v>
+      </c>
+      <c r="AB28">
+        <v>6</v>
+      </c>
+      <c r="AC28">
+        <v>8.4</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>12</v>
+      </c>
+      <c r="AE28">
+        <v>49</v>
+      </c>
+      <c r="AF28">
+        <v>2.64E-2</v>
+      </c>
+      <c r="AG28" s="6">
+        <v>3.0283699999999998</v>
+      </c>
+      <c r="AH28" s="7">
+        <v>49</v>
+      </c>
+      <c r="AI28">
+        <v>1.2</v>
+      </c>
+      <c r="AJ28">
+        <v>7.7</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN28">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="AO28">
+        <v>4.8</v>
+      </c>
+      <c r="AP28">
+        <v>0.5</v>
+      </c>
+      <c r="AQ28">
+        <v>0.67</v>
+      </c>
+      <c r="AR28">
+        <v>0.59</v>
+      </c>
+      <c r="AS28">
+        <v>3.59</v>
+      </c>
+      <c r="AT28">
+        <v>2.59</v>
+      </c>
+      <c r="AU28">
+        <v>7.18</v>
+      </c>
+      <c r="AV28">
+        <v>4.8</v>
+      </c>
+      <c r="AW28">
+        <v>2</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY28">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AZ28">
+        <v>49</v>
+      </c>
+      <c r="BA28">
+        <v>26</v>
+      </c>
+      <c r="BB28">
+        <v>1.32</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD28" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>73</v>
+      </c>
+      <c r="F29">
+        <v>19.3</v>
+      </c>
+      <c r="G29">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="K29" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0.73</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="O29" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="P29">
+        <v>0.5</v>
+      </c>
+      <c r="Q29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R29">
+        <v>2.1</v>
+      </c>
+      <c r="S29" t="s">
+        <v>115</v>
+      </c>
+      <c r="T29" t="s">
+        <v>115</v>
+      </c>
+      <c r="U29">
+        <v>1.5</v>
+      </c>
+      <c r="V29">
+        <v>1.2</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>12.5</v>
+      </c>
+      <c r="Y29">
+        <v>9.4</v>
+      </c>
+      <c r="Z29">
+        <v>16.8</v>
+      </c>
+      <c r="AA29">
+        <v>12.3</v>
+      </c>
+      <c r="AB29">
+        <v>10.4</v>
+      </c>
+      <c r="AC29">
+        <v>14.6</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN29">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="AO29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AP29">
+        <v>0.5</v>
+      </c>
+      <c r="AQ29">
+        <v>0.66</v>
+      </c>
+      <c r="AR29">
+        <v>0.59</v>
+      </c>
+      <c r="AS29">
+        <v>2.14</v>
+      </c>
+      <c r="AT29">
+        <v>1.55</v>
+      </c>
+      <c r="AU29">
+        <v>4.28</v>
+      </c>
+      <c r="AV29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AW29">
+        <v>2.7</v>
+      </c>
+      <c r="AX29">
+        <v>0.21</v>
+      </c>
+      <c r="AY29">
+        <v>41.8</v>
+      </c>
+      <c r="AZ29">
+        <v>84.9</v>
+      </c>
+      <c r="BA29">
+        <v>25</v>
+      </c>
+      <c r="BB29">
+        <v>1.32</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD29" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>60</v>
+      </c>
+      <c r="F30">
+        <v>23</v>
+      </c>
+      <c r="G30">
+        <v>15.4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" t="s">
+        <v>115</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="K30">
+        <v>2.16</v>
+      </c>
+      <c r="L30">
+        <v>1.42</v>
+      </c>
+      <c r="M30">
+        <v>0.94</v>
+      </c>
+      <c r="N30" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="O30" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P30" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>115</v>
+      </c>
+      <c r="R30">
+        <v>1.8</v>
+      </c>
+      <c r="S30" t="s">
+        <v>115</v>
+      </c>
+      <c r="T30" t="s">
+        <v>115</v>
+      </c>
+      <c r="U30">
+        <v>1.3</v>
+      </c>
+      <c r="V30" t="s">
+        <v>115</v>
+      </c>
+      <c r="W30" t="s">
+        <v>115</v>
+      </c>
+      <c r="X30">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Y30">
+        <v>7.3</v>
+      </c>
+      <c r="Z30">
+        <v>13</v>
+      </c>
+      <c r="AA30">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AB30">
+        <v>7.8</v>
+      </c>
+      <c r="AC30">
+        <v>10.9</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="AE30">
+        <v>100.2</v>
+      </c>
+      <c r="AF30">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="AG30" s="6">
+        <v>2.9529999999999998</v>
+      </c>
+      <c r="AH30" s="7">
+        <v>101</v>
+      </c>
+      <c r="AI30">
+        <v>2.6</v>
+      </c>
+      <c r="AJ30">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN30">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="AO30">
+        <v>6.2</v>
+      </c>
+      <c r="AP30">
+        <v>0.5</v>
+      </c>
+      <c r="AQ30">
+        <v>0.68</v>
+      </c>
+      <c r="AR30">
+        <v>0.6</v>
+      </c>
+      <c r="AS30">
+        <v>3.02</v>
+      </c>
+      <c r="AT30">
+        <v>2.13</v>
+      </c>
+      <c r="AU30">
+        <v>6.04</v>
+      </c>
+      <c r="AV30">
+        <v>6.2</v>
+      </c>
+      <c r="AW30">
+        <v>3.7</v>
+      </c>
+      <c r="AX30">
+        <v>0.3</v>
+      </c>
+      <c r="AY30">
+        <v>13.1</v>
+      </c>
+      <c r="AZ30">
+        <v>100.2</v>
+      </c>
+      <c r="BA30">
+        <v>27</v>
+      </c>
+      <c r="BB30">
+        <v>1.32</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD30" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" t="s">
+        <v>280</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="K31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31">
+        <v>1.62</v>
+      </c>
+      <c r="M31">
+        <v>1.07</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O31" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="P31">
+        <v>0.3</v>
+      </c>
+      <c r="Q31">
+        <v>0.7</v>
+      </c>
+      <c r="R31">
+        <v>1.4</v>
+      </c>
+      <c r="S31" t="s">
+        <v>115</v>
+      </c>
+      <c r="T31" t="s">
+        <v>115</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0.8</v>
+      </c>
+      <c r="W31">
+        <v>1.3</v>
+      </c>
+      <c r="X31">
+        <v>10.6</v>
+      </c>
+      <c r="Y31">
+        <v>7.9</v>
+      </c>
+      <c r="Z31">
+        <v>14.2</v>
+      </c>
+      <c r="AA31">
+        <v>10.1</v>
+      </c>
+      <c r="AB31">
+        <v>8.6</v>
+      </c>
+      <c r="AC31">
+        <v>12</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN31">
+        <v>2.76E-2</v>
+      </c>
+      <c r="AO31">
+        <v>6.8</v>
+      </c>
+      <c r="AP31">
+        <v>0.5</v>
+      </c>
+      <c r="AQ31">
+        <v>0.65</v>
+      </c>
+      <c r="AR31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS31">
+        <v>3.01</v>
+      </c>
+      <c r="AT31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AU31">
+        <v>6.02</v>
+      </c>
+      <c r="AV31">
+        <v>6.8</v>
+      </c>
+      <c r="AW31">
+        <v>2.7</v>
+      </c>
+      <c r="AX31">
+        <v>0.24</v>
+      </c>
+      <c r="AY31">
+        <v>13.8</v>
+      </c>
+      <c r="AZ31">
+        <v>48.3</v>
+      </c>
+      <c r="BA31">
+        <v>25</v>
+      </c>
+      <c r="BB31">
+        <v>1.32</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD31" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B32" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>65</v>
+      </c>
+      <c r="G32">
+        <v>64.5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K32">
+        <v>2.62</v>
+      </c>
+      <c r="L32">
+        <v>0.26</v>
+      </c>
+      <c r="M32">
+        <v>0.17</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="O32" s="4">
+        <v>28.6</v>
+      </c>
+      <c r="P32" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>115</v>
+      </c>
+      <c r="R32">
+        <v>8.6</v>
+      </c>
+      <c r="S32" t="s">
+        <v>115</v>
+      </c>
+      <c r="T32" t="s">
+        <v>115</v>
+      </c>
+      <c r="U32">
+        <v>6.5</v>
+      </c>
+      <c r="V32" t="s">
+        <v>115</v>
+      </c>
+      <c r="W32" t="s">
+        <v>115</v>
+      </c>
+      <c r="X32">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="Y32">
+        <v>26.3</v>
+      </c>
+      <c r="Z32">
+        <v>47.2</v>
+      </c>
+      <c r="AA32">
+        <v>40.9</v>
+      </c>
+      <c r="AB32">
+        <v>34.6</v>
+      </c>
+      <c r="AC32">
+        <v>48.4</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>64.5</v>
+      </c>
+      <c r="AE32">
+        <v>6272</v>
+      </c>
+      <c r="AF32">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>3.16</v>
+      </c>
+      <c r="AH32" s="7">
+        <v>6272</v>
+      </c>
+      <c r="AI32">
+        <v>182.5</v>
+      </c>
+      <c r="AJ32">
+        <v>1140.8</v>
+      </c>
+      <c r="AK32">
+        <v>66615</v>
+      </c>
+      <c r="AL32">
+        <v>26700</v>
+      </c>
+      <c r="AM32">
+        <v>166200</v>
+      </c>
+      <c r="AN32">
+        <v>1.77E-2</v>
+      </c>
+      <c r="AO32">
+        <v>25.8</v>
+      </c>
+      <c r="AP32">
+        <v>0.5</v>
+      </c>
+      <c r="AQ32">
+        <v>0.71</v>
+      </c>
+      <c r="AR32">
+        <v>0.61</v>
+      </c>
+      <c r="AS32">
+        <v>0.64</v>
+      </c>
+      <c r="AT32">
+        <v>0.41</v>
+      </c>
+      <c r="AU32">
+        <v>1.28</v>
+      </c>
+      <c r="AV32">
+        <v>25.8</v>
+      </c>
+      <c r="AW32">
+        <v>3.4</v>
+      </c>
+      <c r="AX32">
+        <v>0.42</v>
+      </c>
+      <c r="AY32">
+        <v>5.7</v>
+      </c>
+      <c r="AZ32">
+        <v>6271.8</v>
+      </c>
+      <c r="BA32">
+        <v>27</v>
+      </c>
+      <c r="BB32">
+        <v>1.32</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD32" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>45</v>
+      </c>
+      <c r="G33">
+        <v>46.9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="K33" t="s">
+        <v>115</v>
+      </c>
+      <c r="L33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M33">
+        <v>0.36</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="O33" s="4">
+        <v>11</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>2.1</v>
+      </c>
+      <c r="R33">
+        <v>3.2</v>
+      </c>
+      <c r="S33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T33">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U33">
+        <v>2.6</v>
+      </c>
+      <c r="V33">
+        <v>2.1</v>
+      </c>
+      <c r="W33">
+        <v>3.3</v>
+      </c>
+      <c r="X33">
+        <v>26.5</v>
+      </c>
+      <c r="Y33">
+        <v>19.8</v>
+      </c>
+      <c r="Z33">
+        <v>35.4</v>
+      </c>
+      <c r="AA33">
+        <v>29.3</v>
+      </c>
+      <c r="AB33">
+        <v>24.8</v>
+      </c>
+      <c r="AC33">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AD33">
+        <v>46.9</v>
+      </c>
+      <c r="AE33">
+        <v>2192</v>
+      </c>
+      <c r="AF33">
+        <v>1.52E-2</v>
+      </c>
+      <c r="AG33">
+        <v>3.0870000000000002</v>
+      </c>
+      <c r="AH33">
+        <v>2191</v>
+      </c>
+      <c r="AI33">
+        <v>61.8</v>
+      </c>
+      <c r="AJ33">
+        <v>386.2</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN33">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="AO33">
+        <v>18.8</v>
+      </c>
+      <c r="AP33">
+        <v>0.5</v>
+      </c>
+      <c r="AQ33">
+        <v>0.66</v>
+      </c>
+      <c r="AR33">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS33">
+        <v>1.07</v>
+      </c>
+      <c r="AT33">
+        <v>0.77</v>
+      </c>
+      <c r="AU33">
+        <v>2.14</v>
+      </c>
+      <c r="AV33">
+        <v>18.8</v>
+      </c>
+      <c r="AW33">
+        <v>3.5</v>
+      </c>
+      <c r="AX33">
+        <v>0.37</v>
+      </c>
+      <c r="AY33">
+        <v>6.3</v>
+      </c>
+      <c r="AZ33">
+        <v>2191.6</v>
+      </c>
+      <c r="BA33">
+        <v>25</v>
+      </c>
+      <c r="BB33">
+        <v>1.32</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD33" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>25</v>
+      </c>
+      <c r="F34">
+        <v>60</v>
+      </c>
+      <c r="G34">
+        <v>62.2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" t="s">
+        <v>115</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="K34" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34">
+        <v>0.39</v>
+      </c>
+      <c r="M34">
+        <v>0.26</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="O34" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="P34">
+        <v>1.4</v>
+      </c>
+      <c r="Q34">
+        <v>2.9</v>
+      </c>
+      <c r="R34">
+        <v>4.8</v>
+      </c>
+      <c r="S34">
+        <v>3.5</v>
+      </c>
+      <c r="T34">
+        <v>6.9</v>
+      </c>
+      <c r="U34">
+        <v>3.6</v>
+      </c>
+      <c r="V34">
+        <v>2.9</v>
+      </c>
+      <c r="W34">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X34">
+        <v>34.1</v>
+      </c>
+      <c r="Y34">
+        <v>25.5</v>
+      </c>
+      <c r="Z34">
+        <v>45.7</v>
+      </c>
+      <c r="AA34">
+        <v>39.4</v>
+      </c>
+      <c r="AB34">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AC34">
+        <v>46.6</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>62.2</v>
+      </c>
+      <c r="AE34">
+        <v>5373</v>
+      </c>
+      <c r="AF34">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="AG34" s="6">
+        <v>2.86</v>
+      </c>
+      <c r="AH34" s="7">
+        <v>5371</v>
+      </c>
+      <c r="AI34">
+        <v>155.6</v>
+      </c>
+      <c r="AJ34">
+        <v>972.5</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN34">
+        <v>2.46E-2</v>
+      </c>
+      <c r="AO34">
+        <v>24.9</v>
+      </c>
+      <c r="AP34">
+        <v>0.5</v>
+      </c>
+      <c r="AQ34">
+        <v>0.66</v>
+      </c>
+      <c r="AR34">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS34">
+        <v>0.76</v>
+      </c>
+      <c r="AT34">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU34">
+        <v>1.52</v>
+      </c>
+      <c r="AV34">
+        <v>24.9</v>
+      </c>
+      <c r="AW34">
+        <v>4</v>
+      </c>
+      <c r="AX34">
+        <v>0.66</v>
+      </c>
+      <c r="AY34">
+        <v>5.3</v>
+      </c>
+      <c r="AZ34">
+        <v>5371.8</v>
+      </c>
+      <c r="BA34">
+        <v>25</v>
+      </c>
+      <c r="BB34">
+        <v>1.32</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD34" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>25</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <v>26.5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="K35">
+        <v>2.62</v>
+      </c>
+      <c r="L35">
+        <v>1.19</v>
+      </c>
+      <c r="M35">
+        <v>0.79</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O35" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="P35" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>115</v>
+      </c>
+      <c r="R35">
+        <v>1.3</v>
+      </c>
+      <c r="S35" t="s">
+        <v>115</v>
+      </c>
+      <c r="T35" t="s">
+        <v>115</v>
+      </c>
+      <c r="U35">
+        <v>1.3</v>
+      </c>
+      <c r="V35" t="s">
+        <v>115</v>
+      </c>
+      <c r="W35" t="s">
+        <v>115</v>
+      </c>
+      <c r="X35">
+        <v>15.8</v>
+      </c>
+      <c r="Y35">
+        <v>11.8</v>
+      </c>
+      <c r="Z35">
+        <v>21.2</v>
+      </c>
+      <c r="AA35">
+        <v>16.2</v>
+      </c>
+      <c r="AB35">
+        <v>13.7</v>
+      </c>
+      <c r="AC35">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AD35">
+        <v>26.5</v>
+      </c>
+      <c r="AE35">
+        <v>743</v>
+      </c>
+      <c r="AF35">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="AG35">
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="AH35">
+        <v>744</v>
+      </c>
+      <c r="AI35">
+        <v>20.3</v>
+      </c>
+      <c r="AJ35">
+        <v>126.8</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN35">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="AO35">
+        <v>10.6</v>
+      </c>
+      <c r="AP35">
+        <v>0.5</v>
+      </c>
+      <c r="AQ35">
+        <v>0.64</v>
+      </c>
+      <c r="AR35">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS35">
+        <v>2.12</v>
+      </c>
+      <c r="AT35">
+        <v>1.6</v>
+      </c>
+      <c r="AU35">
+        <v>4.24</v>
+      </c>
+      <c r="AV35">
+        <v>10.6</v>
+      </c>
+      <c r="AW35">
+        <v>2</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY35">
+        <v>21.2</v>
+      </c>
+      <c r="AZ35">
+        <v>743.4</v>
+      </c>
+      <c r="BA35">
+        <v>26.4</v>
+      </c>
+      <c r="BB35">
+        <v>1.32</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD35" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <v>51</v>
+      </c>
+      <c r="G36">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="K36" t="s">
+        <v>115</v>
+      </c>
+      <c r="L36">
+        <v>0.66</v>
+      </c>
+      <c r="M36">
+        <v>0.44</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P36">
+        <v>0.7</v>
+      </c>
+      <c r="Q36">
+        <v>1.5</v>
+      </c>
+      <c r="R36">
+        <v>2.4</v>
+      </c>
+      <c r="S36">
+        <v>1.8</v>
+      </c>
+      <c r="T36">
+        <v>3.5</v>
+      </c>
+      <c r="U36">
+        <v>1.9</v>
+      </c>
+      <c r="V36">
+        <v>1.5</v>
+      </c>
+      <c r="W36">
+        <v>2.4</v>
+      </c>
+      <c r="X36">
+        <v>29.5</v>
+      </c>
+      <c r="Y36">
+        <v>22</v>
+      </c>
+      <c r="Z36">
+        <v>39.6</v>
+      </c>
+      <c r="AA36">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AB36">
+        <v>28.2</v>
+      </c>
+      <c r="AC36">
+        <v>39.4</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN36">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AO36">
+        <v>21.2</v>
+      </c>
+      <c r="AP36">
+        <v>0.5</v>
+      </c>
+      <c r="AQ36">
+        <v>0.63</v>
+      </c>
+      <c r="AR36">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS36">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AT36">
+        <v>0.86</v>
+      </c>
+      <c r="AU36">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AV36">
+        <v>21.2</v>
+      </c>
+      <c r="AW36">
+        <v>2</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY36">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AZ36">
+        <v>1488.8</v>
+      </c>
+      <c r="BA36">
+        <v>25</v>
+      </c>
+      <c r="BB36">
+        <v>1.32</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD36" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>40</v>
+      </c>
+      <c r="G37">
+        <v>41.7</v>
+      </c>
+      <c r="H37" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="K37" t="s">
+        <v>115</v>
+      </c>
+      <c r="L37">
+        <v>0.96</v>
+      </c>
+      <c r="M37">
+        <v>0.64</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="O37" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="P37">
+        <v>0.5</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1.6</v>
+      </c>
+      <c r="S37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T37">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U37">
+        <v>1.3</v>
+      </c>
+      <c r="V37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W37">
+        <v>1.7</v>
+      </c>
+      <c r="X37">
+        <v>23.8</v>
+      </c>
+      <c r="Y37">
+        <v>17.8</v>
+      </c>
+      <c r="Z37">
+        <v>31.9</v>
+      </c>
+      <c r="AA37">
+        <v>26</v>
+      </c>
+      <c r="AB37">
+        <v>21.9</v>
+      </c>
+      <c r="AC37">
+        <v>30.7</v>
+      </c>
+      <c r="AD37">
+        <v>41.7</v>
+      </c>
+      <c r="AE37">
+        <v>711</v>
+      </c>
+      <c r="AF37">
+        <v>4.41E-2</v>
+      </c>
+      <c r="AG37">
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="AH37">
+        <v>711</v>
+      </c>
+      <c r="AI37">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AJ37">
+        <v>121.2</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN37">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="AO37">
+        <v>16.7</v>
+      </c>
+      <c r="AP37">
+        <v>0.5</v>
+      </c>
+      <c r="AQ37">
+        <v>0.63</v>
+      </c>
+      <c r="AR37">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS37">
+        <v>1.63</v>
+      </c>
+      <c r="AT37">
+        <v>1.25</v>
+      </c>
+      <c r="AU37">
+        <v>3.26</v>
+      </c>
+      <c r="AV37">
+        <v>16.7</v>
+      </c>
+      <c r="AW37">
+        <v>2.7</v>
+      </c>
+      <c r="AX37">
+        <v>0.3</v>
+      </c>
+      <c r="AY37">
+        <v>28.5</v>
+      </c>
+      <c r="AZ37">
+        <v>711.1</v>
+      </c>
+      <c r="BA37">
+        <v>26</v>
+      </c>
+      <c r="BB37">
+        <v>1.32</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD37" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="BD21" r:id="rId1" xr:uid="{0855E8CE-BF5D-FE4C-B242-2206D93E6385}"/>
@@ -5904,6 +7730,16 @@
     <hyperlink ref="BD25" r:id="rId24" xr:uid="{09FB9F76-3AF0-CA43-85C7-BBBDA3AA1192}"/>
     <hyperlink ref="BD26" r:id="rId25" xr:uid="{01D1F225-7340-2443-B7A0-0E60B60F02C2}"/>
     <hyperlink ref="BD27" r:id="rId26" xr:uid="{95218792-52ED-4F47-8230-79B878773FBF}"/>
+    <hyperlink ref="BD28" r:id="rId27" xr:uid="{23660627-E7C9-9B44-94F8-A0C5550E81D8}"/>
+    <hyperlink ref="BD29" r:id="rId28" xr:uid="{494C7E08-B3AB-4B4A-8B88-C4023BA527BF}"/>
+    <hyperlink ref="BD30" r:id="rId29" xr:uid="{4F05D4D9-AD94-FB41-8980-4371A99C6221}"/>
+    <hyperlink ref="BD31" r:id="rId30" xr:uid="{69D2B949-ED48-8840-AAF1-C7398AAFC812}"/>
+    <hyperlink ref="BD32" r:id="rId31" xr:uid="{8A1C58B0-251A-7D47-A690-86494D3B5334}"/>
+    <hyperlink ref="BD33" r:id="rId32" xr:uid="{08E40663-8061-4741-B22C-82DA677D4C96}"/>
+    <hyperlink ref="BD34" r:id="rId33" xr:uid="{B3543BF1-462B-6D47-B934-C317B44FE158}"/>
+    <hyperlink ref="BD35" r:id="rId34" xr:uid="{E523DEF4-4A3E-CD4F-AB28-8C8FCA4FCB05}"/>
+    <hyperlink ref="BD36" r:id="rId35" xr:uid="{2EDD6381-2F42-1549-B2F4-56D7D2D59E3F}"/>
+    <hyperlink ref="BD37" r:id="rId36" xr:uid="{9A47CF8B-C962-FE40-8CFC-0BF0DE9D6FBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5911,15 +7747,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8401CC-45AA-794F-825D-4F3F9F3C5EA7}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D31" sqref="D31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="60.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6234,14 +8070,14 @@
       <c r="C10" t="s">
         <v>115</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1.0840000000000001</v>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>115</v>
@@ -6557,20 +8393,20 @@
       <c r="C20" t="s">
         <v>115</v>
       </c>
-      <c r="D20">
-        <v>-1.3260000000000001</v>
-      </c>
-      <c r="E20">
-        <v>0.88</v>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="G20" t="s">
-        <v>246</v>
-      </c>
-      <c r="H20">
-        <v>0.99586699999999995</v>
+        <v>115</v>
+      </c>
+      <c r="H20" t="s">
+        <v>115</v>
       </c>
       <c r="I20" t="s">
         <v>115</v>
@@ -6579,7 +8415,7 @@
         <v>226</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -6602,7 +8438,7 @@
         <v>204</v>
       </c>
       <c r="G21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H21">
         <v>0.86</v>
@@ -6611,7 +8447,7 @@
         <v>115</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -6624,20 +8460,20 @@
       <c r="C22" t="s">
         <v>115</v>
       </c>
-      <c r="D22">
-        <v>-0.78100000000000003</v>
-      </c>
-      <c r="E22">
-        <v>0.85</v>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>250</v>
-      </c>
-      <c r="H22">
-        <v>0.99932600000000005</v>
+        <v>115</v>
+      </c>
+      <c r="H22" t="s">
+        <v>115</v>
       </c>
       <c r="I22" t="s">
         <v>115</v>
@@ -6646,7 +8482,7 @@
         <v>226</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -6669,7 +8505,7 @@
         <v>215</v>
       </c>
       <c r="G23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H23">
         <v>0.89</v>
@@ -6678,7 +8514,7 @@
         <v>29</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -6701,7 +8537,7 @@
         <v>204</v>
       </c>
       <c r="G24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H24">
         <v>0.99399999999999999</v>
@@ -6710,7 +8546,7 @@
         <v>247</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -6733,7 +8569,7 @@
         <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H25">
         <v>0.99</v>
@@ -6742,7 +8578,7 @@
         <v>4570</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -6765,7 +8601,7 @@
         <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H26">
         <v>0.98799999999999999</v>
@@ -6774,7 +8610,7 @@
         <v>67</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -6797,7 +8633,7 @@
         <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H27">
         <v>0.90900000000000003</v>
@@ -6806,7 +8642,7 @@
         <v>736</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -6829,7 +8665,7 @@
         <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H28">
         <v>0.997</v>
@@ -6838,7 +8674,327 @@
         <v>5260</v>
       </c>
       <c r="K28" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29">
+        <v>0.98</v>
+      </c>
+      <c r="D29">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E29">
+        <v>3.278</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>274</v>
+      </c>
+      <c r="H29">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I29">
+        <v>140</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>263</v>
+      </c>
+      <c r="B30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" t="s">
+        <v>115</v>
+      </c>
+      <c r="J30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31">
+        <v>0.99</v>
+      </c>
+      <c r="D31">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.9529999999999998</v>
+      </c>
+      <c r="F31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" t="s">
+        <v>282</v>
+      </c>
+      <c r="H31">
+        <v>0.99</v>
+      </c>
+      <c r="I31">
+        <v>74</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33">
+        <v>0.98</v>
+      </c>
+      <c r="D33">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E33">
+        <v>3.077</v>
+      </c>
+      <c r="F33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33">
+        <v>0.98</v>
+      </c>
+      <c r="I33">
+        <v>76</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" t="s">
+        <v>286</v>
+      </c>
+      <c r="C34">
+        <v>0.98</v>
+      </c>
+      <c r="D34">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E34">
+        <v>2.92</v>
+      </c>
+      <c r="F34" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" t="s">
+        <v>288</v>
+      </c>
+      <c r="H34">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I34">
+        <v>323</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35">
+        <v>0.95</v>
+      </c>
+      <c r="D35">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="E35">
+        <v>2.86</v>
+      </c>
+      <c r="F35" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" t="s">
+        <v>294</v>
+      </c>
+      <c r="H35">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="I35">
+        <v>16</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36">
+        <v>0.97</v>
+      </c>
+      <c r="D36">
+        <v>1.41E-2</v>
+      </c>
+      <c r="E36">
+        <v>3.14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>215</v>
+      </c>
+      <c r="G36" t="s">
+        <v>298</v>
+      </c>
+      <c r="H36">
+        <v>0.97</v>
+      </c>
+      <c r="I36">
+        <v>209</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38">
+        <v>0.99</v>
+      </c>
+      <c r="D38">
+        <v>4.41E-2</v>
+      </c>
+      <c r="E38">
+        <v>2.597</v>
+      </c>
+      <c r="F38" t="s">
+        <v>215</v>
+      </c>
+      <c r="G38" t="s">
+        <v>304</v>
+      </c>
+      <c r="H38">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I38">
+        <v>64</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -6870,6 +9026,13 @@
     <hyperlink ref="K26" r:id="rId25" xr:uid="{339C461A-9B2A-3042-81B0-713633982DD9}"/>
     <hyperlink ref="K27" r:id="rId26" xr:uid="{80F7FB94-CB99-7F4F-89EC-A0676B20F509}"/>
     <hyperlink ref="K28" r:id="rId27" xr:uid="{0018D18B-4CF2-F643-9FF2-61C2355BF2C6}"/>
+    <hyperlink ref="K29" r:id="rId28" xr:uid="{8E9151CE-32D9-C24B-AF38-7000C6F984F9}"/>
+    <hyperlink ref="K31" r:id="rId29" xr:uid="{F38C22EA-7CFC-8C40-ADE9-F891EB158215}"/>
+    <hyperlink ref="K34" r:id="rId30" xr:uid="{CC867BD3-8EF6-9D48-B207-17DA1A4F9334}"/>
+    <hyperlink ref="K33" r:id="rId31" xr:uid="{006C10E8-3F87-5543-A5CA-F6E79A0ED450}"/>
+    <hyperlink ref="K35" r:id="rId32" xr:uid="{02A4312A-02B7-1A42-B567-00DB9639614C}"/>
+    <hyperlink ref="K36" r:id="rId33" xr:uid="{1D7C0C62-2B5C-F343-9D46-0DC5D3214AD7}"/>
+    <hyperlink ref="K38" r:id="rId34" xr:uid="{E9C67390-AA73-634F-AD33-4E827C3BE18A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FishLandings/data/fishbase.xlsx
+++ b/FishLandings/data/fishbase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Kenya_SamakiSalama/FishLandings/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBBE165-5B3F-6449-AF4B-795B08946C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E4EB49-6E0E-B647-BA85-B247680C9C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="460" windowWidth="38400" windowHeight="19720" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
+    <workbookView xWindow="5660" yWindow="2620" windowWidth="27720" windowHeight="16200" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="life history" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="511">
   <si>
     <t>scientific_name</t>
   </si>
@@ -958,6 +958,621 @@
   </si>
   <si>
     <t>https://www.fishbase.de/popdyn/LWRelationshipList.php?ID=4622&amp;GenusName=Siganus&amp;SpeciesName=stellatus&amp;fc=413</t>
+  </si>
+  <si>
+    <t>Lethrinus lentjan</t>
+  </si>
+  <si>
+    <t>Pink ear emperor</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1863&amp;GenusName=Lethrinus&amp;SpeciesName=lentjan&amp;fc=328</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=1863&amp;GenusName=Lethrinus&amp;SpeciesName=lentjan&amp;vStockCode=2059&amp;fc=328</t>
+  </si>
+  <si>
+    <t>One-blotch grouper</t>
+  </si>
+  <si>
+    <t>Epinephelus melanostigma</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=6471&amp;GenusName=Epinephelus&amp;SpeciesName=melanostigma&amp;vStockCode=6793&amp;fc=798</t>
+  </si>
+  <si>
+    <t>16.9-54.9</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=6471&amp;GenusName=Epinephelus&amp;SpeciesName=melanostigma&amp;fc=798</t>
+  </si>
+  <si>
+    <t>Epinephelus fasciatus</t>
+  </si>
+  <si>
+    <t>Blacktip grouper</t>
+  </si>
+  <si>
+    <t>10.0-33.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Caledonia </t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5348&amp;GenusName=Epinephelus&amp;SpeciesName=fasciatus&amp;fc=798</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_4.php?ID=5348&amp;GenusName=Epinephelus&amp;SpeciesName=fasciatus&amp;vStockCode=5587&amp;fc=798&amp;var_tmax=7</t>
+  </si>
+  <si>
+    <t>Blue trevally</t>
+  </si>
+  <si>
+    <t>Carangoides ferdau</t>
+  </si>
+  <si>
+    <t>11.6-52.4</t>
+  </si>
+  <si>
+    <t>North Marianas</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1921&amp;GenusName=Carangoides&amp;SpeciesName=ferdau&amp;fc=314</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=1921&amp;GenusName=Carangoides&amp;SpeciesName=ferdau&amp;vStockCode=2117&amp;fc=314</t>
+  </si>
+  <si>
+    <t>Naso hexacanthus</t>
+  </si>
+  <si>
+    <t>Sleek unicornfish</t>
+  </si>
+  <si>
+    <t>5.7-53.4</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1263&amp;GenusName=Naso&amp;SpeciesName=hexacanthus&amp;fc=412</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=1263&amp;GenusName=Naso&amp;SpeciesName=hexacanthus&amp;vStockCode=1280&amp;fc=412</t>
+  </si>
+  <si>
+    <t>Siganus guttatus</t>
+  </si>
+  <si>
+    <t>Orange-spotted spinefoot</t>
+  </si>
+  <si>
+    <t>7.8-39.0</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=4588&amp;GenusName=Siganus&amp;SpeciesName=guttatus&amp;fc=413</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=4588&amp;GenusName=Siganus&amp;SpeciesName=guttatus&amp;vStockCode=4774&amp;fc=413</t>
+  </si>
+  <si>
+    <t>Mangrove red snapper</t>
+  </si>
+  <si>
+    <t>Lutjanus argentimaculatus</t>
+  </si>
+  <si>
+    <t>5.5-67.5</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1407&amp;GenusName=Lutjanus&amp;SpeciesName=argentimaculatus&amp;fc=323</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=1407&amp;GenusName=Lutjanus&amp;SpeciesName=argentimaculatus&amp;vStockCode=1456&amp;fc=323</t>
+  </si>
+  <si>
+    <t>Pomatomus saltatrix</t>
+  </si>
+  <si>
+    <t>Bluefish</t>
+  </si>
+  <si>
+    <t>4.0-80.0</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=364&amp;GenusName=Pomatomus&amp;SpeciesName=saltatrix&amp;fc=311</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=364&amp;GenusName=Pomatomus&amp;SpeciesName=saltatrix&amp;vStockCode=378&amp;fc=311</t>
+  </si>
+  <si>
+    <t>Epinephelus coioides</t>
+  </si>
+  <si>
+    <t>Orange-spotted grouper</t>
+  </si>
+  <si>
+    <t>14.2-107.0</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=6465&amp;GenusName=Epinephelus&amp;SpeciesName=coioides&amp;fc=798</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=6465&amp;GenusName=Epinephelus&amp;SpeciesName=coioides&amp;vStockCode=6787&amp;fc=798</t>
+  </si>
+  <si>
+    <t>Heniochus acuminatus</t>
+  </si>
+  <si>
+    <t>Pennant coralfish</t>
+  </si>
+  <si>
+    <t>3.5-17.5</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5588&amp;GenusName=Heniochus&amp;SpeciesName=acuminatus&amp;fc=343</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=5588&amp;GenusName=Heniochus&amp;SpeciesName=acuminatus&amp;vStockCode=5878&amp;fc=343</t>
+  </si>
+  <si>
+    <t>Cheilinus chlorourus</t>
+  </si>
+  <si>
+    <t>Floral wrasse</t>
+  </si>
+  <si>
+    <t>16.4-25.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5598&amp;GenusName=Cheilinus&amp;SpeciesName=chlorourus&amp;fc=362</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=5598&amp;GenusName=Cheilinus&amp;SpeciesName=chlorourus&amp;vStockCode=5890&amp;fc=362</t>
+  </si>
+  <si>
+    <t>Novaculichthys taeniourus</t>
+  </si>
+  <si>
+    <t>Rockmover wrasse</t>
+  </si>
+  <si>
+    <t>10.5-21.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5610&amp;GenusName=Novaculichthys&amp;SpeciesName=taeniourus&amp;fc=362</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=5610&amp;GenusName=Novaculichthys&amp;SpeciesName=taeniourus&amp;vStockCode=5902&amp;fc=362</t>
+  </si>
+  <si>
+    <t>Lutjanus johnii</t>
+  </si>
+  <si>
+    <t>John's snapper</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=264&amp;GenusName=Lutjanus&amp;SpeciesName=johnii&amp;vStockCode=278&amp;fc=323</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=264&amp;GenusName=Lutjanus&amp;SpeciesName=johnii&amp;fc=323</t>
+  </si>
+  <si>
+    <t>Abudefduf sexfasciatus</t>
+  </si>
+  <si>
+    <t>Scissortail sergeant</t>
+  </si>
+  <si>
+    <t>6.0-15.4</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5688&amp;GenusName=Abudefduf&amp;SpeciesName=sexfasciatus&amp;fc=350</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=5688&amp;GenusName=Abudefduf&amp;SpeciesName=sexfasciatus&amp;vStockCode=5981&amp;fc=350</t>
+  </si>
+  <si>
+    <t>Epinephelus spilotoceps</t>
+  </si>
+  <si>
+    <t>Foursaddle grouper</t>
+  </si>
+  <si>
+    <t>17.5-47.5</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5837&amp;GenusName=Epinephelus&amp;SpeciesName=spilotoceps&amp;fc=798</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=5837&amp;GenusName=Epinephelus&amp;SpeciesName=spilotoceps&amp;vStockCode=6134&amp;fc=798</t>
+  </si>
+  <si>
+    <t>Plotosus lineatus</t>
+  </si>
+  <si>
+    <t>Striped eel catfish</t>
+  </si>
+  <si>
+    <t>5.5-35.2</t>
+  </si>
+  <si>
+    <t>Chinese Taipei</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=4706&amp;GenusName=Plotosus&amp;SpeciesName=lineatus&amp;fc=149</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=4706&amp;GenusName=Plotosus&amp;SpeciesName=lineatus&amp;vStockCode=4927&amp;fc=149</t>
+  </si>
+  <si>
+    <t>Cheilio inermis</t>
+  </si>
+  <si>
+    <t>Cigar wrasse</t>
+  </si>
+  <si>
+    <t>2.3-37.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5623&amp;GenusName=Cheilio&amp;SpeciesName=inermis&amp;fc=362</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=5623&amp;GenusName=Cheilio&amp;SpeciesName=inermis&amp;vStockCode=5917&amp;fc=362</t>
+  </si>
+  <si>
+    <t>Lethrinus olivaceus</t>
+  </si>
+  <si>
+    <t>Longface emperor</t>
+  </si>
+  <si>
+    <t>20.2-71.7</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>https://fishbase.mnhn.fr/popdyn/LWRelationshipList.php?ID=1864&amp;GenusName=Lethrinus&amp;SpeciesName=olivaceus&amp;fc=328</t>
+  </si>
+  <si>
+    <t>https://fishbase.mnhn.fr/popdyn/KeyfactsSummary_1.php?ID=1864&amp;GenusName=Lethrinus&amp;SpeciesName=olivaceus&amp;vStockCode=2060&amp;fc=328</t>
+  </si>
+  <si>
+    <t>Lutjanus gibbus</t>
+  </si>
+  <si>
+    <t>Humpback red snapper</t>
+  </si>
+  <si>
+    <t>17.0-56.8</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=265&amp;GenusName=Lutjanus&amp;SpeciesName=gibbus&amp;fc=323</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=265&amp;GenusName=Lutjanus&amp;SpeciesName=gibbus&amp;vStockCode=279&amp;fc=323</t>
+  </si>
+  <si>
+    <t>Rhynchostracion nasus</t>
+  </si>
+  <si>
+    <t>Shortnose boxfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=8192&amp;GenusName=Rhynchostracion&amp;SpeciesName=nasus&amp;vStockCode=8505&amp;fc=446</t>
+  </si>
+  <si>
+    <t>didn't have a length-weight link</t>
+  </si>
+  <si>
+    <t>Pomacanthus semicirculatus</t>
+  </si>
+  <si>
+    <t>Semicircle angelfish</t>
+  </si>
+  <si>
+    <t>didn't have length-weight info</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5663&amp;GenusName=Pomacanthus&amp;SpeciesName=semicirculatus&amp;fc=460</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=5663&amp;GenusName=Pomacanthus&amp;SpeciesName=semicirculatus&amp;vStockCode=5956&amp;fc=460</t>
+  </si>
+  <si>
+    <t>Gomphosus caeruleus</t>
+  </si>
+  <si>
+    <t>Green birdmouth wrasse</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=7744&amp;GenusName=Gomphosus&amp;SpeciesName=caeruleus&amp;fc=362</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=7744&amp;GenusName=Gomphosus&amp;SpeciesName=caeruleus&amp;vStockCode=8053&amp;fc=362</t>
+  </si>
+  <si>
+    <t>Parupeneus barberinus</t>
+  </si>
+  <si>
+    <t>Dash-and-dot goatfish</t>
+  </si>
+  <si>
+    <t>8.2-37.3</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5987&amp;GenusName=Parupeneus&amp;SpeciesName=barberinus&amp;fc=332</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=5987&amp;GenusName=Parupeneus&amp;SpeciesName=barberinus&amp;vStockCode=6296&amp;fc=332</t>
+  </si>
+  <si>
+    <t>Scarus globiceps</t>
+  </si>
+  <si>
+    <t>Globehead parrotfish</t>
+  </si>
+  <si>
+    <t>15.5-33.9</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=4970&amp;GenusName=Scarus&amp;SpeciesName=globiceps&amp;fc=364</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=4970&amp;GenusName=Scarus&amp;SpeciesName=globiceps&amp;vStockCode=5203&amp;fc=364</t>
+  </si>
+  <si>
+    <t>Lethrinus variegatus</t>
+  </si>
+  <si>
+    <t>Slender emperor</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1850&amp;GenusName=Lethrinus&amp;SpeciesName=variegatus&amp;fc=328</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=1850&amp;GenusName=Lethrinus&amp;SpeciesName=variegatus&amp;vStockCode=2046&amp;fc=328</t>
+  </si>
+  <si>
+    <t>Siganus argenteus</t>
+  </si>
+  <si>
+    <t>Streamlined spinefoot</t>
+  </si>
+  <si>
+    <t>9.5-30.4</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=4614&amp;GenusName=Siganus&amp;SpeciesName=argenteus&amp;fc=413</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=4614&amp;GenusName=Siganus&amp;SpeciesName=argenteus&amp;vStockCode=4801&amp;fc=413</t>
+  </si>
+  <si>
+    <t>Acanthurus tennenti</t>
+  </si>
+  <si>
+    <t>Doubleband surgeonfish</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=1259&amp;GenusName=Acanthurus&amp;SpeciesName=tennentii&amp;vStockCode=1276&amp;fc=412</t>
+  </si>
+  <si>
+    <t>Diagramma pictum</t>
+  </si>
+  <si>
+    <t>Painted sweetlips</t>
+  </si>
+  <si>
+    <t>7.0-75.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=4465&amp;GenusName=Diagramma&amp;SpeciesName=pictum&amp;fc=327</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=4465&amp;GenusName=Diagramma&amp;SpeciesName=pictum&amp;vStockCode=4662&amp;fc=327</t>
+  </si>
+  <si>
+    <t>Acanthurus nigricauda</t>
+  </si>
+  <si>
+    <t>Epaulette surgeonfish</t>
+  </si>
+  <si>
+    <t>15.1-45.3</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=4747&amp;GenusName=Acanthurus&amp;SpeciesName=nigricauda&amp;fc=412</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=4747&amp;GenusName=Acanthurus&amp;SpeciesName=nigricauda&amp;vStockCode=4971&amp;fc=412</t>
+  </si>
+  <si>
+    <t>Lethrinus obsoletus</t>
+  </si>
+  <si>
+    <t>Orange-striped emperor</t>
+  </si>
+  <si>
+    <t>16.4-34.7</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1847&amp;GenusName=Lethrinus&amp;SpeciesName=obsoletus&amp;fc=328</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=1847&amp;GenusName=Lethrinus&amp;SpeciesName=obsoletus&amp;vStockCode=2043&amp;fc=328</t>
+  </si>
+  <si>
+    <t>Balistapus undulatus</t>
+  </si>
+  <si>
+    <t>Orange-lined triggerfish</t>
+  </si>
+  <si>
+    <t>4.1-21.9</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=6025&amp;GenusName=Balistapus&amp;SpeciesName=undulatus&amp;fc=445</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=6025&amp;GenusName=Balistapus&amp;SpeciesName=undulatus&amp;vStockCode=6339&amp;fc=445</t>
+  </si>
+  <si>
+    <t>Myripristis berndti</t>
+  </si>
+  <si>
+    <t>Blotcheye soldierfish</t>
+  </si>
+  <si>
+    <t>12.4-24.9</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=4910&amp;GenusName=Myripristis&amp;SpeciesName=berndti&amp;fc=243</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=4910&amp;GenusName=Myripristis&amp;SpeciesName=berndti&amp;vStockCode=5143&amp;fc=243</t>
+  </si>
+  <si>
+    <t>Epinephelus fuscoguttatus</t>
+  </si>
+  <si>
+    <t>Brown-marbled grouper</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=4460&amp;GenusName=Epinephelus&amp;SpeciesName=fuscoguttatus&amp;fc=798</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=4460&amp;GenusName=Epinephelus&amp;SpeciesName=fuscoguttatus&amp;vStockCode=4658&amp;fc=798</t>
+  </si>
+  <si>
+    <t>Chaetodon kleinii</t>
+  </si>
+  <si>
+    <t>Sunburst butterflyfish</t>
+  </si>
+  <si>
+    <t>6.5-8.7</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5446&amp;GenusName=Chaetodon&amp;SpeciesName=kleinii&amp;fc=343</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=5446&amp;GenusName=Chaetodon&amp;SpeciesName=kleinii&amp;vStockCode=5711&amp;fc=343</t>
+  </si>
+  <si>
+    <t>Naso unicornis</t>
+  </si>
+  <si>
+    <t>Bluespine unicornfish</t>
+  </si>
+  <si>
+    <t>16.4-55.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1265&amp;GenusName=Naso&amp;SpeciesName=unicornis&amp;fc=412</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=1265&amp;GenusName=Naso&amp;SpeciesName=unicornis&amp;vStockCode=1282&amp;fc=412</t>
+  </si>
+  <si>
+    <t>Upeneus tragula</t>
+  </si>
+  <si>
+    <t>Freckled goatfish</t>
+  </si>
+  <si>
+    <t>3.5-24.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5443&amp;GenusName=Upeneus&amp;SpeciesName=tragula&amp;fc=332</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=5443&amp;GenusName=Upeneus&amp;SpeciesName=tragula&amp;vStockCode=5708&amp;fc=332</t>
+  </si>
+  <si>
+    <t>Cephalopholis spiloparaea</t>
+  </si>
+  <si>
+    <t>Strawberry hind</t>
+  </si>
+  <si>
+    <t>10.0-16.0</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=6455&amp;GenusName=Cephalopholis&amp;SpeciesName=spiloparaea&amp;fc=798</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_4.php?ID=6455&amp;GenusName=Cephalopholis&amp;SpeciesName=spiloparaea&amp;vStockCode=6777&amp;fc=798&amp;var_tmax=7</t>
+  </si>
+  <si>
+    <t>Calotomus carolinus</t>
+  </si>
+  <si>
+    <t>Carolines parrotfish</t>
+  </si>
+  <si>
+    <t>15.7-32.2</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=4355&amp;GenusName=Calotomus&amp;SpeciesName=carolinus&amp;fc=364</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_4.php?ID=4355&amp;GenusName=Calotomus&amp;SpeciesName=carolinus&amp;vStockCode=4550&amp;fc=364&amp;var_tmax=3</t>
+  </si>
+  <si>
+    <t>Priacanthus hamrur</t>
+  </si>
+  <si>
+    <t>Moontail bullseye</t>
+  </si>
+  <si>
+    <t>14.0-27.7</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5791&amp;GenusName=Priacanthus&amp;SpeciesName=hamrur&amp;fc=303</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_1.php?ID=5791&amp;GenusName=Priacanthus&amp;SpeciesName=hamrur&amp;vStockCode=6086&amp;fc=303</t>
+  </si>
+  <si>
+    <t>Cheilinus trilobatus</t>
+  </si>
+  <si>
+    <t>Tripletail wrasse</t>
+  </si>
+  <si>
+    <t>15.5-35.2</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=5603&amp;GenusName=Cheilinus&amp;SpeciesName=trilobatus&amp;fc=362</t>
+  </si>
+  <si>
+    <t>https://www.fishbase.se/popdyn/KeyfactsSummary_2v2.php?ID=5603&amp;GenusName=Cheilinus&amp;SpeciesName=trilobatus&amp;vStockCode=5895&amp;fc=362</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1584,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1007,6 +1622,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1038,7 +1660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1051,6 +1673,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1366,10 +1989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27ABF6E-FCDE-A64A-8E31-FB070AB67392}">
-  <dimension ref="A1:BD37"/>
+  <dimension ref="A1:BD77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7702,6 +8326,6806 @@
         <v>303</v>
       </c>
     </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>306</v>
+      </c>
+      <c r="B38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>90</v>
+      </c>
+      <c r="F38">
+        <v>52</v>
+      </c>
+      <c r="G38">
+        <v>30.7</v>
+      </c>
+      <c r="H38" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" t="s">
+        <v>115</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="K38">
+        <v>2.9</v>
+      </c>
+      <c r="L38" t="s">
+        <v>115</v>
+      </c>
+      <c r="M38" t="s">
+        <v>115</v>
+      </c>
+      <c r="N38" t="s">
+        <v>115</v>
+      </c>
+      <c r="O38" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="P38" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>115</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s">
+        <v>115</v>
+      </c>
+      <c r="T38" t="s">
+        <v>115</v>
+      </c>
+      <c r="U38">
+        <v>0.9</v>
+      </c>
+      <c r="V38" t="s">
+        <v>115</v>
+      </c>
+      <c r="W38" t="s">
+        <v>115</v>
+      </c>
+      <c r="X38">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Y38">
+        <v>13.5</v>
+      </c>
+      <c r="Z38">
+        <v>24.2</v>
+      </c>
+      <c r="AA38">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD38">
+        <v>30.7</v>
+      </c>
+      <c r="AE38">
+        <v>536.6</v>
+      </c>
+      <c r="AF38">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="AG38">
+        <v>2.8860000000000001</v>
+      </c>
+      <c r="AH38">
+        <v>537</v>
+      </c>
+      <c r="AI38">
+        <v>14.5</v>
+      </c>
+      <c r="AJ38">
+        <v>90.7</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN38">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="AO38">
+        <v>12.3</v>
+      </c>
+      <c r="AP38">
+        <v>0.5</v>
+      </c>
+      <c r="AQ38">
+        <v>0.62</v>
+      </c>
+      <c r="AR38">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AS38">
+        <v>2.33</v>
+      </c>
+      <c r="AT38">
+        <v>1.82</v>
+      </c>
+      <c r="AU38">
+        <v>4.66</v>
+      </c>
+      <c r="AV38">
+        <v>12.3</v>
+      </c>
+      <c r="AW38">
+        <v>3.9</v>
+      </c>
+      <c r="AX38">
+        <v>0.25</v>
+      </c>
+      <c r="AY38">
+        <v>8.1</v>
+      </c>
+      <c r="AZ38">
+        <v>536.6</v>
+      </c>
+      <c r="BA38">
+        <v>24.3</v>
+      </c>
+      <c r="BB38">
+        <v>1.32</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD38" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>312</v>
+      </c>
+      <c r="B39" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <v>54.9</v>
+      </c>
+      <c r="G39">
+        <v>57</v>
+      </c>
+      <c r="H39" t="s">
+        <v>115</v>
+      </c>
+      <c r="I39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="K39" t="s">
+        <v>115</v>
+      </c>
+      <c r="L39">
+        <v>0.44</v>
+      </c>
+      <c r="M39">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="O39" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="P39">
+        <v>1.2</v>
+      </c>
+      <c r="Q39">
+        <v>2.5</v>
+      </c>
+      <c r="R39">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S39">
+        <v>3</v>
+      </c>
+      <c r="T39">
+        <v>5.8</v>
+      </c>
+      <c r="U39">
+        <v>3.2</v>
+      </c>
+      <c r="V39">
+        <v>2.5</v>
+      </c>
+      <c r="W39">
+        <v>4</v>
+      </c>
+      <c r="X39">
+        <v>31.5</v>
+      </c>
+      <c r="Y39">
+        <v>23.5</v>
+      </c>
+      <c r="Z39">
+        <v>42.2</v>
+      </c>
+      <c r="AA39">
+        <v>35.9</v>
+      </c>
+      <c r="AB39">
+        <v>30.4</v>
+      </c>
+      <c r="AC39">
+        <v>42.5</v>
+      </c>
+      <c r="AD39">
+        <v>57</v>
+      </c>
+      <c r="AE39">
+        <v>3302</v>
+      </c>
+      <c r="AF39">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AG39">
+        <v>3.1</v>
+      </c>
+      <c r="AH39">
+        <v>3301</v>
+      </c>
+      <c r="AI39">
+        <v>94.3</v>
+      </c>
+      <c r="AJ39">
+        <v>589.1</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN39">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="AO39">
+        <v>22.8</v>
+      </c>
+      <c r="AP39">
+        <v>0.5</v>
+      </c>
+      <c r="AQ39">
+        <v>0.65</v>
+      </c>
+      <c r="AR39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS39">
+        <v>0.82</v>
+      </c>
+      <c r="AT39">
+        <v>0.61</v>
+      </c>
+      <c r="AU39">
+        <v>1.64</v>
+      </c>
+      <c r="AV39">
+        <v>22.8</v>
+      </c>
+      <c r="AW39">
+        <v>4</v>
+      </c>
+      <c r="AX39">
+        <v>0.67</v>
+      </c>
+      <c r="AY39">
+        <v>5.8</v>
+      </c>
+      <c r="AZ39">
+        <v>3301.9</v>
+      </c>
+      <c r="BA39">
+        <v>25</v>
+      </c>
+      <c r="BB39">
+        <v>1.32</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD39" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B40" t="s">
+        <v>318</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>160</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="G40">
+        <v>41.7</v>
+      </c>
+      <c r="H40">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="I40">
+        <v>49.5</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="K40" t="s">
+        <v>115</v>
+      </c>
+      <c r="L40">
+        <v>0.8</v>
+      </c>
+      <c r="M40">
+        <v>0.53</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="O40" s="4">
+        <v>7</v>
+      </c>
+      <c r="P40" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>115</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>1.5</v>
+      </c>
+      <c r="T40">
+        <v>2.9</v>
+      </c>
+      <c r="U40">
+        <v>1.7</v>
+      </c>
+      <c r="V40">
+        <v>1.4</v>
+      </c>
+      <c r="W40">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X40">
+        <v>23.8</v>
+      </c>
+      <c r="Y40">
+        <v>17.8</v>
+      </c>
+      <c r="Z40">
+        <v>31.9</v>
+      </c>
+      <c r="AA40">
+        <v>26</v>
+      </c>
+      <c r="AB40">
+        <v>21.9</v>
+      </c>
+      <c r="AC40">
+        <v>30.7</v>
+      </c>
+      <c r="AD40">
+        <v>41.7</v>
+      </c>
+      <c r="AE40">
+        <v>896</v>
+      </c>
+      <c r="AF40">
+        <v>1.61E-2</v>
+      </c>
+      <c r="AG40">
+        <v>2.9289999999999998</v>
+      </c>
+      <c r="AH40">
+        <v>895</v>
+      </c>
+      <c r="AI40">
+        <v>24.6</v>
+      </c>
+      <c r="AJ40">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN40">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="AO40">
+        <v>16.7</v>
+      </c>
+      <c r="AP40">
+        <v>0.5</v>
+      </c>
+      <c r="AQ40">
+        <v>0.64</v>
+      </c>
+      <c r="AR40">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS40">
+        <v>1.42</v>
+      </c>
+      <c r="AT40">
+        <v>1.04</v>
+      </c>
+      <c r="AU40">
+        <v>2.84</v>
+      </c>
+      <c r="AV40">
+        <v>16.7</v>
+      </c>
+      <c r="AW40">
+        <v>3.7</v>
+      </c>
+      <c r="AX40">
+        <v>0.42</v>
+      </c>
+      <c r="AY40">
+        <v>7.9</v>
+      </c>
+      <c r="AZ40">
+        <v>895.8</v>
+      </c>
+      <c r="BA40">
+        <v>25.8</v>
+      </c>
+      <c r="BB40">
+        <v>1.32</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD40" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>60</v>
+      </c>
+      <c r="F41">
+        <v>70</v>
+      </c>
+      <c r="G41">
+        <v>93.1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" t="s">
+        <v>115</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="K41">
+        <v>3.26</v>
+      </c>
+      <c r="L41">
+        <v>0.43</v>
+      </c>
+      <c r="M41">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="O41" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="P41" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>115</v>
+      </c>
+      <c r="R41">
+        <v>4.3</v>
+      </c>
+      <c r="S41" t="s">
+        <v>115</v>
+      </c>
+      <c r="T41" t="s">
+        <v>115</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41" t="s">
+        <v>115</v>
+      </c>
+      <c r="W41" t="s">
+        <v>115</v>
+      </c>
+      <c r="X41">
+        <v>49</v>
+      </c>
+      <c r="Y41">
+        <v>36.6</v>
+      </c>
+      <c r="Z41">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="AA41">
+        <v>59.9</v>
+      </c>
+      <c r="AB41">
+        <v>50.7</v>
+      </c>
+      <c r="AC41">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="AD41">
+        <v>93.1</v>
+      </c>
+      <c r="AE41">
+        <v>15123</v>
+      </c>
+      <c r="AF41">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="AG41">
+        <v>2.8511600000000001</v>
+      </c>
+      <c r="AH41">
+        <v>15124</v>
+      </c>
+      <c r="AI41">
+        <v>451.9</v>
+      </c>
+      <c r="AJ41">
+        <v>2824.3</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN41">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="AO41">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AP41">
+        <v>0.5</v>
+      </c>
+      <c r="AQ41">
+        <v>0.65</v>
+      </c>
+      <c r="AR41">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS41">
+        <v>0.8</v>
+      </c>
+      <c r="AT41">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AU41">
+        <v>1.6</v>
+      </c>
+      <c r="AV41">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AW41">
+        <v>4.3</v>
+      </c>
+      <c r="AX41">
+        <v>0.48</v>
+      </c>
+      <c r="AY41">
+        <v>5.2</v>
+      </c>
+      <c r="AZ41">
+        <v>15123</v>
+      </c>
+      <c r="BA41">
+        <v>29</v>
+      </c>
+      <c r="BB41">
+        <v>1.32</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD41" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>329</v>
+      </c>
+      <c r="B42" t="s">
+        <v>330</v>
+      </c>
+      <c r="C42" t="s">
+        <v>334</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>150</v>
+      </c>
+      <c r="F42">
+        <v>75</v>
+      </c>
+      <c r="G42">
+        <v>61.9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" t="s">
+        <v>115</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="K42">
+        <v>2.93</v>
+      </c>
+      <c r="L42">
+        <v>0.46</v>
+      </c>
+      <c r="M42">
+        <v>0.3</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="O42" s="4">
+        <v>13</v>
+      </c>
+      <c r="P42" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>115</v>
+      </c>
+      <c r="R42">
+        <v>3.9</v>
+      </c>
+      <c r="S42" t="s">
+        <v>115</v>
+      </c>
+      <c r="T42" t="s">
+        <v>115</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42" t="s">
+        <v>115</v>
+      </c>
+      <c r="W42" t="s">
+        <v>115</v>
+      </c>
+      <c r="X42">
+        <v>33.9</v>
+      </c>
+      <c r="Y42">
+        <v>25.3</v>
+      </c>
+      <c r="Z42">
+        <v>45.5</v>
+      </c>
+      <c r="AA42">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AB42">
+        <v>33.1</v>
+      </c>
+      <c r="AC42">
+        <v>46.3</v>
+      </c>
+      <c r="AD42">
+        <v>61.9</v>
+      </c>
+      <c r="AE42">
+        <v>3992.9</v>
+      </c>
+      <c r="AF42">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="AG42">
+        <v>2.9558300000000002</v>
+      </c>
+      <c r="AH42">
+        <v>3993</v>
+      </c>
+      <c r="AI42">
+        <v>114.6</v>
+      </c>
+      <c r="AJ42">
+        <v>716.5</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN42">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="AO42">
+        <v>24.8</v>
+      </c>
+      <c r="AP42">
+        <v>0.5</v>
+      </c>
+      <c r="AQ42">
+        <v>0.65</v>
+      </c>
+      <c r="AR42">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS42">
+        <v>0.85</v>
+      </c>
+      <c r="AT42">
+        <v>0.64</v>
+      </c>
+      <c r="AU42">
+        <v>1.7</v>
+      </c>
+      <c r="AV42">
+        <v>24.8</v>
+      </c>
+      <c r="AW42">
+        <v>3.1</v>
+      </c>
+      <c r="AX42">
+        <v>0.33</v>
+      </c>
+      <c r="AY42">
+        <v>5.9</v>
+      </c>
+      <c r="AZ42">
+        <v>3992.9</v>
+      </c>
+      <c r="BA42">
+        <v>26</v>
+      </c>
+      <c r="BB42">
+        <v>1.32</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD42" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>336</v>
+      </c>
+      <c r="B43" t="s">
+        <v>337</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>25</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H43" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" t="s">
+        <v>115</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1.66</v>
+      </c>
+      <c r="K43">
+        <v>3.25</v>
+      </c>
+      <c r="L43">
+        <v>2.57</v>
+      </c>
+      <c r="M43">
+        <v>1.7</v>
+      </c>
+      <c r="N43" s="3">
+        <v>3.88</v>
+      </c>
+      <c r="O43" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="P43" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>115</v>
+      </c>
+      <c r="R43">
+        <v>0.6</v>
+      </c>
+      <c r="S43" t="s">
+        <v>115</v>
+      </c>
+      <c r="T43" t="s">
+        <v>115</v>
+      </c>
+      <c r="U43">
+        <v>0.4</v>
+      </c>
+      <c r="V43" t="s">
+        <v>115</v>
+      </c>
+      <c r="W43" t="s">
+        <v>115</v>
+      </c>
+      <c r="X43">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>14.3</v>
+      </c>
+      <c r="Z43">
+        <v>25.6</v>
+      </c>
+      <c r="AA43">
+        <v>21.6</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD43">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AE43">
+        <v>608.4</v>
+      </c>
+      <c r="AF43">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="AG43">
+        <v>3</v>
+      </c>
+      <c r="AH43">
+        <v>609</v>
+      </c>
+      <c r="AI43">
+        <v>16.5</v>
+      </c>
+      <c r="AJ43">
+        <v>103.2</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN43">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="AO43">
+        <v>13.1</v>
+      </c>
+      <c r="AP43">
+        <v>0.5</v>
+      </c>
+      <c r="AQ43">
+        <v>0.61</v>
+      </c>
+      <c r="AR43">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AS43">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="AT43">
+        <v>3.14</v>
+      </c>
+      <c r="AU43">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="AV43">
+        <v>13.1</v>
+      </c>
+      <c r="AW43">
+        <v>2.7</v>
+      </c>
+      <c r="AX43">
+        <v>0.3</v>
+      </c>
+      <c r="AY43">
+        <v>24.5</v>
+      </c>
+      <c r="AZ43">
+        <v>608.4</v>
+      </c>
+      <c r="BA43">
+        <v>28.5</v>
+      </c>
+      <c r="BB43">
+        <v>1.32</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD43" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>343</v>
+      </c>
+      <c r="B44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>120</v>
+      </c>
+      <c r="F44">
+        <v>150</v>
+      </c>
+      <c r="G44">
+        <v>105</v>
+      </c>
+      <c r="H44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44" t="s">
+        <v>115</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="K44">
+        <v>3.31</v>
+      </c>
+      <c r="L44">
+        <v>0.37</v>
+      </c>
+      <c r="M44">
+        <v>0.25</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O44" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="P44" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>115</v>
+      </c>
+      <c r="R44">
+        <v>4.8</v>
+      </c>
+      <c r="S44" t="s">
+        <v>115</v>
+      </c>
+      <c r="T44" t="s">
+        <v>115</v>
+      </c>
+      <c r="U44">
+        <v>3.2</v>
+      </c>
+      <c r="V44" t="s">
+        <v>115</v>
+      </c>
+      <c r="W44" t="s">
+        <v>115</v>
+      </c>
+      <c r="X44">
+        <v>54.6</v>
+      </c>
+      <c r="Y44">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="Z44">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AA44">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="AB44">
+        <v>57.4</v>
+      </c>
+      <c r="AC44">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AD44">
+        <v>105</v>
+      </c>
+      <c r="AE44">
+        <v>15701.7</v>
+      </c>
+      <c r="AF44">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AG44">
+        <v>2.8442599999999998</v>
+      </c>
+      <c r="AH44">
+        <v>15702</v>
+      </c>
+      <c r="AI44">
+        <v>469.7</v>
+      </c>
+      <c r="AJ44">
+        <v>2935.7</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN44">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="AO44">
+        <v>42</v>
+      </c>
+      <c r="AP44">
+        <v>0.5</v>
+      </c>
+      <c r="AQ44">
+        <v>0.64</v>
+      </c>
+      <c r="AR44">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS44">
+        <v>0.66</v>
+      </c>
+      <c r="AT44">
+        <v>0.49</v>
+      </c>
+      <c r="AU44">
+        <v>1.32</v>
+      </c>
+      <c r="AV44">
+        <v>42</v>
+      </c>
+      <c r="AW44">
+        <v>3.6</v>
+      </c>
+      <c r="AX44">
+        <v>0.49</v>
+      </c>
+      <c r="AY44">
+        <v>4.7</v>
+      </c>
+      <c r="AZ44">
+        <v>15701.7</v>
+      </c>
+      <c r="BA44">
+        <v>27</v>
+      </c>
+      <c r="BB44">
+        <v>1.32</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD44" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>347</v>
+      </c>
+      <c r="B45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>200</v>
+      </c>
+      <c r="F45">
+        <v>130</v>
+      </c>
+      <c r="G45">
+        <v>93.6</v>
+      </c>
+      <c r="H45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I45" t="s">
+        <v>115</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="K45">
+        <v>3.22</v>
+      </c>
+      <c r="L45">
+        <v>0.33</v>
+      </c>
+      <c r="M45">
+        <v>0.22</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O45" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>115</v>
+      </c>
+      <c r="R45">
+        <v>4.8</v>
+      </c>
+      <c r="S45" t="s">
+        <v>115</v>
+      </c>
+      <c r="T45" t="s">
+        <v>115</v>
+      </c>
+      <c r="U45">
+        <v>3.3</v>
+      </c>
+      <c r="V45" t="s">
+        <v>115</v>
+      </c>
+      <c r="W45" t="s">
+        <v>115</v>
+      </c>
+      <c r="X45">
+        <v>49.2</v>
+      </c>
+      <c r="Y45">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="Z45">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="AA45">
+        <v>60.3</v>
+      </c>
+      <c r="AB45">
+        <v>50.9</v>
+      </c>
+      <c r="AC45">
+        <v>71.3</v>
+      </c>
+      <c r="AD45">
+        <v>93.6</v>
+      </c>
+      <c r="AE45">
+        <v>6345</v>
+      </c>
+      <c r="AF45">
+        <v>1.11E-2</v>
+      </c>
+      <c r="AG45">
+        <v>2.9205000000000001</v>
+      </c>
+      <c r="AH45">
+        <v>6346</v>
+      </c>
+      <c r="AI45">
+        <v>184.7</v>
+      </c>
+      <c r="AJ45">
+        <v>1154.5</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN45">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="AO45">
+        <v>37.4</v>
+      </c>
+      <c r="AP45">
+        <v>0.5</v>
+      </c>
+      <c r="AQ45">
+        <v>0.62</v>
+      </c>
+      <c r="AR45">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AS45">
+        <v>0.54</v>
+      </c>
+      <c r="AT45">
+        <v>0.4</v>
+      </c>
+      <c r="AU45">
+        <v>1.08</v>
+      </c>
+      <c r="AV45">
+        <v>37.4</v>
+      </c>
+      <c r="AW45">
+        <v>4.5</v>
+      </c>
+      <c r="AX45">
+        <v>0.3</v>
+      </c>
+      <c r="AY45">
+        <v>5.2</v>
+      </c>
+      <c r="AZ45">
+        <v>6345</v>
+      </c>
+      <c r="BA45">
+        <v>21</v>
+      </c>
+      <c r="BB45">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD45" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B46" t="s">
+        <v>354</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <v>120</v>
+      </c>
+      <c r="G46">
+        <v>93</v>
+      </c>
+      <c r="H46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" t="s">
+        <v>115</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="K46">
+        <v>3.16</v>
+      </c>
+      <c r="L46">
+        <v>0.32</v>
+      </c>
+      <c r="M46">
+        <v>0.21</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="O46" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="P46" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>115</v>
+      </c>
+      <c r="R46">
+        <v>5.3</v>
+      </c>
+      <c r="S46" t="s">
+        <v>115</v>
+      </c>
+      <c r="T46" t="s">
+        <v>115</v>
+      </c>
+      <c r="U46">
+        <v>3.7</v>
+      </c>
+      <c r="V46" t="s">
+        <v>115</v>
+      </c>
+      <c r="W46" t="s">
+        <v>115</v>
+      </c>
+      <c r="X46">
+        <v>48.9</v>
+      </c>
+      <c r="Y46">
+        <v>36.5</v>
+      </c>
+      <c r="Z46">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="AA46">
+        <v>59.9</v>
+      </c>
+      <c r="AB46">
+        <v>50.6</v>
+      </c>
+      <c r="AC46">
+        <v>70.8</v>
+      </c>
+      <c r="AD46">
+        <v>93</v>
+      </c>
+      <c r="AE46">
+        <v>22.1</v>
+      </c>
+      <c r="AF46">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="AG46">
+        <v>3.0529999999999999</v>
+      </c>
+      <c r="AH46">
+        <v>22092</v>
+      </c>
+      <c r="AI46">
+        <v>667.7</v>
+      </c>
+      <c r="AJ46">
+        <v>4172.8999999999996</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN46">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="AO46">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AP46">
+        <v>0.5</v>
+      </c>
+      <c r="AQ46">
+        <v>0.63</v>
+      </c>
+      <c r="AR46">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS46">
+        <v>0.54</v>
+      </c>
+      <c r="AT46">
+        <v>0.42</v>
+      </c>
+      <c r="AU46">
+        <v>1.08</v>
+      </c>
+      <c r="AV46">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AW46">
+        <v>4</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY46">
+        <v>3.7</v>
+      </c>
+      <c r="AZ46">
+        <v>22091.9</v>
+      </c>
+      <c r="BA46">
+        <v>23.5</v>
+      </c>
+      <c r="BB46">
+        <v>1.32</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD46" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>360</v>
+      </c>
+      <c r="B47" t="s">
+        <v>361</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>178</v>
+      </c>
+      <c r="F47">
+        <v>25</v>
+      </c>
+      <c r="G47">
+        <v>26.3</v>
+      </c>
+      <c r="H47" t="s">
+        <v>115</v>
+      </c>
+      <c r="I47" t="s">
+        <v>115</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="K47" t="s">
+        <v>115</v>
+      </c>
+      <c r="L47">
+        <v>1.07</v>
+      </c>
+      <c r="M47">
+        <v>0.71</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="O47" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="P47">
+        <v>0.5</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>1.5</v>
+      </c>
+      <c r="S47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T47">
+        <v>2.1</v>
+      </c>
+      <c r="U47">
+        <v>1.4</v>
+      </c>
+      <c r="V47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W47">
+        <v>1.8</v>
+      </c>
+      <c r="X47">
+        <v>15.7</v>
+      </c>
+      <c r="Y47">
+        <v>11.7</v>
+      </c>
+      <c r="Z47">
+        <v>21.1</v>
+      </c>
+      <c r="AA47">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AB47">
+        <v>13.6</v>
+      </c>
+      <c r="AC47">
+        <v>19</v>
+      </c>
+      <c r="AD47">
+        <v>26.3</v>
+      </c>
+      <c r="AE47">
+        <v>635</v>
+      </c>
+      <c r="AF47">
+        <v>2.47E-2</v>
+      </c>
+      <c r="AG47">
+        <v>3.1057999999999999</v>
+      </c>
+      <c r="AH47">
+        <v>635</v>
+      </c>
+      <c r="AI47">
+        <v>17.3</v>
+      </c>
+      <c r="AJ47">
+        <v>107.8</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN47">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="AO47">
+        <v>0.5</v>
+      </c>
+      <c r="AP47">
+        <v>0.5</v>
+      </c>
+      <c r="AQ47">
+        <v>0.64</v>
+      </c>
+      <c r="AR47">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS47">
+        <v>1.9</v>
+      </c>
+      <c r="AT47">
+        <v>1.44</v>
+      </c>
+      <c r="AU47">
+        <v>3.8</v>
+      </c>
+      <c r="AV47">
+        <v>10.5</v>
+      </c>
+      <c r="AW47">
+        <v>3.5</v>
+      </c>
+      <c r="AX47">
+        <v>0.41</v>
+      </c>
+      <c r="AY47">
+        <v>8.1</v>
+      </c>
+      <c r="AZ47">
+        <v>635</v>
+      </c>
+      <c r="BA47">
+        <v>25</v>
+      </c>
+      <c r="BB47">
+        <v>1.32</v>
+      </c>
+      <c r="BC47" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD47" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>365</v>
+      </c>
+      <c r="B48" t="s">
+        <v>366</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
+      </c>
+      <c r="F48">
+        <v>45</v>
+      </c>
+      <c r="G48">
+        <v>46.9</v>
+      </c>
+      <c r="H48" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" t="s">
+        <v>115</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="K48" t="s">
+        <v>115</v>
+      </c>
+      <c r="L48">
+        <v>0.43</v>
+      </c>
+      <c r="M48">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="O48" s="4">
+        <v>15</v>
+      </c>
+      <c r="P48">
+        <v>1.3</v>
+      </c>
+      <c r="Q48">
+        <v>2.9</v>
+      </c>
+      <c r="R48">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S48">
+        <v>3.2</v>
+      </c>
+      <c r="T48">
+        <v>6.3</v>
+      </c>
+      <c r="U48">
+        <v>3.6</v>
+      </c>
+      <c r="V48">
+        <v>2.9</v>
+      </c>
+      <c r="W48">
+        <v>4.5</v>
+      </c>
+      <c r="X48">
+        <v>26.5</v>
+      </c>
+      <c r="Y48">
+        <v>19.8</v>
+      </c>
+      <c r="Z48">
+        <v>35.4</v>
+      </c>
+      <c r="AA48">
+        <v>29.3</v>
+      </c>
+      <c r="AB48">
+        <v>24.8</v>
+      </c>
+      <c r="AC48">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AD48">
+        <v>46.9</v>
+      </c>
+      <c r="AE48">
+        <v>1872</v>
+      </c>
+      <c r="AF48">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="AG48">
+        <v>2.88</v>
+      </c>
+      <c r="AH48">
+        <v>1872</v>
+      </c>
+      <c r="AI48">
+        <v>52.5</v>
+      </c>
+      <c r="AJ48">
+        <v>328.4</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN48">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="AO48">
+        <v>18.8</v>
+      </c>
+      <c r="AP48">
+        <v>0.5</v>
+      </c>
+      <c r="AQ48">
+        <v>0.67</v>
+      </c>
+      <c r="AR48">
+        <v>0.6</v>
+      </c>
+      <c r="AS48">
+        <v>0.87</v>
+      </c>
+      <c r="AT48">
+        <v>0.63</v>
+      </c>
+      <c r="AU48">
+        <v>1.74</v>
+      </c>
+      <c r="AV48">
+        <v>18.8</v>
+      </c>
+      <c r="AW48">
+        <v>3.5</v>
+      </c>
+      <c r="AX48">
+        <v>0.52</v>
+      </c>
+      <c r="AY48">
+        <v>6.5</v>
+      </c>
+      <c r="AZ48">
+        <v>1872.3</v>
+      </c>
+      <c r="BA48">
+        <v>25</v>
+      </c>
+      <c r="BB48">
+        <v>1.32</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD48" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>370</v>
+      </c>
+      <c r="B49" t="s">
+        <v>371</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>25</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+      <c r="G49">
+        <v>31.5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>115</v>
+      </c>
+      <c r="I49" t="s">
+        <v>115</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="K49" t="s">
+        <v>115</v>
+      </c>
+      <c r="L49">
+        <v>0.65</v>
+      </c>
+      <c r="M49">
+        <v>0.43</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="O49" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="P49">
+        <v>0.9</v>
+      </c>
+      <c r="Q49">
+        <v>2.1</v>
+      </c>
+      <c r="R49">
+        <v>2.9</v>
+      </c>
+      <c r="S49">
+        <v>2.1</v>
+      </c>
+      <c r="T49">
+        <v>4.2</v>
+      </c>
+      <c r="U49">
+        <v>2.7</v>
+      </c>
+      <c r="V49">
+        <v>2.1</v>
+      </c>
+      <c r="W49">
+        <v>3.4</v>
+      </c>
+      <c r="X49">
+        <v>18.5</v>
+      </c>
+      <c r="Y49">
+        <v>13.8</v>
+      </c>
+      <c r="Z49">
+        <v>24.8</v>
+      </c>
+      <c r="AA49">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AB49">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AC49">
+        <v>22.9</v>
+      </c>
+      <c r="AD49">
+        <v>31.5</v>
+      </c>
+      <c r="AE49">
+        <v>806</v>
+      </c>
+      <c r="AF49">
+        <v>3.78E-2</v>
+      </c>
+      <c r="AG49">
+        <v>2.8889999999999998</v>
+      </c>
+      <c r="AH49">
+        <v>805</v>
+      </c>
+      <c r="AI49">
+        <v>22</v>
+      </c>
+      <c r="AJ49">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN49">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="AO49">
+        <v>12.6</v>
+      </c>
+      <c r="AP49">
+        <v>0.5</v>
+      </c>
+      <c r="AQ49">
+        <v>0.68</v>
+      </c>
+      <c r="AR49">
+        <v>0.61</v>
+      </c>
+      <c r="AS49">
+        <v>1.38</v>
+      </c>
+      <c r="AT49">
+        <v>1</v>
+      </c>
+      <c r="AU49">
+        <v>2.76</v>
+      </c>
+      <c r="AV49">
+        <v>12.6</v>
+      </c>
+      <c r="AW49">
+        <v>3.3</v>
+      </c>
+      <c r="AX49">
+        <v>0.4</v>
+      </c>
+      <c r="AY49">
+        <v>8.6</v>
+      </c>
+      <c r="AZ49">
+        <v>805.6</v>
+      </c>
+      <c r="BA49">
+        <v>27</v>
+      </c>
+      <c r="BB49">
+        <v>1.32</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD49" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>375</v>
+      </c>
+      <c r="B50" t="s">
+        <v>376</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>80</v>
+      </c>
+      <c r="F50">
+        <v>97</v>
+      </c>
+      <c r="G50">
+        <v>99.4</v>
+      </c>
+      <c r="H50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I50" t="s">
+        <v>115</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="K50">
+        <v>3.06</v>
+      </c>
+      <c r="L50">
+        <v>0.27</v>
+      </c>
+      <c r="M50">
+        <v>0.18</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="O50" s="4">
+        <v>24</v>
+      </c>
+      <c r="P50" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>115</v>
+      </c>
+      <c r="R50">
+        <v>7.6</v>
+      </c>
+      <c r="S50" t="s">
+        <v>115</v>
+      </c>
+      <c r="T50" t="s">
+        <v>115</v>
+      </c>
+      <c r="U50">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V50" t="s">
+        <v>115</v>
+      </c>
+      <c r="W50" t="s">
+        <v>115</v>
+      </c>
+      <c r="X50">
+        <v>51.9</v>
+      </c>
+      <c r="Y50">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="Z50">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AA50">
+        <v>64.2</v>
+      </c>
+      <c r="AB50">
+        <v>54.2</v>
+      </c>
+      <c r="AC50">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="AD50">
+        <v>99.4</v>
+      </c>
+      <c r="AE50">
+        <v>11218.2</v>
+      </c>
+      <c r="AF50">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AG50">
+        <v>2.7330000000000001</v>
+      </c>
+      <c r="AH50">
+        <v>11219</v>
+      </c>
+      <c r="AI50">
+        <v>332.2</v>
+      </c>
+      <c r="AJ50">
+        <v>2076.3000000000002</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN50">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AO50">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="AP50">
+        <v>0.5</v>
+      </c>
+      <c r="AQ50">
+        <v>0.67</v>
+      </c>
+      <c r="AR50">
+        <v>0.59</v>
+      </c>
+      <c r="AS50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AT50">
+        <v>0.39</v>
+      </c>
+      <c r="AU50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AV50">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="AW50">
+        <v>4.2</v>
+      </c>
+      <c r="AX50">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AY50">
+        <v>3.9</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>115</v>
+      </c>
+      <c r="BC50" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD50" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>379</v>
+      </c>
+      <c r="B51" t="s">
+        <v>380</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>19</v>
+      </c>
+      <c r="G51">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H51" t="s">
+        <v>115</v>
+      </c>
+      <c r="I51" t="s">
+        <v>115</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="K51" t="s">
+        <v>115</v>
+      </c>
+      <c r="L51">
+        <v>0.87</v>
+      </c>
+      <c r="M51">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="O51" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="P51">
+        <v>0.6</v>
+      </c>
+      <c r="Q51">
+        <v>1.5</v>
+      </c>
+      <c r="R51">
+        <v>2.9</v>
+      </c>
+      <c r="S51" t="s">
+        <v>115</v>
+      </c>
+      <c r="T51" t="s">
+        <v>115</v>
+      </c>
+      <c r="U51">
+        <v>2.1</v>
+      </c>
+      <c r="V51">
+        <v>1.6</v>
+      </c>
+      <c r="W51">
+        <v>2.7</v>
+      </c>
+      <c r="X51">
+        <v>12.4</v>
+      </c>
+      <c r="Y51">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Z51">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AA51">
+        <v>12.1</v>
+      </c>
+      <c r="AB51">
+        <v>10.3</v>
+      </c>
+      <c r="AC51">
+        <v>14.4</v>
+      </c>
+      <c r="AD51">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AE51">
+        <v>273</v>
+      </c>
+      <c r="AF51">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="AG51">
+        <v>3.1519699999999999</v>
+      </c>
+      <c r="AH51">
+        <v>272</v>
+      </c>
+      <c r="AI51">
+        <v>7.2</v>
+      </c>
+      <c r="AJ51">
+        <v>45.2</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN51">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="AO51">
+        <v>8</v>
+      </c>
+      <c r="AP51">
+        <v>0.5</v>
+      </c>
+      <c r="AQ51">
+        <v>0.68</v>
+      </c>
+      <c r="AR51">
+        <v>0.59</v>
+      </c>
+      <c r="AS51">
+        <v>1.85</v>
+      </c>
+      <c r="AT51">
+        <v>1.27</v>
+      </c>
+      <c r="AU51">
+        <v>3.7</v>
+      </c>
+      <c r="AV51">
+        <v>8</v>
+      </c>
+      <c r="AW51">
+        <v>2.7</v>
+      </c>
+      <c r="AX51">
+        <v>0.3</v>
+      </c>
+      <c r="AY51">
+        <v>33</v>
+      </c>
+      <c r="AZ51">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="BA51">
+        <v>25</v>
+      </c>
+      <c r="BB51">
+        <v>1.32</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD51" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>384</v>
+      </c>
+      <c r="B52" t="s">
+        <v>385</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
+      </c>
+      <c r="F52">
+        <v>47.5</v>
+      </c>
+      <c r="G52">
+        <v>49.4</v>
+      </c>
+      <c r="H52" t="s">
+        <v>115</v>
+      </c>
+      <c r="I52" t="s">
+        <v>115</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="K52" t="s">
+        <v>115</v>
+      </c>
+      <c r="L52">
+        <v>0.51</v>
+      </c>
+      <c r="M52">
+        <v>0.34</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="O52" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="P52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q52">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R52">
+        <v>3.5</v>
+      </c>
+      <c r="S52">
+        <v>2.5</v>
+      </c>
+      <c r="T52">
+        <v>5</v>
+      </c>
+      <c r="U52">
+        <v>2.8</v>
+      </c>
+      <c r="V52">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W52">
+        <v>3.6</v>
+      </c>
+      <c r="X52">
+        <v>27.7</v>
+      </c>
+      <c r="Y52">
+        <v>20.7</v>
+      </c>
+      <c r="Z52">
+        <v>37.1</v>
+      </c>
+      <c r="AA52">
+        <v>31</v>
+      </c>
+      <c r="AB52">
+        <v>26.2</v>
+      </c>
+      <c r="AC52">
+        <v>36.6</v>
+      </c>
+      <c r="AD52">
+        <v>49.4</v>
+      </c>
+      <c r="AE52">
+        <v>1905</v>
+      </c>
+      <c r="AF52">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="AG52">
+        <v>3.3460000000000001</v>
+      </c>
+      <c r="AH52">
+        <v>1905</v>
+      </c>
+      <c r="AI52">
+        <v>53.5</v>
+      </c>
+      <c r="AJ52">
+        <v>334.4</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN52">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="AO52">
+        <v>19.8</v>
+      </c>
+      <c r="AP52">
+        <v>0.5</v>
+      </c>
+      <c r="AQ52">
+        <v>0.66</v>
+      </c>
+      <c r="AR52">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS52">
+        <v>0.99</v>
+      </c>
+      <c r="AT52">
+        <v>0.72</v>
+      </c>
+      <c r="AU52">
+        <v>1.98</v>
+      </c>
+      <c r="AV52">
+        <v>19.8</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY52">
+        <v>6.5</v>
+      </c>
+      <c r="AZ52">
+        <v>1905.4</v>
+      </c>
+      <c r="BA52">
+        <v>25</v>
+      </c>
+      <c r="BB52">
+        <v>1.32</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD52" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>389</v>
+      </c>
+      <c r="B53" t="s">
+        <v>390</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>60</v>
+      </c>
+      <c r="F53">
+        <v>32</v>
+      </c>
+      <c r="G53">
+        <v>28.4</v>
+      </c>
+      <c r="H53" t="s">
+        <v>115</v>
+      </c>
+      <c r="I53" t="s">
+        <v>115</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="K53">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L53">
+        <v>0.81</v>
+      </c>
+      <c r="M53">
+        <v>0.53</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="O53" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="P53" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>115</v>
+      </c>
+      <c r="R53">
+        <v>1.8</v>
+      </c>
+      <c r="S53" t="s">
+        <v>115</v>
+      </c>
+      <c r="T53" t="s">
+        <v>115</v>
+      </c>
+      <c r="U53">
+        <v>1.7</v>
+      </c>
+      <c r="V53" t="s">
+        <v>115</v>
+      </c>
+      <c r="W53" t="s">
+        <v>115</v>
+      </c>
+      <c r="X53">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>12.6</v>
+      </c>
+      <c r="Z53">
+        <v>22.6</v>
+      </c>
+      <c r="AA53">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD53">
+        <v>28.4</v>
+      </c>
+      <c r="AE53">
+        <v>153</v>
+      </c>
+      <c r="AF53">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AG53">
+        <v>3.2391000000000001</v>
+      </c>
+      <c r="AH53">
+        <v>153</v>
+      </c>
+      <c r="AI53">
+        <v>4</v>
+      </c>
+      <c r="AJ53">
+        <v>24.9</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN53">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="AO53">
+        <v>11.4</v>
+      </c>
+      <c r="AP53">
+        <v>0.5</v>
+      </c>
+      <c r="AQ53">
+        <v>0.63</v>
+      </c>
+      <c r="AR53">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS53">
+        <v>1.38</v>
+      </c>
+      <c r="AT53">
+        <v>1.07</v>
+      </c>
+      <c r="AU53">
+        <v>2.76</v>
+      </c>
+      <c r="AV53">
+        <v>11.4</v>
+      </c>
+      <c r="AW53">
+        <v>3.6</v>
+      </c>
+      <c r="AX53">
+        <v>0.3</v>
+      </c>
+      <c r="AY53">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AZ53">
+        <v>153</v>
+      </c>
+      <c r="BA53">
+        <v>19.7</v>
+      </c>
+      <c r="BB53">
+        <v>1.32</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD53" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>395</v>
+      </c>
+      <c r="B54" t="s">
+        <v>396</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
+      </c>
+      <c r="F54">
+        <v>50</v>
+      </c>
+      <c r="G54">
+        <v>52</v>
+      </c>
+      <c r="H54">
+        <v>43.8</v>
+      </c>
+      <c r="I54">
+        <v>61.7</v>
+      </c>
+      <c r="J54" t="s">
+        <v>115</v>
+      </c>
+      <c r="K54" t="s">
+        <v>115</v>
+      </c>
+      <c r="L54" t="s">
+        <v>115</v>
+      </c>
+      <c r="M54" t="s">
+        <v>115</v>
+      </c>
+      <c r="N54" t="s">
+        <v>115</v>
+      </c>
+      <c r="O54" t="s">
+        <v>115</v>
+      </c>
+      <c r="P54" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>115</v>
+      </c>
+      <c r="R54" t="s">
+        <v>115</v>
+      </c>
+      <c r="S54" t="s">
+        <v>115</v>
+      </c>
+      <c r="T54" t="s">
+        <v>115</v>
+      </c>
+      <c r="U54" t="s">
+        <v>115</v>
+      </c>
+      <c r="V54" t="s">
+        <v>115</v>
+      </c>
+      <c r="W54" t="s">
+        <v>115</v>
+      </c>
+      <c r="X54">
+        <v>29</v>
+      </c>
+      <c r="Y54">
+        <v>21.7</v>
+      </c>
+      <c r="Z54">
+        <v>38.9</v>
+      </c>
+      <c r="AA54">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AB54">
+        <v>27.6</v>
+      </c>
+      <c r="AC54">
+        <v>38.6</v>
+      </c>
+      <c r="AD54">
+        <v>52</v>
+      </c>
+      <c r="AE54">
+        <v>679</v>
+      </c>
+      <c r="AF54">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="AG54">
+        <v>3.0815700000000001</v>
+      </c>
+      <c r="AH54">
+        <v>679</v>
+      </c>
+      <c r="AI54">
+        <v>18.5</v>
+      </c>
+      <c r="AJ54">
+        <v>115.6</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO54">
+        <v>20.8</v>
+      </c>
+      <c r="AP54">
+        <v>0.5</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV54">
+        <v>20.8</v>
+      </c>
+      <c r="AW54">
+        <v>3.5</v>
+      </c>
+      <c r="AX54">
+        <v>0.54</v>
+      </c>
+      <c r="AY54">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AZ54">
+        <v>679.3</v>
+      </c>
+      <c r="BA54">
+        <v>25.5</v>
+      </c>
+      <c r="BB54">
+        <v>1.32</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD54" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>400</v>
+      </c>
+      <c r="B55" t="s">
+        <v>401</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>185</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="H55" t="s">
+        <v>115</v>
+      </c>
+      <c r="I55" t="s">
+        <v>115</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K55">
+        <v>3.21</v>
+      </c>
+      <c r="L55">
+        <v>0.51</v>
+      </c>
+      <c r="M55">
+        <v>0.34</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="O55" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="P55" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>115</v>
+      </c>
+      <c r="R55">
+        <v>3.6</v>
+      </c>
+      <c r="S55" t="s">
+        <v>115</v>
+      </c>
+      <c r="T55" t="s">
+        <v>115</v>
+      </c>
+      <c r="U55">
+        <v>2.5</v>
+      </c>
+      <c r="V55" t="s">
+        <v>115</v>
+      </c>
+      <c r="W55" t="s">
+        <v>115</v>
+      </c>
+      <c r="X55">
+        <v>43</v>
+      </c>
+      <c r="Y55">
+        <v>32.1</v>
+      </c>
+      <c r="Z55">
+        <v>57.6</v>
+      </c>
+      <c r="AA55">
+        <v>51.6</v>
+      </c>
+      <c r="AB55">
+        <v>43.6</v>
+      </c>
+      <c r="AC55">
+        <v>61</v>
+      </c>
+      <c r="AD55">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AE55">
+        <v>7991.4</v>
+      </c>
+      <c r="AF55">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="AG55">
+        <v>2.8506399999999998</v>
+      </c>
+      <c r="AH55">
+        <v>7992</v>
+      </c>
+      <c r="AI55">
+        <v>234.3</v>
+      </c>
+      <c r="AJ55">
+        <v>1464.1</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN55">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="AO55">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AP55">
+        <v>0.5</v>
+      </c>
+      <c r="AQ55">
+        <v>0.65</v>
+      </c>
+      <c r="AR55">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS55">
+        <v>0.95</v>
+      </c>
+      <c r="AT55">
+        <v>0.68</v>
+      </c>
+      <c r="AU55">
+        <v>1.9</v>
+      </c>
+      <c r="AV55">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AW55">
+        <v>4</v>
+      </c>
+      <c r="AX55">
+        <v>0.39</v>
+      </c>
+      <c r="AY55">
+        <v>5.9</v>
+      </c>
+      <c r="AZ55">
+        <v>7991.4</v>
+      </c>
+      <c r="BA55">
+        <v>29</v>
+      </c>
+      <c r="BB55">
+        <v>1.32</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD55" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>406</v>
+      </c>
+      <c r="B56" t="s">
+        <v>407</v>
+      </c>
+      <c r="C56" t="s">
+        <v>334</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>150</v>
+      </c>
+      <c r="F56">
+        <v>56.8</v>
+      </c>
+      <c r="G56">
+        <v>48.2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>115</v>
+      </c>
+      <c r="I56" t="s">
+        <v>115</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K56">
+        <v>2.86</v>
+      </c>
+      <c r="L56">
+        <v>0.68</v>
+      </c>
+      <c r="M56">
+        <v>0.45</v>
+      </c>
+      <c r="N56" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="O56" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P56" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>115</v>
+      </c>
+      <c r="R56">
+        <v>2.7</v>
+      </c>
+      <c r="S56" t="s">
+        <v>115</v>
+      </c>
+      <c r="T56" t="s">
+        <v>115</v>
+      </c>
+      <c r="U56">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V56" t="s">
+        <v>115</v>
+      </c>
+      <c r="W56" t="s">
+        <v>115</v>
+      </c>
+      <c r="X56">
+        <v>27.1</v>
+      </c>
+      <c r="Y56">
+        <v>20.2</v>
+      </c>
+      <c r="Z56">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AA56">
+        <v>30.2</v>
+      </c>
+      <c r="AB56">
+        <v>25.5</v>
+      </c>
+      <c r="AC56">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="AD56">
+        <v>48.2</v>
+      </c>
+      <c r="AE56">
+        <v>3976.8</v>
+      </c>
+      <c r="AF56">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="AG56">
+        <v>3.0470000000000002</v>
+      </c>
+      <c r="AH56">
+        <v>3977</v>
+      </c>
+      <c r="AI56">
+        <v>114.2</v>
+      </c>
+      <c r="AJ56">
+        <v>713.5</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN56">
+        <v>2.41E-2</v>
+      </c>
+      <c r="AO56">
+        <v>19.3</v>
+      </c>
+      <c r="AP56">
+        <v>0.5</v>
+      </c>
+      <c r="AQ56">
+        <v>0.66</v>
+      </c>
+      <c r="AR56">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS56">
+        <v>1.32</v>
+      </c>
+      <c r="AT56">
+        <v>0.94</v>
+      </c>
+      <c r="AU56">
+        <v>2.64</v>
+      </c>
+      <c r="AV56">
+        <v>19.3</v>
+      </c>
+      <c r="AW56">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AX56">
+        <v>0.27</v>
+      </c>
+      <c r="AY56">
+        <v>6.9</v>
+      </c>
+      <c r="AZ56">
+        <v>3976.8</v>
+      </c>
+      <c r="BA56">
+        <v>29</v>
+      </c>
+      <c r="BB56">
+        <v>1.32</v>
+      </c>
+      <c r="BC56" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD56" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>411</v>
+      </c>
+      <c r="B57" t="s">
+        <v>412</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>80</v>
+      </c>
+      <c r="F57">
+        <v>30</v>
+      </c>
+      <c r="G57">
+        <v>31.5</v>
+      </c>
+      <c r="H57">
+        <v>26.5</v>
+      </c>
+      <c r="I57">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="J57" t="s">
+        <v>115</v>
+      </c>
+      <c r="K57" t="s">
+        <v>115</v>
+      </c>
+      <c r="L57">
+        <v>0.98</v>
+      </c>
+      <c r="M57">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="O57" t="s">
+        <v>115</v>
+      </c>
+      <c r="P57" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>115</v>
+      </c>
+      <c r="R57" t="s">
+        <v>115</v>
+      </c>
+      <c r="S57" t="s">
+        <v>115</v>
+      </c>
+      <c r="T57" t="s">
+        <v>115</v>
+      </c>
+      <c r="U57" t="s">
+        <v>115</v>
+      </c>
+      <c r="V57" t="s">
+        <v>115</v>
+      </c>
+      <c r="W57" t="s">
+        <v>115</v>
+      </c>
+      <c r="X57">
+        <v>18.5</v>
+      </c>
+      <c r="Y57">
+        <v>13.8</v>
+      </c>
+      <c r="Z57">
+        <v>24.8</v>
+      </c>
+      <c r="AA57">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AB57">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AC57">
+        <v>22.9</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO57">
+        <v>12.6</v>
+      </c>
+      <c r="AP57">
+        <v>0.5</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV57">
+        <v>12.6</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>358</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY57">
+        <v>20.7</v>
+      </c>
+      <c r="AZ57">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="BA57">
+        <v>25</v>
+      </c>
+      <c r="BB57">
+        <v>1.32</v>
+      </c>
+      <c r="BC57" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD57" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>415</v>
+      </c>
+      <c r="B58" t="s">
+        <v>416</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>40</v>
+      </c>
+      <c r="G58">
+        <v>41.7</v>
+      </c>
+      <c r="H58">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="I58">
+        <v>49.5</v>
+      </c>
+      <c r="J58" t="s">
+        <v>115</v>
+      </c>
+      <c r="K58" t="s">
+        <v>115</v>
+      </c>
+      <c r="L58" t="s">
+        <v>115</v>
+      </c>
+      <c r="M58" t="s">
+        <v>115</v>
+      </c>
+      <c r="N58" t="s">
+        <v>115</v>
+      </c>
+      <c r="O58" t="s">
+        <v>115</v>
+      </c>
+      <c r="P58" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>115</v>
+      </c>
+      <c r="R58" t="s">
+        <v>115</v>
+      </c>
+      <c r="S58" t="s">
+        <v>115</v>
+      </c>
+      <c r="T58" t="s">
+        <v>115</v>
+      </c>
+      <c r="U58" t="s">
+        <v>115</v>
+      </c>
+      <c r="V58" t="s">
+        <v>115</v>
+      </c>
+      <c r="W58" t="s">
+        <v>115</v>
+      </c>
+      <c r="X58">
+        <v>23.8</v>
+      </c>
+      <c r="Y58">
+        <v>17.8</v>
+      </c>
+      <c r="Z58">
+        <v>31.9</v>
+      </c>
+      <c r="AA58">
+        <v>26</v>
+      </c>
+      <c r="AB58">
+        <v>21.9</v>
+      </c>
+      <c r="AC58">
+        <v>30.7</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV58">
+        <v>16.7</v>
+      </c>
+      <c r="AW58">
+        <v>2.7</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY58">
+        <v>27</v>
+      </c>
+      <c r="AZ58">
+        <v>725.1</v>
+      </c>
+      <c r="BA58">
+        <v>25</v>
+      </c>
+      <c r="BB58">
+        <v>1.32</v>
+      </c>
+      <c r="BC58" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD58" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>420</v>
+      </c>
+      <c r="B59" t="s">
+        <v>421</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>35</v>
+      </c>
+      <c r="F59">
+        <v>32</v>
+      </c>
+      <c r="G59">
+        <v>33.5</v>
+      </c>
+      <c r="H59" t="s">
+        <v>115</v>
+      </c>
+      <c r="I59" t="s">
+        <v>115</v>
+      </c>
+      <c r="J59">
+        <v>0.25</v>
+      </c>
+      <c r="K59" t="s">
+        <v>115</v>
+      </c>
+      <c r="L59">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M59">
+        <v>0.38</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="O59">
+        <v>11.4</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R59">
+        <v>3.2</v>
+      </c>
+      <c r="S59">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T59">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U59">
+        <v>2.9</v>
+      </c>
+      <c r="V59">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W59">
+        <v>3.7</v>
+      </c>
+      <c r="X59">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>14.6</v>
+      </c>
+      <c r="Z59">
+        <v>26.2</v>
+      </c>
+      <c r="AA59">
+        <v>20.7</v>
+      </c>
+      <c r="AB59">
+        <v>17.5</v>
+      </c>
+      <c r="AC59">
+        <v>24.4</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN59">
+        <v>2.18E-2</v>
+      </c>
+      <c r="AO59">
+        <v>14.3</v>
+      </c>
+      <c r="AP59">
+        <v>0.5</v>
+      </c>
+      <c r="AQ59">
+        <v>0.67</v>
+      </c>
+      <c r="AR59">
+        <v>0.6</v>
+      </c>
+      <c r="AS59">
+        <v>1.18</v>
+      </c>
+      <c r="AT59">
+        <v>0.85</v>
+      </c>
+      <c r="AU59">
+        <v>2.36</v>
+      </c>
+      <c r="AV59">
+        <v>13.4</v>
+      </c>
+      <c r="AW59">
+        <v>3.5</v>
+      </c>
+      <c r="AX59">
+        <v>0.37</v>
+      </c>
+      <c r="AY59">
+        <v>9.1</v>
+      </c>
+      <c r="AZ59">
+        <v>376</v>
+      </c>
+      <c r="BA59">
+        <v>25</v>
+      </c>
+      <c r="BB59">
+        <v>1.32</v>
+      </c>
+      <c r="BC59" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD59" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>424</v>
+      </c>
+      <c r="B60" t="s">
+        <v>425</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>100</v>
+      </c>
+      <c r="F60">
+        <v>60</v>
+      </c>
+      <c r="G60">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H60" t="s">
+        <v>115</v>
+      </c>
+      <c r="I60" t="s">
+        <v>115</v>
+      </c>
+      <c r="J60">
+        <v>0.22</v>
+      </c>
+      <c r="K60">
+        <v>2.38</v>
+      </c>
+      <c r="L60">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M60">
+        <v>0.37</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="O60">
+        <v>12.9</v>
+      </c>
+      <c r="P60" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>115</v>
+      </c>
+      <c r="R60">
+        <v>3.6</v>
+      </c>
+      <c r="S60" t="s">
+        <v>115</v>
+      </c>
+      <c r="T60" t="s">
+        <v>115</v>
+      </c>
+      <c r="U60">
+        <v>3.3</v>
+      </c>
+      <c r="V60" t="s">
+        <v>115</v>
+      </c>
+      <c r="W60" t="s">
+        <v>115</v>
+      </c>
+      <c r="X60">
+        <v>19.2</v>
+      </c>
+      <c r="Y60">
+        <v>14.3</v>
+      </c>
+      <c r="Z60">
+        <v>25.7</v>
+      </c>
+      <c r="AA60">
+        <v>20.2</v>
+      </c>
+      <c r="AB60">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AC60">
+        <v>23.9</v>
+      </c>
+      <c r="AD60">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AE60">
+        <v>639.5</v>
+      </c>
+      <c r="AF60">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="AG60">
+        <v>3.01</v>
+      </c>
+      <c r="AH60">
+        <v>640</v>
+      </c>
+      <c r="AI60">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AJ60">
+        <v>108.6</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN60">
+        <v>1.84E-2</v>
+      </c>
+      <c r="AO60">
+        <v>13.1</v>
+      </c>
+      <c r="AP60">
+        <v>0.5</v>
+      </c>
+      <c r="AQ60">
+        <v>0.7</v>
+      </c>
+      <c r="AR60">
+        <v>0.61</v>
+      </c>
+      <c r="AS60">
+        <v>1.31</v>
+      </c>
+      <c r="AT60">
+        <v>0.88</v>
+      </c>
+      <c r="AU60">
+        <v>2.62</v>
+      </c>
+      <c r="AV60">
+        <v>13.1</v>
+      </c>
+      <c r="AW60">
+        <v>3.4</v>
+      </c>
+      <c r="AX60">
+        <v>0.38</v>
+      </c>
+      <c r="AY60">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AZ60">
+        <v>639.5</v>
+      </c>
+      <c r="BA60">
+        <v>27.5</v>
+      </c>
+      <c r="BB60">
+        <v>1.32</v>
+      </c>
+      <c r="BC60" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD60" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>429</v>
+      </c>
+      <c r="B61" t="s">
+        <v>430</v>
+      </c>
+      <c r="C61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>30</v>
+      </c>
+      <c r="F61">
+        <v>45</v>
+      </c>
+      <c r="G61">
+        <v>46.9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>115</v>
+      </c>
+      <c r="I61" t="s">
+        <v>115</v>
+      </c>
+      <c r="J61">
+        <v>0.39</v>
+      </c>
+      <c r="K61" t="s">
+        <v>115</v>
+      </c>
+      <c r="L61">
+        <v>0.74</v>
+      </c>
+      <c r="M61">
+        <v>0.49</v>
+      </c>
+      <c r="N61" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="O61">
+        <v>7.3</v>
+      </c>
+      <c r="P61">
+        <v>0.6</v>
+      </c>
+      <c r="Q61">
+        <v>1.3</v>
+      </c>
+      <c r="R61">
+        <v>2.1</v>
+      </c>
+      <c r="S61">
+        <v>1.6</v>
+      </c>
+      <c r="T61">
+        <v>3.1</v>
+      </c>
+      <c r="U61">
+        <v>1.8</v>
+      </c>
+      <c r="V61">
+        <v>1.4</v>
+      </c>
+      <c r="W61">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X61">
+        <v>26.5</v>
+      </c>
+      <c r="Y61">
+        <v>19.8</v>
+      </c>
+      <c r="Z61">
+        <v>35.4</v>
+      </c>
+      <c r="AA61">
+        <v>29.3</v>
+      </c>
+      <c r="AB61">
+        <v>24.8</v>
+      </c>
+      <c r="AC61">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AD61">
+        <v>46.9</v>
+      </c>
+      <c r="AE61">
+        <v>2363</v>
+      </c>
+      <c r="AF61">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="AG61">
+        <v>3.09</v>
+      </c>
+      <c r="AH61">
+        <v>2362</v>
+      </c>
+      <c r="AI61">
+        <v>66.8</v>
+      </c>
+      <c r="AJ61">
+        <v>417.4</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN61">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="AO61">
+        <v>18.8</v>
+      </c>
+      <c r="AP61">
+        <v>0.5</v>
+      </c>
+      <c r="AQ61">
+        <v>0.64</v>
+      </c>
+      <c r="AR61">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS61">
+        <v>1.32</v>
+      </c>
+      <c r="AT61">
+        <v>0.97</v>
+      </c>
+      <c r="AU61">
+        <v>2.64</v>
+      </c>
+      <c r="AV61">
+        <v>18.8</v>
+      </c>
+      <c r="AW61">
+        <v>2</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY61">
+        <v>15.6</v>
+      </c>
+      <c r="AZ61">
+        <v>2362.9</v>
+      </c>
+      <c r="BA61">
+        <v>25</v>
+      </c>
+      <c r="BB61">
+        <v>1.32</v>
+      </c>
+      <c r="BC61" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD61" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>434</v>
+      </c>
+      <c r="B62" t="s">
+        <v>435</v>
+      </c>
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>150</v>
+      </c>
+      <c r="F62">
+        <v>20</v>
+      </c>
+      <c r="G62">
+        <v>21.1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62" t="s">
+        <v>115</v>
+      </c>
+      <c r="J62">
+        <v>0.49</v>
+      </c>
+      <c r="K62" t="s">
+        <v>115</v>
+      </c>
+      <c r="L62">
+        <v>1.04</v>
+      </c>
+      <c r="M62">
+        <v>0.69</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="O62">
+        <v>5.8</v>
+      </c>
+      <c r="P62">
+        <v>0.5</v>
+      </c>
+      <c r="Q62">
+        <v>1.2</v>
+      </c>
+      <c r="R62">
+        <v>2.1</v>
+      </c>
+      <c r="S62" t="s">
+        <v>115</v>
+      </c>
+      <c r="T62" t="s">
+        <v>115</v>
+      </c>
+      <c r="U62">
+        <v>1.6</v>
+      </c>
+      <c r="V62">
+        <v>1.2</v>
+      </c>
+      <c r="W62">
+        <v>2</v>
+      </c>
+      <c r="X62">
+        <v>12.9</v>
+      </c>
+      <c r="Y62">
+        <v>9.6</v>
+      </c>
+      <c r="Z62">
+        <v>17.3</v>
+      </c>
+      <c r="AA62">
+        <v>12.8</v>
+      </c>
+      <c r="AB62">
+        <v>10.8</v>
+      </c>
+      <c r="AC62">
+        <v>15.1</v>
+      </c>
+      <c r="AD62">
+        <v>21.1</v>
+      </c>
+      <c r="AE62">
+        <v>192.6</v>
+      </c>
+      <c r="AF62">
+        <v>0.182</v>
+      </c>
+      <c r="AG62">
+        <v>2.2839999999999998</v>
+      </c>
+      <c r="AH62">
+        <v>192</v>
+      </c>
+      <c r="AI62">
+        <v>5</v>
+      </c>
+      <c r="AJ62">
+        <v>31.6</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN62">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="AO62">
+        <v>8.4</v>
+      </c>
+      <c r="AP62">
+        <v>0.5</v>
+      </c>
+      <c r="AQ62">
+        <v>0.65</v>
+      </c>
+      <c r="AR62">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS62">
+        <v>1.93</v>
+      </c>
+      <c r="AT62">
+        <v>1.44</v>
+      </c>
+      <c r="AU62">
+        <v>3.86</v>
+      </c>
+      <c r="AV62">
+        <v>8.4</v>
+      </c>
+      <c r="AW62">
+        <v>3.8</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY62">
+        <v>9.9</v>
+      </c>
+      <c r="AZ62">
+        <v>192.6</v>
+      </c>
+      <c r="BA62">
+        <v>24</v>
+      </c>
+      <c r="BB62">
+        <v>1.32</v>
+      </c>
+      <c r="BC62" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD62" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>438</v>
+      </c>
+      <c r="B63" t="s">
+        <v>439</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>40</v>
+      </c>
+      <c r="F63">
+        <v>40</v>
+      </c>
+      <c r="G63">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="H63" t="s">
+        <v>115</v>
+      </c>
+      <c r="I63" t="s">
+        <v>115</v>
+      </c>
+      <c r="J63">
+        <v>0.75</v>
+      </c>
+      <c r="K63">
+        <v>2.96</v>
+      </c>
+      <c r="L63">
+        <v>1.38</v>
+      </c>
+      <c r="M63">
+        <v>0.91</v>
+      </c>
+      <c r="N63" s="3">
+        <v>2.09</v>
+      </c>
+      <c r="O63">
+        <v>3.8</v>
+      </c>
+      <c r="P63" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>115</v>
+      </c>
+      <c r="R63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S63" t="s">
+        <v>115</v>
+      </c>
+      <c r="T63" t="s">
+        <v>115</v>
+      </c>
+      <c r="U63">
+        <v>0.9</v>
+      </c>
+      <c r="V63" t="s">
+        <v>115</v>
+      </c>
+      <c r="W63" t="s">
+        <v>115</v>
+      </c>
+      <c r="X63">
+        <v>20.2</v>
+      </c>
+      <c r="Y63">
+        <v>15.1</v>
+      </c>
+      <c r="Z63">
+        <v>27.1</v>
+      </c>
+      <c r="AA63">
+        <v>21.6</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD63">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AE63">
+        <v>754.5</v>
+      </c>
+      <c r="AF63">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="AG63">
+        <v>3.0880000000000001</v>
+      </c>
+      <c r="AH63">
+        <v>755</v>
+      </c>
+      <c r="AI63">
+        <v>20.6</v>
+      </c>
+      <c r="AJ63">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN63">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="AO63">
+        <v>13.9</v>
+      </c>
+      <c r="AP63">
+        <v>0.5</v>
+      </c>
+      <c r="AQ63">
+        <v>0.63</v>
+      </c>
+      <c r="AR63">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AS63">
+        <v>2.35</v>
+      </c>
+      <c r="AT63">
+        <v>1.76</v>
+      </c>
+      <c r="AU63">
+        <v>4.7</v>
+      </c>
+      <c r="AV63">
+        <v>13.9</v>
+      </c>
+      <c r="AW63">
+        <v>2</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY63">
+        <v>22.9</v>
+      </c>
+      <c r="AZ63">
+        <v>754.5</v>
+      </c>
+      <c r="BA63">
+        <v>28</v>
+      </c>
+      <c r="BB63">
+        <v>1.32</v>
+      </c>
+      <c r="BC63" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD63" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>443</v>
+      </c>
+      <c r="B64" t="s">
+        <v>444</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>40</v>
+      </c>
+      <c r="F64">
+        <v>31</v>
+      </c>
+      <c r="G64">
+        <v>32.5</v>
+      </c>
+      <c r="H64" t="s">
+        <v>115</v>
+      </c>
+      <c r="I64" t="s">
+        <v>115</v>
+      </c>
+      <c r="J64">
+        <v>0.45</v>
+      </c>
+      <c r="K64" t="s">
+        <v>115</v>
+      </c>
+      <c r="L64">
+        <v>0.92</v>
+      </c>
+      <c r="M64">
+        <v>0.61</v>
+      </c>
+      <c r="N64" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="O64">
+        <v>6.3</v>
+      </c>
+      <c r="P64">
+        <v>0.6</v>
+      </c>
+      <c r="Q64">
+        <v>1.2</v>
+      </c>
+      <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>1.3</v>
+      </c>
+      <c r="T64">
+        <v>2.5</v>
+      </c>
+      <c r="U64">
+        <v>1.6</v>
+      </c>
+      <c r="V64">
+        <v>1.3</v>
+      </c>
+      <c r="W64">
+        <v>2.1</v>
+      </c>
+      <c r="X64">
+        <v>19</v>
+      </c>
+      <c r="Y64">
+        <v>14.2</v>
+      </c>
+      <c r="Z64">
+        <v>25.5</v>
+      </c>
+      <c r="AA64">
+        <v>20</v>
+      </c>
+      <c r="AB64">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AC64">
+        <v>23.7</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN64">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="AO64">
+        <v>13</v>
+      </c>
+      <c r="AP64">
+        <v>0.5</v>
+      </c>
+      <c r="AQ64">
+        <v>0.65</v>
+      </c>
+      <c r="AR64">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS64">
+        <v>1.71</v>
+      </c>
+      <c r="AT64">
+        <v>1.24</v>
+      </c>
+      <c r="AU64">
+        <v>3.42</v>
+      </c>
+      <c r="AV64">
+        <v>13</v>
+      </c>
+      <c r="AW64">
+        <v>2</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY64">
+        <v>24.3</v>
+      </c>
+      <c r="AZ64">
+        <v>343.3</v>
+      </c>
+      <c r="BA64">
+        <v>26</v>
+      </c>
+      <c r="BB64">
+        <v>1.32</v>
+      </c>
+      <c r="BC64" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD64" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>446</v>
+      </c>
+      <c r="B65" t="s">
+        <v>447</v>
+      </c>
+      <c r="C65" t="s">
+        <v>334</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>170</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>64.3</v>
+      </c>
+      <c r="H65" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" t="s">
+        <v>115</v>
+      </c>
+      <c r="J65">
+        <v>0.24</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>0.45</v>
+      </c>
+      <c r="M65">
+        <v>0.3</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="O65">
+        <v>11.9</v>
+      </c>
+      <c r="P65" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>115</v>
+      </c>
+      <c r="R65">
+        <v>3.6</v>
+      </c>
+      <c r="S65" t="s">
+        <v>115</v>
+      </c>
+      <c r="T65" t="s">
+        <v>115</v>
+      </c>
+      <c r="U65">
+        <v>2.7</v>
+      </c>
+      <c r="V65" t="s">
+        <v>115</v>
+      </c>
+      <c r="W65" t="s">
+        <v>115</v>
+      </c>
+      <c r="X65">
+        <v>35.1</v>
+      </c>
+      <c r="Y65">
+        <v>26.2</v>
+      </c>
+      <c r="Z65">
+        <v>47.1</v>
+      </c>
+      <c r="AA65">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="AB65">
+        <v>34.4</v>
+      </c>
+      <c r="AC65">
+        <v>48.2</v>
+      </c>
+      <c r="AD65">
+        <v>64.3</v>
+      </c>
+      <c r="AE65">
+        <v>2550.1</v>
+      </c>
+      <c r="AF65">
+        <v>0.01</v>
+      </c>
+      <c r="AG65">
+        <v>2.99</v>
+      </c>
+      <c r="AH65">
+        <v>2551</v>
+      </c>
+      <c r="AI65">
+        <v>72.2</v>
+      </c>
+      <c r="AJ65">
+        <v>451.5</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN65">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="AO65">
+        <v>25.7</v>
+      </c>
+      <c r="AP65">
+        <v>0.5</v>
+      </c>
+      <c r="AQ65">
+        <v>0.63</v>
+      </c>
+      <c r="AR65">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS65">
+        <v>0.77</v>
+      </c>
+      <c r="AT65">
+        <v>0.6</v>
+      </c>
+      <c r="AU65">
+        <v>1.54</v>
+      </c>
+      <c r="AV65">
+        <v>25.7</v>
+      </c>
+      <c r="AW65">
+        <v>3.7</v>
+      </c>
+      <c r="AX65">
+        <v>0.16</v>
+      </c>
+      <c r="AY65">
+        <v>5.5</v>
+      </c>
+      <c r="AZ65">
+        <v>2550.1</v>
+      </c>
+      <c r="BA65">
+        <v>23</v>
+      </c>
+      <c r="BB65">
+        <v>1.32</v>
+      </c>
+      <c r="BC65" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD65" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>451</v>
+      </c>
+      <c r="B66" t="s">
+        <v>452</v>
+      </c>
+      <c r="C66" t="s">
+        <v>334</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>30</v>
+      </c>
+      <c r="F66">
+        <v>45.3</v>
+      </c>
+      <c r="G66">
+        <v>24.3</v>
+      </c>
+      <c r="H66" t="s">
+        <v>115</v>
+      </c>
+      <c r="I66" t="s">
+        <v>115</v>
+      </c>
+      <c r="J66">
+        <v>0.6</v>
+      </c>
+      <c r="K66">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L66">
+        <v>1.25</v>
+      </c>
+      <c r="M66">
+        <v>0.83</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1.89</v>
+      </c>
+      <c r="O66">
+        <v>4.7</v>
+      </c>
+      <c r="P66" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>115</v>
+      </c>
+      <c r="R66">
+        <v>1.3</v>
+      </c>
+      <c r="S66" t="s">
+        <v>115</v>
+      </c>
+      <c r="T66" t="s">
+        <v>115</v>
+      </c>
+      <c r="U66">
+        <v>1.3</v>
+      </c>
+      <c r="V66" t="s">
+        <v>115</v>
+      </c>
+      <c r="W66" t="s">
+        <v>115</v>
+      </c>
+      <c r="X66">
+        <v>14.7</v>
+      </c>
+      <c r="Y66">
+        <v>10.9</v>
+      </c>
+      <c r="Z66">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AA66">
+        <v>14.8</v>
+      </c>
+      <c r="AB66">
+        <v>12.5</v>
+      </c>
+      <c r="AC66">
+        <v>17.5</v>
+      </c>
+      <c r="AD66">
+        <v>24.3</v>
+      </c>
+      <c r="AE66">
+        <v>384.6</v>
+      </c>
+      <c r="AF66">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="AG66">
+        <v>2.92</v>
+      </c>
+      <c r="AH66">
+        <v>385</v>
+      </c>
+      <c r="AI66">
+        <v>10.3</v>
+      </c>
+      <c r="AJ66">
+        <v>64.3</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN66">
+        <v>2.63E-2</v>
+      </c>
+      <c r="AO66">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AP66">
+        <v>0.5</v>
+      </c>
+      <c r="AQ66">
+        <v>0.65</v>
+      </c>
+      <c r="AR66">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS66">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AT66">
+        <v>1.73</v>
+      </c>
+      <c r="AU66">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="AV66">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AW66">
+        <v>3</v>
+      </c>
+      <c r="AX66">
+        <v>0.4</v>
+      </c>
+      <c r="AY66">
+        <v>34</v>
+      </c>
+      <c r="AZ66">
+        <v>384.6</v>
+      </c>
+      <c r="BA66">
+        <v>27</v>
+      </c>
+      <c r="BB66">
+        <v>1.32</v>
+      </c>
+      <c r="BC66" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD66" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>456</v>
+      </c>
+      <c r="B67" t="s">
+        <v>457</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+      <c r="F67">
+        <v>60</v>
+      </c>
+      <c r="G67">
+        <v>35.5</v>
+      </c>
+      <c r="H67" t="s">
+        <v>115</v>
+      </c>
+      <c r="I67" t="s">
+        <v>115</v>
+      </c>
+      <c r="J67">
+        <v>0.38</v>
+      </c>
+      <c r="K67">
+        <v>2.68</v>
+      </c>
+      <c r="L67">
+        <v>0.83</v>
+      </c>
+      <c r="M67">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N67" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="O67">
+        <v>7.5</v>
+      </c>
+      <c r="P67" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>115</v>
+      </c>
+      <c r="R67">
+        <v>2.1</v>
+      </c>
+      <c r="S67" t="s">
+        <v>115</v>
+      </c>
+      <c r="T67" t="s">
+        <v>115</v>
+      </c>
+      <c r="U67">
+        <v>1.9</v>
+      </c>
+      <c r="V67" t="s">
+        <v>115</v>
+      </c>
+      <c r="W67" t="s">
+        <v>115</v>
+      </c>
+      <c r="X67">
+        <v>20.6</v>
+      </c>
+      <c r="Y67">
+        <v>15.4</v>
+      </c>
+      <c r="Z67">
+        <v>27.6</v>
+      </c>
+      <c r="AA67">
+        <v>21.9</v>
+      </c>
+      <c r="AB67">
+        <v>18.5</v>
+      </c>
+      <c r="AC67">
+        <v>26</v>
+      </c>
+      <c r="AD67">
+        <v>35.5</v>
+      </c>
+      <c r="AE67">
+        <v>848.7</v>
+      </c>
+      <c r="AF67">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="AG67">
+        <v>3.0268299999999999</v>
+      </c>
+      <c r="AH67">
+        <v>849</v>
+      </c>
+      <c r="AI67">
+        <v>23.3</v>
+      </c>
+      <c r="AJ67">
+        <v>145.4</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN67">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="AO67">
+        <v>14.2</v>
+      </c>
+      <c r="AP67">
+        <v>0.5</v>
+      </c>
+      <c r="AQ67">
+        <v>0.66</v>
+      </c>
+      <c r="AR67">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS67">
+        <v>1.61</v>
+      </c>
+      <c r="AT67">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AU67">
+        <v>3.22</v>
+      </c>
+      <c r="AV67">
+        <v>14.2</v>
+      </c>
+      <c r="AW67">
+        <v>3.9</v>
+      </c>
+      <c r="AX67">
+        <v>0.24</v>
+      </c>
+      <c r="AY67">
+        <v>8.9</v>
+      </c>
+      <c r="AZ67">
+        <v>838.7</v>
+      </c>
+      <c r="BA67">
+        <v>28</v>
+      </c>
+      <c r="BB67">
+        <v>1.32</v>
+      </c>
+      <c r="BC67" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD67" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="68" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>461</v>
+      </c>
+      <c r="B68" t="s">
+        <v>462</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>50</v>
+      </c>
+      <c r="F68">
+        <v>30</v>
+      </c>
+      <c r="G68">
+        <v>31.5</v>
+      </c>
+      <c r="H68" t="s">
+        <v>115</v>
+      </c>
+      <c r="I68" t="s">
+        <v>115</v>
+      </c>
+      <c r="J68">
+        <v>0.36</v>
+      </c>
+      <c r="K68" t="s">
+        <v>115</v>
+      </c>
+      <c r="L68">
+        <v>0.77</v>
+      </c>
+      <c r="M68">
+        <v>0.51</v>
+      </c>
+      <c r="N68" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="O68">
+        <v>7.9</v>
+      </c>
+      <c r="P68">
+        <v>0.7</v>
+      </c>
+      <c r="Q68">
+        <v>1.5</v>
+      </c>
+      <c r="R68">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S68">
+        <v>1.6</v>
+      </c>
+      <c r="T68">
+        <v>3.2</v>
+      </c>
+      <c r="U68">
+        <v>2</v>
+      </c>
+      <c r="V68">
+        <v>1.6</v>
+      </c>
+      <c r="W68">
+        <v>2.6</v>
+      </c>
+      <c r="X68">
+        <v>18.5</v>
+      </c>
+      <c r="Y68">
+        <v>13.8</v>
+      </c>
+      <c r="Z68">
+        <v>24.8</v>
+      </c>
+      <c r="AA68">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AB68">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AC68">
+        <v>22.9</v>
+      </c>
+      <c r="AD68">
+        <v>31.5</v>
+      </c>
+      <c r="AE68">
+        <v>1497</v>
+      </c>
+      <c r="AF68">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="AG68">
+        <v>3</v>
+      </c>
+      <c r="AH68">
+        <v>1497</v>
+      </c>
+      <c r="AI68">
+        <v>41.7</v>
+      </c>
+      <c r="AJ68">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN68">
+        <v>2.52E-2</v>
+      </c>
+      <c r="AO68">
+        <v>12.6</v>
+      </c>
+      <c r="AP68">
+        <v>0.5</v>
+      </c>
+      <c r="AQ68">
+        <v>0.66</v>
+      </c>
+      <c r="AR68">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS68">
+        <v>1.49</v>
+      </c>
+      <c r="AT68">
+        <v>1.08</v>
+      </c>
+      <c r="AU68">
+        <v>2.98</v>
+      </c>
+      <c r="AV68">
+        <v>12.6</v>
+      </c>
+      <c r="AW68">
+        <v>3.4</v>
+      </c>
+      <c r="AX68">
+        <v>0.42</v>
+      </c>
+      <c r="AY68">
+        <v>6.8</v>
+      </c>
+      <c r="AZ68">
+        <v>1497.2</v>
+      </c>
+      <c r="BA68">
+        <v>25</v>
+      </c>
+      <c r="BB68">
+        <v>1.32</v>
+      </c>
+      <c r="BC68" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD68" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="69" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>467</v>
+      </c>
+      <c r="B69" t="s">
+        <v>468</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>159</v>
+      </c>
+      <c r="F69">
+        <v>30</v>
+      </c>
+      <c r="G69">
+        <v>31.5</v>
+      </c>
+      <c r="H69" t="s">
+        <v>115</v>
+      </c>
+      <c r="I69" t="s">
+        <v>115</v>
+      </c>
+      <c r="J69">
+        <v>0.61</v>
+      </c>
+      <c r="K69" t="s">
+        <v>115</v>
+      </c>
+      <c r="L69">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M69">
+        <v>0.75</v>
+      </c>
+      <c r="N69" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="O69">
+        <v>4.7</v>
+      </c>
+      <c r="P69">
+        <v>0.4</v>
+      </c>
+      <c r="Q69">
+        <v>0.9</v>
+      </c>
+      <c r="R69">
+        <v>1.3</v>
+      </c>
+      <c r="S69">
+        <v>0.9</v>
+      </c>
+      <c r="T69">
+        <v>1.9</v>
+      </c>
+      <c r="U69">
+        <v>1.2</v>
+      </c>
+      <c r="V69">
+        <v>0.9</v>
+      </c>
+      <c r="W69">
+        <v>1.5</v>
+      </c>
+      <c r="X69">
+        <v>18.5</v>
+      </c>
+      <c r="Y69">
+        <v>13.8</v>
+      </c>
+      <c r="Z69">
+        <v>24.8</v>
+      </c>
+      <c r="AA69">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AB69">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AC69">
+        <v>22.9</v>
+      </c>
+      <c r="AD69">
+        <v>31.5</v>
+      </c>
+      <c r="AE69">
+        <v>867</v>
+      </c>
+      <c r="AF69">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="AG69">
+        <v>2.988</v>
+      </c>
+      <c r="AH69">
+        <v>866</v>
+      </c>
+      <c r="AI69">
+        <v>23.8</v>
+      </c>
+      <c r="AJ69">
+        <v>148.5</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN69">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="AO69">
+        <v>12.6</v>
+      </c>
+      <c r="AP69">
+        <v>0.5</v>
+      </c>
+      <c r="AQ69">
+        <v>0.63</v>
+      </c>
+      <c r="AR69">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS69">
+        <v>1.92</v>
+      </c>
+      <c r="AT69">
+        <v>1.47</v>
+      </c>
+      <c r="AU69">
+        <v>3.84</v>
+      </c>
+      <c r="AV69">
+        <v>12.6</v>
+      </c>
+      <c r="AW69">
+        <v>3.7</v>
+      </c>
+      <c r="AX69">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AY69">
+        <v>7.6</v>
+      </c>
+      <c r="AZ69">
+        <v>866.7</v>
+      </c>
+      <c r="BA69">
+        <v>25</v>
+      </c>
+      <c r="BB69">
+        <v>1.32</v>
+      </c>
+      <c r="BC69" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD69" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>472</v>
+      </c>
+      <c r="B70" t="s">
+        <v>473</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>60</v>
+      </c>
+      <c r="F70">
+        <v>120</v>
+      </c>
+      <c r="G70">
+        <v>99.1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>115</v>
+      </c>
+      <c r="I70" t="s">
+        <v>115</v>
+      </c>
+      <c r="J70">
+        <v>0.16</v>
+      </c>
+      <c r="K70">
+        <v>3.2</v>
+      </c>
+      <c r="L70">
+        <v>0.35</v>
+      </c>
+      <c r="M70">
+        <v>0.23</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="O70">
+        <v>18</v>
+      </c>
+      <c r="P70" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>115</v>
+      </c>
+      <c r="R70">
+        <v>5.7</v>
+      </c>
+      <c r="S70" t="s">
+        <v>115</v>
+      </c>
+      <c r="T70" t="s">
+        <v>115</v>
+      </c>
+      <c r="U70">
+        <v>3.9</v>
+      </c>
+      <c r="V70" t="s">
+        <v>115</v>
+      </c>
+      <c r="W70" t="s">
+        <v>115</v>
+      </c>
+      <c r="X70">
+        <v>51.8</v>
+      </c>
+      <c r="Y70">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="Z70">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="AA70">
+        <v>64</v>
+      </c>
+      <c r="AB70">
+        <v>54.1</v>
+      </c>
+      <c r="AC70">
+        <v>75.7</v>
+      </c>
+      <c r="AD70">
+        <v>99.1</v>
+      </c>
+      <c r="AE70">
+        <v>16965.3</v>
+      </c>
+      <c r="AF70">
+        <v>1.34E-2</v>
+      </c>
+      <c r="AG70">
+        <v>3.0572300000000001</v>
+      </c>
+      <c r="AH70">
+        <v>16966</v>
+      </c>
+      <c r="AI70">
+        <v>508.7</v>
+      </c>
+      <c r="AJ70">
+        <v>3179.3</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN70">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="AO70">
+        <v>39.6</v>
+      </c>
+      <c r="AP70">
+        <v>0.5</v>
+      </c>
+      <c r="AQ70">
+        <v>0.66</v>
+      </c>
+      <c r="AR70">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS70">
+        <v>0.68</v>
+      </c>
+      <c r="AT70">
+        <v>0.48</v>
+      </c>
+      <c r="AU70">
+        <v>1.36</v>
+      </c>
+      <c r="AV70">
+        <v>39.6</v>
+      </c>
+      <c r="AW70">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AX70">
+        <v>0.72</v>
+      </c>
+      <c r="AY70">
+        <v>4.01</v>
+      </c>
+      <c r="AZ70" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA70" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB70" t="s">
+        <v>115</v>
+      </c>
+      <c r="BC70" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD70" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="71" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>476</v>
+      </c>
+      <c r="B71" t="s">
+        <v>477</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>61</v>
+      </c>
+      <c r="F71">
+        <v>15</v>
+      </c>
+      <c r="G71">
+        <v>15.9</v>
+      </c>
+      <c r="H71" t="s">
+        <v>115</v>
+      </c>
+      <c r="I71" t="s">
+        <v>115</v>
+      </c>
+      <c r="J71">
+        <v>0.85</v>
+      </c>
+      <c r="K71" t="s">
+        <v>115</v>
+      </c>
+      <c r="L71">
+        <v>1.72</v>
+      </c>
+      <c r="M71">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N71" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="O71">
+        <v>3.3</v>
+      </c>
+      <c r="P71">
+        <v>0.3</v>
+      </c>
+      <c r="Q71">
+        <v>0.7</v>
+      </c>
+      <c r="R71">
+        <v>1.3</v>
+      </c>
+      <c r="S71" t="s">
+        <v>115</v>
+      </c>
+      <c r="T71" t="s">
+        <v>115</v>
+      </c>
+      <c r="U71">
+        <v>0.9</v>
+      </c>
+      <c r="V71">
+        <v>0.7</v>
+      </c>
+      <c r="W71">
+        <v>1.2</v>
+      </c>
+      <c r="X71">
+        <v>10</v>
+      </c>
+      <c r="Y71">
+        <v>7.5</v>
+      </c>
+      <c r="Z71">
+        <v>13.4</v>
+      </c>
+      <c r="AA71">
+        <v>9.5</v>
+      </c>
+      <c r="AB71">
+        <v>8</v>
+      </c>
+      <c r="AC71">
+        <v>11.2</v>
+      </c>
+      <c r="AD71">
+        <v>15.9</v>
+      </c>
+      <c r="AE71">
+        <v>199.4</v>
+      </c>
+      <c r="AF71">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="AG71">
+        <v>3.036</v>
+      </c>
+      <c r="AH71">
+        <v>199</v>
+      </c>
+      <c r="AI71">
+        <v>5.2</v>
+      </c>
+      <c r="AJ71">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN71">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="AO71">
+        <v>6.4</v>
+      </c>
+      <c r="AP71">
+        <v>0.5</v>
+      </c>
+      <c r="AQ71">
+        <v>0.65</v>
+      </c>
+      <c r="AR71">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS71">
+        <v>3.19</v>
+      </c>
+      <c r="AT71">
+        <v>2.34</v>
+      </c>
+      <c r="AU71">
+        <v>6.38</v>
+      </c>
+      <c r="AV71">
+        <v>6.4</v>
+      </c>
+      <c r="AW71">
+        <v>2.9</v>
+      </c>
+      <c r="AX71">
+        <v>0.18</v>
+      </c>
+      <c r="AY71">
+        <v>35.1</v>
+      </c>
+      <c r="AZ71">
+        <v>199.4</v>
+      </c>
+      <c r="BA71">
+        <v>25</v>
+      </c>
+      <c r="BB71">
+        <v>1.32</v>
+      </c>
+      <c r="BC71" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD71" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="72" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>481</v>
+      </c>
+      <c r="B72" t="s">
+        <v>482</v>
+      </c>
+      <c r="C72" t="s">
+        <v>334</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>180</v>
+      </c>
+      <c r="F72">
+        <v>70</v>
+      </c>
+      <c r="G72">
+        <v>38.6</v>
+      </c>
+      <c r="H72" t="s">
+        <v>115</v>
+      </c>
+      <c r="I72" t="s">
+        <v>115</v>
+      </c>
+      <c r="J72">
+        <v>0.49</v>
+      </c>
+      <c r="K72">
+        <v>2.86</v>
+      </c>
+      <c r="L72" t="s">
+        <v>115</v>
+      </c>
+      <c r="M72" t="s">
+        <v>115</v>
+      </c>
+      <c r="N72" t="s">
+        <v>115</v>
+      </c>
+      <c r="O72">
+        <v>5.8</v>
+      </c>
+      <c r="P72" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>115</v>
+      </c>
+      <c r="R72">
+        <v>1.7</v>
+      </c>
+      <c r="S72" t="s">
+        <v>115</v>
+      </c>
+      <c r="T72" t="s">
+        <v>115</v>
+      </c>
+      <c r="U72">
+        <v>1.4</v>
+      </c>
+      <c r="V72" t="s">
+        <v>115</v>
+      </c>
+      <c r="W72" t="s">
+        <v>115</v>
+      </c>
+      <c r="X72">
+        <v>22.2</v>
+      </c>
+      <c r="Y72">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="Z72">
+        <v>29.8</v>
+      </c>
+      <c r="AA72">
+        <v>23.9</v>
+      </c>
+      <c r="AB72">
+        <v>20.2</v>
+      </c>
+      <c r="AC72">
+        <v>28.3</v>
+      </c>
+      <c r="AD72">
+        <v>38.6</v>
+      </c>
+      <c r="AE72">
+        <v>1146.4000000000001</v>
+      </c>
+      <c r="AF72">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="AG72">
+        <v>2.92</v>
+      </c>
+      <c r="AH72">
+        <v>1147</v>
+      </c>
+      <c r="AI72">
+        <v>31.7</v>
+      </c>
+      <c r="AJ72">
+        <v>198.2</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN72">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="AO72">
+        <v>15.4</v>
+      </c>
+      <c r="AP72">
+        <v>0.5</v>
+      </c>
+      <c r="AQ72">
+        <v>0.64</v>
+      </c>
+      <c r="AR72">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS72">
+        <v>1.74</v>
+      </c>
+      <c r="AT72">
+        <v>1.3</v>
+      </c>
+      <c r="AU72">
+        <v>3.48</v>
+      </c>
+      <c r="AV72">
+        <v>15.4</v>
+      </c>
+      <c r="AW72">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX72">
+        <v>0.11</v>
+      </c>
+      <c r="AY72">
+        <v>21</v>
+      </c>
+      <c r="AZ72">
+        <v>1146.4000000000001</v>
+      </c>
+      <c r="BA72">
+        <v>28</v>
+      </c>
+      <c r="BB72">
+        <v>1.32</v>
+      </c>
+      <c r="BC72" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD72" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="73" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>486</v>
+      </c>
+      <c r="B73" t="s">
+        <v>487</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>42</v>
+      </c>
+      <c r="F73">
+        <v>25</v>
+      </c>
+      <c r="G73">
+        <v>20.5</v>
+      </c>
+      <c r="H73" t="s">
+        <v>115</v>
+      </c>
+      <c r="I73" t="s">
+        <v>115</v>
+      </c>
+      <c r="J73">
+        <v>0.9</v>
+      </c>
+      <c r="K73">
+        <v>2.58</v>
+      </c>
+      <c r="L73">
+        <v>1.8</v>
+      </c>
+      <c r="M73">
+        <v>1.19</v>
+      </c>
+      <c r="N73" s="3">
+        <v>2.73</v>
+      </c>
+      <c r="O73">
+        <v>3.1</v>
+      </c>
+      <c r="P73" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>115</v>
+      </c>
+      <c r="R73">
+        <v>1.2</v>
+      </c>
+      <c r="S73" t="s">
+        <v>115</v>
+      </c>
+      <c r="T73" t="s">
+        <v>115</v>
+      </c>
+      <c r="U73">
+        <v>0.9</v>
+      </c>
+      <c r="V73" t="s">
+        <v>115</v>
+      </c>
+      <c r="W73" t="s">
+        <v>115</v>
+      </c>
+      <c r="X73">
+        <v>12.6</v>
+      </c>
+      <c r="Y73">
+        <v>9.4</v>
+      </c>
+      <c r="Z73">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AA73">
+        <v>12.4</v>
+      </c>
+      <c r="AB73">
+        <v>10.5</v>
+      </c>
+      <c r="AC73">
+        <v>14.6</v>
+      </c>
+      <c r="AD73">
+        <v>20.5</v>
+      </c>
+      <c r="AE73">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="AF73">
+        <v>1.66E-2</v>
+      </c>
+      <c r="AG73">
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="AH73">
+        <v>139</v>
+      </c>
+      <c r="AI73">
+        <v>3.6</v>
+      </c>
+      <c r="AJ73">
+        <v>22.4</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN73">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="AO73">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AP73">
+        <v>0.5</v>
+      </c>
+      <c r="AQ73">
+        <v>0.64</v>
+      </c>
+      <c r="AR73">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS73">
+        <v>3.2</v>
+      </c>
+      <c r="AT73">
+        <v>2.39</v>
+      </c>
+      <c r="AU73">
+        <v>6.4</v>
+      </c>
+      <c r="AV73">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AW73">
+        <v>3.6</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY73">
+        <v>12.9</v>
+      </c>
+      <c r="AZ73">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="BA73">
+        <v>28</v>
+      </c>
+      <c r="BB73">
+        <v>1.32</v>
+      </c>
+      <c r="BC73" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD73" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>491</v>
+      </c>
+      <c r="B74" t="s">
+        <v>492</v>
+      </c>
+      <c r="C74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74">
+        <v>15</v>
+      </c>
+      <c r="E74">
+        <v>108</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74">
+        <v>31.5</v>
+      </c>
+      <c r="H74">
+        <v>26.5</v>
+      </c>
+      <c r="I74">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="J74">
+        <v>0.41</v>
+      </c>
+      <c r="K74" t="s">
+        <v>115</v>
+      </c>
+      <c r="L74">
+        <v>0.84</v>
+      </c>
+      <c r="M74">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N74" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="O74">
+        <v>6.9</v>
+      </c>
+      <c r="P74" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>115</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1.4</v>
+      </c>
+      <c r="T74">
+        <v>2.8</v>
+      </c>
+      <c r="U74">
+        <v>1.8</v>
+      </c>
+      <c r="V74">
+        <v>1.4</v>
+      </c>
+      <c r="W74">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X74">
+        <v>18.5</v>
+      </c>
+      <c r="Y74">
+        <v>13.8</v>
+      </c>
+      <c r="Z74">
+        <v>24.8</v>
+      </c>
+      <c r="AA74">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AB74">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AC74">
+        <v>22.9</v>
+      </c>
+      <c r="AD74">
+        <v>31.5</v>
+      </c>
+      <c r="AE74">
+        <v>953</v>
+      </c>
+      <c r="AF74">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="AG74">
+        <v>3.0529999999999999</v>
+      </c>
+      <c r="AH74">
+        <v>953</v>
+      </c>
+      <c r="AI74">
+        <v>26.2</v>
+      </c>
+      <c r="AJ74">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN74">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="AO74">
+        <v>12.6</v>
+      </c>
+      <c r="AP74">
+        <v>0.5</v>
+      </c>
+      <c r="AQ74">
+        <v>0.65</v>
+      </c>
+      <c r="AR74">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS74">
+        <v>1.56</v>
+      </c>
+      <c r="AT74">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AU74">
+        <v>3.12</v>
+      </c>
+      <c r="AV74">
+        <v>12.6</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>358</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY74">
+        <v>16.5</v>
+      </c>
+      <c r="AZ74">
+        <v>953.2</v>
+      </c>
+      <c r="BA74">
+        <v>25</v>
+      </c>
+      <c r="BB74">
+        <v>1.32</v>
+      </c>
+      <c r="BC74" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD74" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>496</v>
+      </c>
+      <c r="B75" t="s">
+        <v>497</v>
+      </c>
+      <c r="C75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>71</v>
+      </c>
+      <c r="F75">
+        <v>54</v>
+      </c>
+      <c r="G75">
+        <v>56.1</v>
+      </c>
+      <c r="H75">
+        <v>47.3</v>
+      </c>
+      <c r="I75">
+        <v>66.5</v>
+      </c>
+      <c r="J75">
+        <v>0.96</v>
+      </c>
+      <c r="K75" t="s">
+        <v>115</v>
+      </c>
+      <c r="L75">
+        <v>1.38</v>
+      </c>
+      <c r="M75">
+        <v>0.91</v>
+      </c>
+      <c r="N75" s="3">
+        <v>2.09</v>
+      </c>
+      <c r="O75">
+        <v>3</v>
+      </c>
+      <c r="P75" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>115</v>
+      </c>
+      <c r="R75">
+        <v>0.9</v>
+      </c>
+      <c r="S75">
+        <v>0.7</v>
+      </c>
+      <c r="T75">
+        <v>1.3</v>
+      </c>
+      <c r="U75">
+        <v>0.7</v>
+      </c>
+      <c r="V75">
+        <v>0.6</v>
+      </c>
+      <c r="W75">
+        <v>0.9</v>
+      </c>
+      <c r="X75">
+        <v>31.1</v>
+      </c>
+      <c r="Y75">
+        <v>23.2</v>
+      </c>
+      <c r="Z75">
+        <v>41.6</v>
+      </c>
+      <c r="AA75">
+        <v>35.4</v>
+      </c>
+      <c r="AB75">
+        <v>29.9</v>
+      </c>
+      <c r="AC75">
+        <v>41.8</v>
+      </c>
+      <c r="AD75">
+        <v>56.1</v>
+      </c>
+      <c r="AE75">
+        <v>4405</v>
+      </c>
+      <c r="AF75">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="AG75">
+        <v>3.16</v>
+      </c>
+      <c r="AH75">
+        <v>4405</v>
+      </c>
+      <c r="AI75">
+        <v>126.8</v>
+      </c>
+      <c r="AJ75">
+        <v>792.5</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN75">
+        <v>4.7E-2</v>
+      </c>
+      <c r="AO75">
+        <v>22.4</v>
+      </c>
+      <c r="AP75">
+        <v>0.5</v>
+      </c>
+      <c r="AQ75">
+        <v>0.6</v>
+      </c>
+      <c r="AR75">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AS75">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AT75">
+        <v>1.65</v>
+      </c>
+      <c r="AU75">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AV75">
+        <v>22.4</v>
+      </c>
+      <c r="AW75">
+        <v>2</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY75">
+        <v>13.7</v>
+      </c>
+      <c r="AZ75">
+        <v>4405.5</v>
+      </c>
+      <c r="BA75">
+        <v>25</v>
+      </c>
+      <c r="BB75">
+        <v>1.32</v>
+      </c>
+      <c r="BC75" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD75" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>501</v>
+      </c>
+      <c r="B76" t="s">
+        <v>502</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>250</v>
+      </c>
+      <c r="F76">
+        <v>45</v>
+      </c>
+      <c r="G76">
+        <v>34.6</v>
+      </c>
+      <c r="H76" t="s">
+        <v>115</v>
+      </c>
+      <c r="I76" t="s">
+        <v>115</v>
+      </c>
+      <c r="J76">
+        <v>0.66</v>
+      </c>
+      <c r="K76">
+        <v>2.9</v>
+      </c>
+      <c r="L76" t="s">
+        <v>115</v>
+      </c>
+      <c r="M76" t="s">
+        <v>115</v>
+      </c>
+      <c r="N76" t="s">
+        <v>115</v>
+      </c>
+      <c r="O76">
+        <v>4.3</v>
+      </c>
+      <c r="P76" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>115</v>
+      </c>
+      <c r="R76">
+        <v>1.2</v>
+      </c>
+      <c r="S76" t="s">
+        <v>115</v>
+      </c>
+      <c r="T76" t="s">
+        <v>115</v>
+      </c>
+      <c r="U76">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V76" t="s">
+        <v>115</v>
+      </c>
+      <c r="W76" t="s">
+        <v>115</v>
+      </c>
+      <c r="X76">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Y76">
+        <v>15</v>
+      </c>
+      <c r="Z76">
+        <v>27</v>
+      </c>
+      <c r="AA76">
+        <v>21.4</v>
+      </c>
+      <c r="AB76">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AC76">
+        <v>25.3</v>
+      </c>
+      <c r="AD76">
+        <v>34.6</v>
+      </c>
+      <c r="AE76">
+        <v>613.5</v>
+      </c>
+      <c r="AF76">
+        <v>0.03</v>
+      </c>
+      <c r="AG76">
+        <v>2.8008500000000001</v>
+      </c>
+      <c r="AH76">
+        <v>614</v>
+      </c>
+      <c r="AI76">
+        <v>16.7</v>
+      </c>
+      <c r="AJ76">
+        <v>104.1</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN76">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="AO76">
+        <v>13.8</v>
+      </c>
+      <c r="AP76">
+        <v>0.5</v>
+      </c>
+      <c r="AQ76">
+        <v>0.63</v>
+      </c>
+      <c r="AR76">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS76">
+        <v>2.11</v>
+      </c>
+      <c r="AT76">
+        <v>1.64</v>
+      </c>
+      <c r="AU76">
+        <v>4.22</v>
+      </c>
+      <c r="AV76">
+        <v>13.8</v>
+      </c>
+      <c r="AW76">
+        <v>3.6</v>
+      </c>
+      <c r="AX76">
+        <v>0.45</v>
+      </c>
+      <c r="AY76">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AZ76">
+        <v>613.5</v>
+      </c>
+      <c r="BA76">
+        <v>27.2</v>
+      </c>
+      <c r="BB76">
+        <v>1.32</v>
+      </c>
+      <c r="BC76" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD76" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>506</v>
+      </c>
+      <c r="B77" t="s">
+        <v>507</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
+      </c>
+      <c r="F77">
+        <v>45</v>
+      </c>
+      <c r="G77">
+        <v>46.9</v>
+      </c>
+      <c r="H77" t="s">
+        <v>115</v>
+      </c>
+      <c r="I77" t="s">
+        <v>115</v>
+      </c>
+      <c r="J77">
+        <v>0.19</v>
+      </c>
+      <c r="K77" t="s">
+        <v>115</v>
+      </c>
+      <c r="L77">
+        <v>0.45</v>
+      </c>
+      <c r="M77">
+        <v>0.3</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="O77">
+        <v>15</v>
+      </c>
+      <c r="P77">
+        <v>1.3</v>
+      </c>
+      <c r="Q77">
+        <v>2.9</v>
+      </c>
+      <c r="R77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S77">
+        <v>3.2</v>
+      </c>
+      <c r="T77">
+        <v>6.3</v>
+      </c>
+      <c r="U77">
+        <v>3.6</v>
+      </c>
+      <c r="V77">
+        <v>2.9</v>
+      </c>
+      <c r="W77">
+        <v>4.5</v>
+      </c>
+      <c r="X77">
+        <v>26.5</v>
+      </c>
+      <c r="Y77">
+        <v>19.8</v>
+      </c>
+      <c r="Z77">
+        <v>35.4</v>
+      </c>
+      <c r="AA77">
+        <v>29.3</v>
+      </c>
+      <c r="AB77">
+        <v>24.8</v>
+      </c>
+      <c r="AC77">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AD77">
+        <v>46.9</v>
+      </c>
+      <c r="AE77">
+        <v>1945</v>
+      </c>
+      <c r="AF77">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AG77">
+        <v>2.972</v>
+      </c>
+      <c r="AH77">
+        <v>1945</v>
+      </c>
+      <c r="AI77">
+        <v>54.7</v>
+      </c>
+      <c r="AJ77">
+        <v>341.6</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN77">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AO77">
+        <v>18.8</v>
+      </c>
+      <c r="AP77">
+        <v>0.5</v>
+      </c>
+      <c r="AQ77">
+        <v>0.68</v>
+      </c>
+      <c r="AR77">
+        <v>0.6</v>
+      </c>
+      <c r="AS77">
+        <v>0.96</v>
+      </c>
+      <c r="AT77">
+        <v>0.66</v>
+      </c>
+      <c r="AU77">
+        <v>1.92</v>
+      </c>
+      <c r="AV77">
+        <v>18.8</v>
+      </c>
+      <c r="AW77">
+        <v>3.9</v>
+      </c>
+      <c r="AX77">
+        <v>0.24</v>
+      </c>
+      <c r="AY77">
+        <v>7.2</v>
+      </c>
+      <c r="AZ77">
+        <v>1945.1</v>
+      </c>
+      <c r="BA77">
+        <v>27</v>
+      </c>
+      <c r="BB77">
+        <v>1.32</v>
+      </c>
+      <c r="BC77" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD77" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="BD21" r:id="rId1" xr:uid="{0855E8CE-BF5D-FE4C-B242-2206D93E6385}"/>
@@ -7740,6 +15164,46 @@
     <hyperlink ref="BD35" r:id="rId34" xr:uid="{E523DEF4-4A3E-CD4F-AB28-8C8FCA4FCB05}"/>
     <hyperlink ref="BD36" r:id="rId35" xr:uid="{2EDD6381-2F42-1549-B2F4-56D7D2D59E3F}"/>
     <hyperlink ref="BD37" r:id="rId36" xr:uid="{9A47CF8B-C962-FE40-8CFC-0BF0DE9D6FBC}"/>
+    <hyperlink ref="BD38" r:id="rId37" xr:uid="{4E683175-FEA4-624C-94BD-731C5D5E689E}"/>
+    <hyperlink ref="BD39" r:id="rId38" xr:uid="{438B4A07-1D8A-514F-961A-619F2971A1DF}"/>
+    <hyperlink ref="BD40" r:id="rId39" xr:uid="{F8BF1200-1173-2A45-B9BB-E7711BF8FBC4}"/>
+    <hyperlink ref="BD41" r:id="rId40" xr:uid="{42B67939-4685-3244-A145-F387E32AF21F}"/>
+    <hyperlink ref="BD42" r:id="rId41" xr:uid="{5568398B-45C5-CC48-A6ED-55E75421AEC4}"/>
+    <hyperlink ref="BD43" r:id="rId42" xr:uid="{0FE734FA-C603-9942-96CD-E285D3A647E6}"/>
+    <hyperlink ref="BD44" r:id="rId43" xr:uid="{E4A2C8F2-D647-CE43-8948-6B1D6EF121EA}"/>
+    <hyperlink ref="BD45" r:id="rId44" xr:uid="{A7833E26-15C7-7E43-9B8A-3D3EDDEE293A}"/>
+    <hyperlink ref="BD46" r:id="rId45" xr:uid="{609CA4E7-0DD2-334C-B4F6-649CFBB51F7F}"/>
+    <hyperlink ref="BD47" r:id="rId46" xr:uid="{03AEA81C-FA4B-914E-9583-1AD714AFC635}"/>
+    <hyperlink ref="BD48" r:id="rId47" xr:uid="{598869C0-FA25-A54C-86C2-B53D2E05FFE7}"/>
+    <hyperlink ref="BD49" r:id="rId48" xr:uid="{60E1AAB0-E411-B545-A6C6-564689D0F369}"/>
+    <hyperlink ref="BD50" r:id="rId49" xr:uid="{21C1D909-5832-8047-8802-CD4CBA8D1EE1}"/>
+    <hyperlink ref="BD51" r:id="rId50" xr:uid="{0F813AE0-4367-F943-A96D-7F1B53571876}"/>
+    <hyperlink ref="BD52" r:id="rId51" xr:uid="{4EF87F3C-1FC3-0348-AF8D-C9BE158CE537}"/>
+    <hyperlink ref="BD53" r:id="rId52" xr:uid="{A730C725-C208-B747-9C05-F78D2F9D9F84}"/>
+    <hyperlink ref="BD54" r:id="rId53" xr:uid="{64854A67-0004-304E-AB2B-D0514477CEA6}"/>
+    <hyperlink ref="BD55" r:id="rId54" xr:uid="{BC11446E-E9DB-FD42-8DB1-8409ADAF2577}"/>
+    <hyperlink ref="BD56" r:id="rId55" xr:uid="{BE1FA736-57BE-DB4F-B9A4-1DBE3F3C2C8F}"/>
+    <hyperlink ref="BD57" r:id="rId56" xr:uid="{B0A7AE00-C292-9B4D-8929-E60D4EF1C3A5}"/>
+    <hyperlink ref="BD58" r:id="rId57" xr:uid="{58515E59-D5E6-0549-BDBF-71122F2CB10A}"/>
+    <hyperlink ref="BD59" r:id="rId58" xr:uid="{DDA27820-0A88-AB47-BF30-BE6DAC2A9070}"/>
+    <hyperlink ref="BD60" r:id="rId59" xr:uid="{87E8422D-132A-C34B-92C8-C19174233601}"/>
+    <hyperlink ref="BD61" r:id="rId60" xr:uid="{B1EF7C37-29A1-2847-94F5-AAB2FADF7D4F}"/>
+    <hyperlink ref="BD62" r:id="rId61" xr:uid="{5DE67D2B-D0C0-584C-9C7A-B49618CDDC33}"/>
+    <hyperlink ref="BD63" r:id="rId62" xr:uid="{F17FC469-F35B-4840-BD07-90F94255CA23}"/>
+    <hyperlink ref="BD64" r:id="rId63" xr:uid="{C82F4478-FC11-4447-A1BD-71D6BB9B3ECF}"/>
+    <hyperlink ref="BD65" r:id="rId64" xr:uid="{9965BFBE-3AD4-2B41-B6D4-4E62009C6FCB}"/>
+    <hyperlink ref="BD66" r:id="rId65" xr:uid="{155D505E-15B9-0542-9813-0DA5011FABB5}"/>
+    <hyperlink ref="BD67" r:id="rId66" xr:uid="{8D7D789A-40AB-8F4F-BF32-714F03629DE6}"/>
+    <hyperlink ref="BD68" r:id="rId67" xr:uid="{EE488A96-B811-9144-9834-F1FB080CB2E0}"/>
+    <hyperlink ref="BD69" r:id="rId68" xr:uid="{2CF0D1C0-FA5D-5244-8C28-78D4837994BB}"/>
+    <hyperlink ref="BD70" r:id="rId69" xr:uid="{7446B0EB-513D-D742-BF7A-ED642679F8CB}"/>
+    <hyperlink ref="BD71" r:id="rId70" xr:uid="{FD9EF12C-716B-734C-8889-4E716A6D564F}"/>
+    <hyperlink ref="BD72" r:id="rId71" xr:uid="{75E4DE9A-177B-0C46-82F2-312DFCBAC64D}"/>
+    <hyperlink ref="BD73" r:id="rId72" xr:uid="{EBC2C89C-D849-7949-8AB8-B1CAEC535067}"/>
+    <hyperlink ref="BD74" r:id="rId73" xr:uid="{B0A5299F-CDB8-7149-B911-96C9FA8C9171}"/>
+    <hyperlink ref="BD75" r:id="rId74" xr:uid="{A6654093-2228-2B4D-ADF6-616246507996}"/>
+    <hyperlink ref="BD76" r:id="rId75" xr:uid="{46481328-CDD3-314A-95EC-6F45C2F115E6}"/>
+    <hyperlink ref="BD77" r:id="rId76" xr:uid="{95274FF6-7516-8949-BDBA-8A398F4C03B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7747,10 +15211,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8401CC-45AA-794F-825D-4F3F9F3C5EA7}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:E31"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8995,6 +16460,1406 @@
       </c>
       <c r="K38" s="8" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>306</v>
+      </c>
+      <c r="B39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39">
+        <v>0.98</v>
+      </c>
+      <c r="D39">
+        <v>1.66E-2</v>
+      </c>
+      <c r="E39">
+        <v>2.95</v>
+      </c>
+      <c r="F39" t="s">
+        <v>204</v>
+      </c>
+      <c r="G39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39">
+        <v>0.98</v>
+      </c>
+      <c r="I39">
+        <v>413</v>
+      </c>
+      <c r="J39" t="s">
+        <v>308</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>312</v>
+      </c>
+      <c r="B40" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40">
+        <v>0.95</v>
+      </c>
+      <c r="D40">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E40">
+        <v>3.1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" t="s">
+        <v>314</v>
+      </c>
+      <c r="H40">
+        <v>0.95</v>
+      </c>
+      <c r="I40">
+        <v>2662</v>
+      </c>
+      <c r="J40" t="s">
+        <v>315</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>317</v>
+      </c>
+      <c r="B41" t="s">
+        <v>318</v>
+      </c>
+      <c r="C41">
+        <v>0.98</v>
+      </c>
+      <c r="D41">
+        <v>2.29E-2</v>
+      </c>
+      <c r="E41">
+        <v>2.8769999999999998</v>
+      </c>
+      <c r="F41" t="s">
+        <v>215</v>
+      </c>
+      <c r="G41" t="s">
+        <v>319</v>
+      </c>
+      <c r="H41">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I41">
+        <v>117</v>
+      </c>
+      <c r="J41" t="s">
+        <v>320</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B42" t="s">
+        <v>323</v>
+      </c>
+      <c r="C42">
+        <v>0.99</v>
+      </c>
+      <c r="D42">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="E42">
+        <v>3.01</v>
+      </c>
+      <c r="F42" t="s">
+        <v>215</v>
+      </c>
+      <c r="G42" t="s">
+        <v>325</v>
+      </c>
+      <c r="H42">
+        <v>0.99</v>
+      </c>
+      <c r="I42">
+        <v>193</v>
+      </c>
+      <c r="J42" t="s">
+        <v>326</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>329</v>
+      </c>
+      <c r="B43" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>4.24E-2</v>
+      </c>
+      <c r="E43">
+        <v>2.8540000000000001</v>
+      </c>
+      <c r="F43" t="s">
+        <v>215</v>
+      </c>
+      <c r="G43" t="s">
+        <v>331</v>
+      </c>
+      <c r="H43">
+        <v>0.998</v>
+      </c>
+      <c r="I43">
+        <v>61</v>
+      </c>
+      <c r="J43" t="s">
+        <v>332</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>336</v>
+      </c>
+      <c r="B44" t="s">
+        <v>337</v>
+      </c>
+      <c r="C44">
+        <v>0.94</v>
+      </c>
+      <c r="D44">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E44">
+        <v>2.95</v>
+      </c>
+      <c r="F44" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" t="s">
+        <v>338</v>
+      </c>
+      <c r="H44">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="I44">
+        <v>488</v>
+      </c>
+      <c r="J44" t="s">
+        <v>339</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>343</v>
+      </c>
+      <c r="B45" t="s">
+        <v>342</v>
+      </c>
+      <c r="C45">
+        <v>0.99</v>
+      </c>
+      <c r="D45">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="E45">
+        <v>2.7919999999999998</v>
+      </c>
+      <c r="F45" t="s">
+        <v>215</v>
+      </c>
+      <c r="G45" t="s">
+        <v>344</v>
+      </c>
+      <c r="H45">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I45">
+        <v>365</v>
+      </c>
+      <c r="J45" t="s">
+        <v>320</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B46" t="s">
+        <v>348</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1.0869999999999999E-2</v>
+      </c>
+      <c r="E46">
+        <v>3.06</v>
+      </c>
+      <c r="F46" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" t="s">
+        <v>349</v>
+      </c>
+      <c r="H46">
+        <v>0.995</v>
+      </c>
+      <c r="I46">
+        <v>2112</v>
+      </c>
+      <c r="J46" t="s">
+        <v>350</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>353</v>
+      </c>
+      <c r="B47" t="s">
+        <v>354</v>
+      </c>
+      <c r="C47">
+        <v>0.96</v>
+      </c>
+      <c r="D47">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="E47">
+        <v>2.99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" t="s">
+        <v>355</v>
+      </c>
+      <c r="H47">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="I47">
+        <v>440</v>
+      </c>
+      <c r="J47" t="s">
+        <v>356</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>360</v>
+      </c>
+      <c r="B48" t="s">
+        <v>361</v>
+      </c>
+      <c r="C48">
+        <v>0.98</v>
+      </c>
+      <c r="D48">
+        <v>2.47E-2</v>
+      </c>
+      <c r="E48">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="F48" t="s">
+        <v>204</v>
+      </c>
+      <c r="G48" t="s">
+        <v>362</v>
+      </c>
+      <c r="H48">
+        <v>0.98</v>
+      </c>
+      <c r="I48">
+        <v>85</v>
+      </c>
+      <c r="J48" t="s">
+        <v>320</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>365</v>
+      </c>
+      <c r="B49" t="s">
+        <v>366</v>
+      </c>
+      <c r="C49">
+        <v>0.94</v>
+      </c>
+      <c r="D49">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="E49">
+        <v>2.88</v>
+      </c>
+      <c r="F49" t="s">
+        <v>215</v>
+      </c>
+      <c r="G49" t="s">
+        <v>367</v>
+      </c>
+      <c r="H49">
+        <v>0.94</v>
+      </c>
+      <c r="I49">
+        <v>115</v>
+      </c>
+      <c r="J49" t="s">
+        <v>326</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>370</v>
+      </c>
+      <c r="B50" t="s">
+        <v>371</v>
+      </c>
+      <c r="C50">
+        <v>0.98</v>
+      </c>
+      <c r="D50">
+        <v>3.78E-2</v>
+      </c>
+      <c r="E50">
+        <v>2.8889999999999998</v>
+      </c>
+      <c r="F50" t="s">
+        <v>215</v>
+      </c>
+      <c r="G50" t="s">
+        <v>372</v>
+      </c>
+      <c r="H50">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50" t="s">
+        <v>339</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>375</v>
+      </c>
+      <c r="B51" t="s">
+        <v>376</v>
+      </c>
+      <c r="C51">
+        <v>0.99</v>
+      </c>
+      <c r="D51">
+        <v>4.2410000000000003E-2</v>
+      </c>
+      <c r="E51">
+        <v>2.7410000000000001</v>
+      </c>
+      <c r="F51" t="s">
+        <v>204</v>
+      </c>
+      <c r="G51" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I51">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s">
+        <v>332</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>379</v>
+      </c>
+      <c r="B52" t="s">
+        <v>380</v>
+      </c>
+      <c r="C52">
+        <v>0.98</v>
+      </c>
+      <c r="D52">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="E52">
+        <v>3.11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>215</v>
+      </c>
+      <c r="G52" t="s">
+        <v>381</v>
+      </c>
+      <c r="H52">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I52">
+        <v>73</v>
+      </c>
+      <c r="J52" t="s">
+        <v>320</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>384</v>
+      </c>
+      <c r="B53" t="s">
+        <v>385</v>
+      </c>
+      <c r="C53">
+        <v>0.98</v>
+      </c>
+      <c r="D53">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="E53">
+        <v>2.91</v>
+      </c>
+      <c r="F53" t="s">
+        <v>215</v>
+      </c>
+      <c r="G53" t="s">
+        <v>386</v>
+      </c>
+      <c r="H53">
+        <v>0.98</v>
+      </c>
+      <c r="I53">
+        <v>113</v>
+      </c>
+      <c r="J53" t="s">
+        <v>315</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>389</v>
+      </c>
+      <c r="B54" t="s">
+        <v>390</v>
+      </c>
+      <c r="C54">
+        <v>0.98</v>
+      </c>
+      <c r="D54">
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="E54">
+        <v>3.2389999999999999</v>
+      </c>
+      <c r="F54" t="s">
+        <v>204</v>
+      </c>
+      <c r="G54" t="s">
+        <v>391</v>
+      </c>
+      <c r="H54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="I54">
+        <v>1387</v>
+      </c>
+      <c r="J54" t="s">
+        <v>392</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>395</v>
+      </c>
+      <c r="B55" t="s">
+        <v>396</v>
+      </c>
+      <c r="C55">
+        <v>0.99</v>
+      </c>
+      <c r="D55">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E55">
+        <v>3.01</v>
+      </c>
+      <c r="F55" t="s">
+        <v>215</v>
+      </c>
+      <c r="G55" t="s">
+        <v>397</v>
+      </c>
+      <c r="H55">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I55">
+        <v>197</v>
+      </c>
+      <c r="J55" t="s">
+        <v>339</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>400</v>
+      </c>
+      <c r="B56" t="s">
+        <v>401</v>
+      </c>
+      <c r="C56">
+        <v>0.99</v>
+      </c>
+      <c r="D56">
+        <v>0.02</v>
+      </c>
+      <c r="E56">
+        <v>2.93</v>
+      </c>
+      <c r="F56" t="s">
+        <v>215</v>
+      </c>
+      <c r="G56" t="s">
+        <v>402</v>
+      </c>
+      <c r="H56">
+        <v>0.99</v>
+      </c>
+      <c r="I56">
+        <v>272</v>
+      </c>
+      <c r="J56" t="s">
+        <v>403</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>406</v>
+      </c>
+      <c r="B57" t="s">
+        <v>407</v>
+      </c>
+      <c r="C57">
+        <v>0.96</v>
+      </c>
+      <c r="D57">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="E57">
+        <v>2.8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>215</v>
+      </c>
+      <c r="G57" t="s">
+        <v>408</v>
+      </c>
+      <c r="H57">
+        <v>0.96</v>
+      </c>
+      <c r="I57">
+        <v>2296</v>
+      </c>
+      <c r="J57" t="s">
+        <v>315</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>411</v>
+      </c>
+      <c r="B58" t="s">
+        <v>412</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" t="s">
+        <v>115</v>
+      </c>
+      <c r="H58" t="s">
+        <v>115</v>
+      </c>
+      <c r="I58" t="s">
+        <v>115</v>
+      </c>
+      <c r="J58" t="s">
+        <v>414</v>
+      </c>
+      <c r="K58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>415</v>
+      </c>
+      <c r="B59" t="s">
+        <v>416</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" t="s">
+        <v>115</v>
+      </c>
+      <c r="H59" t="s">
+        <v>115</v>
+      </c>
+      <c r="I59" t="s">
+        <v>115</v>
+      </c>
+      <c r="J59" t="s">
+        <v>417</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>420</v>
+      </c>
+      <c r="B60" t="s">
+        <v>421</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" t="s">
+        <v>115</v>
+      </c>
+      <c r="H60" t="s">
+        <v>115</v>
+      </c>
+      <c r="I60" t="s">
+        <v>115</v>
+      </c>
+      <c r="J60" t="s">
+        <v>417</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>424</v>
+      </c>
+      <c r="B61" t="s">
+        <v>425</v>
+      </c>
+      <c r="C61">
+        <v>0.99</v>
+      </c>
+      <c r="D61">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="E61">
+        <v>3.01</v>
+      </c>
+      <c r="F61" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" t="s">
+        <v>426</v>
+      </c>
+      <c r="H61">
+        <v>0.99</v>
+      </c>
+      <c r="I61">
+        <v>2737</v>
+      </c>
+      <c r="J61" t="s">
+        <v>326</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>429</v>
+      </c>
+      <c r="B62" t="s">
+        <v>430</v>
+      </c>
+      <c r="C62">
+        <v>0.95</v>
+      </c>
+      <c r="D62">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="E62">
+        <v>3.04</v>
+      </c>
+      <c r="F62" t="s">
+        <v>215</v>
+      </c>
+      <c r="G62" t="s">
+        <v>431</v>
+      </c>
+      <c r="H62">
+        <v>0.95</v>
+      </c>
+      <c r="I62">
+        <v>1264</v>
+      </c>
+      <c r="J62" t="s">
+        <v>315</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>434</v>
+      </c>
+      <c r="B63" t="s">
+        <v>435</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" t="s">
+        <v>115</v>
+      </c>
+      <c r="G63" t="s">
+        <v>115</v>
+      </c>
+      <c r="H63" t="s">
+        <v>115</v>
+      </c>
+      <c r="I63" t="s">
+        <v>115</v>
+      </c>
+      <c r="J63" t="s">
+        <v>417</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>438</v>
+      </c>
+      <c r="B64" t="s">
+        <v>439</v>
+      </c>
+      <c r="C64">
+        <v>0.96</v>
+      </c>
+      <c r="D64">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="E64">
+        <v>3.06</v>
+      </c>
+      <c r="F64" t="s">
+        <v>215</v>
+      </c>
+      <c r="G64" t="s">
+        <v>440</v>
+      </c>
+      <c r="H64">
+        <v>0.96</v>
+      </c>
+      <c r="I64">
+        <v>1960</v>
+      </c>
+      <c r="J64" t="s">
+        <v>403</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>443</v>
+      </c>
+      <c r="B65" t="s">
+        <v>444</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" t="s">
+        <v>115</v>
+      </c>
+      <c r="F65" t="s">
+        <v>115</v>
+      </c>
+      <c r="G65" t="s">
+        <v>115</v>
+      </c>
+      <c r="H65" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" t="s">
+        <v>115</v>
+      </c>
+      <c r="J65" t="s">
+        <v>414</v>
+      </c>
+      <c r="K65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B66" t="s">
+        <v>447</v>
+      </c>
+      <c r="C66">
+        <v>0.99</v>
+      </c>
+      <c r="D66">
+        <v>1.4409999999999999E-2</v>
+      </c>
+      <c r="E66">
+        <v>2.988</v>
+      </c>
+      <c r="F66" t="s">
+        <v>204</v>
+      </c>
+      <c r="G66" t="s">
+        <v>448</v>
+      </c>
+      <c r="H66">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I66">
+        <v>547</v>
+      </c>
+      <c r="J66" t="s">
+        <v>320</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>451</v>
+      </c>
+      <c r="B67" t="s">
+        <v>452</v>
+      </c>
+      <c r="C67">
+        <v>0.96</v>
+      </c>
+      <c r="D67">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="E67">
+        <v>3.21</v>
+      </c>
+      <c r="F67" t="s">
+        <v>215</v>
+      </c>
+      <c r="G67" t="s">
+        <v>453</v>
+      </c>
+      <c r="H67">
+        <v>0.96</v>
+      </c>
+      <c r="I67">
+        <v>614</v>
+      </c>
+      <c r="J67" t="s">
+        <v>315</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>456</v>
+      </c>
+      <c r="B68" t="s">
+        <v>457</v>
+      </c>
+      <c r="C68">
+        <v>0.92</v>
+      </c>
+      <c r="D68">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="E68">
+        <v>3.06</v>
+      </c>
+      <c r="F68" t="s">
+        <v>215</v>
+      </c>
+      <c r="G68" t="s">
+        <v>458</v>
+      </c>
+      <c r="H68">
+        <v>0.92</v>
+      </c>
+      <c r="I68">
+        <v>1192</v>
+      </c>
+      <c r="J68" t="s">
+        <v>403</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>461</v>
+      </c>
+      <c r="B69" t="s">
+        <v>462</v>
+      </c>
+      <c r="C69">
+        <v>0.99</v>
+      </c>
+      <c r="D69">
+        <v>2.52E-2</v>
+      </c>
+      <c r="E69">
+        <v>3.03</v>
+      </c>
+      <c r="F69" t="s">
+        <v>204</v>
+      </c>
+      <c r="G69" t="s">
+        <v>463</v>
+      </c>
+      <c r="H69">
+        <v>0.99</v>
+      </c>
+      <c r="I69">
+        <v>177</v>
+      </c>
+      <c r="J69" t="s">
+        <v>464</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>467</v>
+      </c>
+      <c r="B70" t="s">
+        <v>468</v>
+      </c>
+      <c r="C70">
+        <v>0.97</v>
+      </c>
+      <c r="D70">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="E70">
+        <v>2.68</v>
+      </c>
+      <c r="F70" t="s">
+        <v>215</v>
+      </c>
+      <c r="G70" t="s">
+        <v>469</v>
+      </c>
+      <c r="H70">
+        <v>0.97</v>
+      </c>
+      <c r="I70">
+        <v>895</v>
+      </c>
+      <c r="J70" t="s">
+        <v>326</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>472</v>
+      </c>
+      <c r="B71" t="s">
+        <v>473</v>
+      </c>
+      <c r="C71">
+        <v>0.98</v>
+      </c>
+      <c r="D71">
+        <v>1.38E-2</v>
+      </c>
+      <c r="E71">
+        <v>3.0750000000000002</v>
+      </c>
+      <c r="F71" t="s">
+        <v>215</v>
+      </c>
+      <c r="G71" t="s">
+        <v>115</v>
+      </c>
+      <c r="H71">
+        <v>0.98</v>
+      </c>
+      <c r="I71">
+        <v>127</v>
+      </c>
+      <c r="J71" t="s">
+        <v>332</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>476</v>
+      </c>
+      <c r="B72" t="s">
+        <v>477</v>
+      </c>
+      <c r="C72">
+        <v>0.93</v>
+      </c>
+      <c r="D72">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="E72">
+        <v>3.036</v>
+      </c>
+      <c r="F72" t="s">
+        <v>215</v>
+      </c>
+      <c r="G72" t="s">
+        <v>478</v>
+      </c>
+      <c r="H72">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="I72">
+        <v>12</v>
+      </c>
+      <c r="J72" t="s">
+        <v>339</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>481</v>
+      </c>
+      <c r="B73" t="s">
+        <v>482</v>
+      </c>
+      <c r="C73">
+        <v>0.99</v>
+      </c>
+      <c r="D73">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="E73">
+        <v>2.85</v>
+      </c>
+      <c r="F73" t="s">
+        <v>215</v>
+      </c>
+      <c r="G73" t="s">
+        <v>483</v>
+      </c>
+      <c r="H73">
+        <v>0.99</v>
+      </c>
+      <c r="I73">
+        <v>5069</v>
+      </c>
+      <c r="J73" t="s">
+        <v>315</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>486</v>
+      </c>
+      <c r="B74" t="s">
+        <v>487</v>
+      </c>
+      <c r="C74">
+        <v>0.98</v>
+      </c>
+      <c r="D74">
+        <v>1.66E-2</v>
+      </c>
+      <c r="E74">
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="F74" t="s">
+        <v>215</v>
+      </c>
+      <c r="G74" t="s">
+        <v>488</v>
+      </c>
+      <c r="H74">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I74">
+        <v>382</v>
+      </c>
+      <c r="J74" t="s">
+        <v>320</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>491</v>
+      </c>
+      <c r="B75" t="s">
+        <v>492</v>
+      </c>
+      <c r="C75">
+        <v>0.95</v>
+      </c>
+      <c r="D75">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="E75">
+        <v>3.0529999999999999</v>
+      </c>
+      <c r="F75" t="s">
+        <v>215</v>
+      </c>
+      <c r="G75" t="s">
+        <v>493</v>
+      </c>
+      <c r="H75">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="I75">
+        <v>11</v>
+      </c>
+      <c r="J75" t="s">
+        <v>339</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>496</v>
+      </c>
+      <c r="B76" t="s">
+        <v>497</v>
+      </c>
+      <c r="C76">
+        <v>0.97</v>
+      </c>
+      <c r="D76">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="E76">
+        <v>3.16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>215</v>
+      </c>
+      <c r="G76" t="s">
+        <v>498</v>
+      </c>
+      <c r="H76">
+        <v>0.97</v>
+      </c>
+      <c r="I76">
+        <v>1023</v>
+      </c>
+      <c r="J76" t="s">
+        <v>326</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>501</v>
+      </c>
+      <c r="B77" t="s">
+        <v>502</v>
+      </c>
+      <c r="C77">
+        <v>0.99</v>
+      </c>
+      <c r="D77">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="E77">
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="F77" t="s">
+        <v>204</v>
+      </c>
+      <c r="G77" t="s">
+        <v>503</v>
+      </c>
+      <c r="H77">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I77">
+        <v>284</v>
+      </c>
+      <c r="J77" t="s">
+        <v>356</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>506</v>
+      </c>
+      <c r="B78" t="s">
+        <v>507</v>
+      </c>
+      <c r="C78">
+        <v>0.97</v>
+      </c>
+      <c r="D78">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="E78">
+        <v>2.73</v>
+      </c>
+      <c r="F78" t="s">
+        <v>215</v>
+      </c>
+      <c r="G78" t="s">
+        <v>508</v>
+      </c>
+      <c r="H78">
+        <v>0.97</v>
+      </c>
+      <c r="I78">
+        <v>1477</v>
+      </c>
+      <c r="J78" t="s">
+        <v>326</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -9033,6 +17898,44 @@
     <hyperlink ref="K35" r:id="rId32" xr:uid="{02A4312A-02B7-1A42-B567-00DB9639614C}"/>
     <hyperlink ref="K36" r:id="rId33" xr:uid="{1D7C0C62-2B5C-F343-9D46-0DC5D3214AD7}"/>
     <hyperlink ref="K38" r:id="rId34" xr:uid="{E9C67390-AA73-634F-AD33-4E827C3BE18A}"/>
+    <hyperlink ref="K39" r:id="rId35" xr:uid="{C7ACF2E4-ABAC-EB49-ABFC-8174BD63CA34}"/>
+    <hyperlink ref="K40" r:id="rId36" xr:uid="{B05B4BD3-8944-8943-9E61-FAF7F9B45D54}"/>
+    <hyperlink ref="K41" r:id="rId37" xr:uid="{31AC09F3-6A3E-1F43-AAB9-A46C87599EB4}"/>
+    <hyperlink ref="K42" r:id="rId38" xr:uid="{23BE583B-C70B-6541-AF98-617EEBF99FBF}"/>
+    <hyperlink ref="K43" r:id="rId39" xr:uid="{6614CA26-EB16-7843-A30D-2F8CCBB27489}"/>
+    <hyperlink ref="K44" r:id="rId40" xr:uid="{A9B5A986-4734-4A4B-B27D-849BF8B96BFD}"/>
+    <hyperlink ref="K45" r:id="rId41" xr:uid="{E75A8072-F722-0142-9FF3-2F36ECB95EA9}"/>
+    <hyperlink ref="K46" r:id="rId42" xr:uid="{27EA60F2-AC78-C744-9838-CD3561EE7342}"/>
+    <hyperlink ref="K47" r:id="rId43" xr:uid="{70AF7CA8-4BB2-D94A-B70C-59B164D20116}"/>
+    <hyperlink ref="K48" r:id="rId44" xr:uid="{5274F535-2EE3-9E41-9868-7AC2A2AEB891}"/>
+    <hyperlink ref="K49" r:id="rId45" xr:uid="{1626B833-C2B4-0C43-968F-50629D435BAD}"/>
+    <hyperlink ref="K50" r:id="rId46" xr:uid="{E2FDABBD-924F-8B4D-87E2-0AAA04CC2CD0}"/>
+    <hyperlink ref="K51" r:id="rId47" xr:uid="{6C6F9A2A-AF16-884B-96C9-839461E437B7}"/>
+    <hyperlink ref="K52" r:id="rId48" xr:uid="{7E821359-01EF-2649-85AF-40218826975A}"/>
+    <hyperlink ref="K53" r:id="rId49" xr:uid="{019A4734-C553-844D-BF9B-CCF2DC0CFAB6}"/>
+    <hyperlink ref="K54" r:id="rId50" xr:uid="{7EC81289-CE4C-C048-887D-F74F697D7CDD}"/>
+    <hyperlink ref="K55" r:id="rId51" xr:uid="{18F5D54B-A6EC-124A-8363-8E41EB408D84}"/>
+    <hyperlink ref="K56" r:id="rId52" xr:uid="{DDFE800C-B427-664B-B0F7-3650D9CD7AC5}"/>
+    <hyperlink ref="K57" r:id="rId53" xr:uid="{2D5FF2E2-07BB-924C-97FF-63D108291BB9}"/>
+    <hyperlink ref="K59" r:id="rId54" xr:uid="{7ED0108D-4AC3-904A-B399-F6AC14D091D7}"/>
+    <hyperlink ref="K60" r:id="rId55" xr:uid="{CD6C33AE-0FAB-CB4A-A68C-EBC04861755E}"/>
+    <hyperlink ref="K61" r:id="rId56" xr:uid="{36E8277E-6B93-6346-A892-FB9A40EA1BDF}"/>
+    <hyperlink ref="K62" r:id="rId57" xr:uid="{F89C4C7D-BFBF-AC4A-8593-29EC0AF423FA}"/>
+    <hyperlink ref="K63" r:id="rId58" xr:uid="{97C03C4B-44C0-D044-A510-A583484DDCD2}"/>
+    <hyperlink ref="K64" r:id="rId59" xr:uid="{15FB9B60-9D6C-B748-B465-E39073DF6FDF}"/>
+    <hyperlink ref="K66" r:id="rId60" xr:uid="{428F9136-0AC8-834B-A8FD-3F7EB82375B7}"/>
+    <hyperlink ref="K67" r:id="rId61" xr:uid="{EC76F4BF-E8F8-974A-BC5A-77D6E53076FF}"/>
+    <hyperlink ref="K68" r:id="rId62" xr:uid="{508832A3-7699-514F-9867-63059FA4EBB7}"/>
+    <hyperlink ref="K69" r:id="rId63" xr:uid="{446DD36F-28F3-1A4E-BBD1-91775D583E05}"/>
+    <hyperlink ref="K70" r:id="rId64" xr:uid="{2DA09164-9066-9944-8D52-59AA3DCE839A}"/>
+    <hyperlink ref="K71" r:id="rId65" xr:uid="{9F838F01-6DE9-7747-B829-AD6CF4E0DB06}"/>
+    <hyperlink ref="K72" r:id="rId66" xr:uid="{63A25FAA-379B-FE4A-93D0-6F128703FDB4}"/>
+    <hyperlink ref="K73" r:id="rId67" xr:uid="{AC777DCE-A497-5B4B-88F3-6E6A0D63A5D8}"/>
+    <hyperlink ref="K74" r:id="rId68" xr:uid="{2EC75B5E-EDC7-BC45-957E-B847B60C94E4}"/>
+    <hyperlink ref="K75" r:id="rId69" xr:uid="{E68ADD9C-5100-954C-886C-86EDFC31159C}"/>
+    <hyperlink ref="K76" r:id="rId70" xr:uid="{6D985E90-4202-6A4C-9A6A-7A2557C863AA}"/>
+    <hyperlink ref="K77" r:id="rId71" xr:uid="{699345CD-C122-1A45-A820-78F238001436}"/>
+    <hyperlink ref="K78" r:id="rId72" xr:uid="{18197BAE-B457-1F48-BC36-CDE1B7667B75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FishLandings/data/fishbase.xlsx
+++ b/FishLandings/data/fishbase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Kenya_SamakiSalama/FishLandings/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E4EB49-6E0E-B647-BA85-B247680C9C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAB5223-50CE-904E-B04F-A5DCD220C2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="2620" windowWidth="27720" windowHeight="16200" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
+    <workbookView xWindow="5660" yWindow="2620" windowWidth="27720" windowHeight="16200" activeTab="1" xr2:uid="{607C05E3-912F-FB47-AACE-D6546F681BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="life history" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="508">
   <si>
     <t>scientific_name</t>
   </si>
@@ -678,12 +678,6 @@
     <t>Other options if we don't want to include juvenile</t>
   </si>
   <si>
-    <t>8.0-57.0</t>
-  </si>
-  <si>
-    <t>see below as another option</t>
-  </si>
-  <si>
     <t>https://www.fishbase.se/popdyn/LWRelationshipList.php?ID=1261&amp;GenusName=Acanthurus&amp;SpeciesName=xanthopterus&amp;fc=412</t>
   </si>
   <si>
@@ -691,9 +685,6 @@
   </si>
   <si>
     <t>15.5-47.0</t>
-  </si>
-  <si>
-    <t>see above as another option</t>
   </si>
   <si>
     <t>17.2-41.5</t>
@@ -1670,10 +1661,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1991,9 +1982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27ABF6E-FCDE-A64A-8E31-FB070AB67392}">
   <dimension ref="A1:BD77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+    <sheetView zoomScale="119" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6628,10 +6619,10 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -6793,15 +6784,15 @@
         <v>116</v>
       </c>
       <c r="BD28" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -6963,15 +6954,15 @@
         <v>126</v>
       </c>
       <c r="BD29" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -7133,15 +7124,15 @@
         <v>123</v>
       </c>
       <c r="BD30" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -7303,15 +7294,15 @@
         <v>123</v>
       </c>
       <c r="BD31" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -7473,15 +7464,15 @@
         <v>123</v>
       </c>
       <c r="BD32" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -7643,15 +7634,15 @@
         <v>123</v>
       </c>
       <c r="BD33" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -7813,15 +7804,15 @@
         <v>123</v>
       </c>
       <c r="BD34" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -7983,15 +7974,15 @@
         <v>116</v>
       </c>
       <c r="BD35" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -8153,15 +8144,15 @@
         <v>116</v>
       </c>
       <c r="BD36" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B37" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -8323,15 +8314,15 @@
         <v>126</v>
       </c>
       <c r="BD37" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -8493,15 +8484,15 @@
         <v>123</v>
       </c>
       <c r="BD38" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -8663,15 +8654,15 @@
         <v>123</v>
       </c>
       <c r="BD39" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
@@ -8833,15 +8824,15 @@
         <v>123</v>
       </c>
       <c r="BD40" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -9003,18 +8994,18 @@
         <v>123</v>
       </c>
       <c r="BD41" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C42" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -9173,15 +9164,15 @@
         <v>123</v>
       </c>
       <c r="BD42" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -9343,15 +9334,15 @@
         <v>116</v>
       </c>
       <c r="BD43" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
@@ -9513,15 +9504,15 @@
         <v>123</v>
       </c>
       <c r="BD44" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
@@ -9683,15 +9674,15 @@
         <v>123</v>
       </c>
       <c r="BD45" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -9853,15 +9844,15 @@
         <v>123</v>
       </c>
       <c r="BD46" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
@@ -10023,15 +10014,15 @@
         <v>123</v>
       </c>
       <c r="BD47" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
@@ -10193,15 +10184,15 @@
         <v>123</v>
       </c>
       <c r="BD48" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C49" t="s">
         <v>37</v>
@@ -10363,15 +10354,15 @@
         <v>123</v>
       </c>
       <c r="BD49" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C50" t="s">
         <v>37</v>
@@ -10533,15 +10524,15 @@
         <v>115</v>
       </c>
       <c r="BD50" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
@@ -10703,15 +10694,15 @@
         <v>126</v>
       </c>
       <c r="BD51" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
@@ -10873,15 +10864,15 @@
         <v>123</v>
       </c>
       <c r="BD52" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
@@ -11043,15 +11034,15 @@
         <v>123</v>
       </c>
       <c r="BD53" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
@@ -11213,15 +11204,15 @@
         <v>123</v>
       </c>
       <c r="BD54" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -11383,18 +11374,18 @@
         <v>123</v>
       </c>
       <c r="BD55" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C56" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -11553,15 +11544,15 @@
         <v>123</v>
       </c>
       <c r="BD56" s="8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
@@ -11702,7 +11693,7 @@
         <v>12.6</v>
       </c>
       <c r="AW57" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AX57" t="s">
         <v>115</v>
@@ -11723,15 +11714,15 @@
         <v>177</v>
       </c>
       <c r="BD57" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
@@ -11893,15 +11884,15 @@
         <v>126</v>
       </c>
       <c r="BD58" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
@@ -12063,15 +12054,15 @@
         <v>123</v>
       </c>
       <c r="BD59" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B60" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C60" t="s">
         <v>37</v>
@@ -12233,15 +12224,15 @@
         <v>123</v>
       </c>
       <c r="BD60" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B61" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C61" t="s">
         <v>37</v>
@@ -12403,15 +12394,15 @@
         <v>116</v>
       </c>
       <c r="BD61" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B62" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C62" t="s">
         <v>37</v>
@@ -12573,15 +12564,15 @@
         <v>123</v>
       </c>
       <c r="BD62" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C63" t="s">
         <v>37</v>
@@ -12743,15 +12734,15 @@
         <v>116</v>
       </c>
       <c r="BD63" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B64" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C64" t="s">
         <v>37</v>
@@ -12913,18 +12904,18 @@
         <v>116</v>
       </c>
       <c r="BD64" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B65" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C65" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -13083,18 +13074,18 @@
         <v>123</v>
       </c>
       <c r="BD65" s="8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B66" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -13253,15 +13244,15 @@
         <v>126</v>
       </c>
       <c r="BD66" s="8" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B67" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C67" t="s">
         <v>37</v>
@@ -13423,15 +13414,15 @@
         <v>123</v>
       </c>
       <c r="BD67" s="8" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C68" t="s">
         <v>37</v>
@@ -13593,15 +13584,15 @@
         <v>123</v>
       </c>
       <c r="BD68" s="8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B69" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C69" t="s">
         <v>37</v>
@@ -13763,15 +13754,15 @@
         <v>123</v>
       </c>
       <c r="BD69" s="8" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C70" t="s">
         <v>37</v>
@@ -13933,15 +13924,15 @@
         <v>115</v>
       </c>
       <c r="BD70" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B71" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C71" t="s">
         <v>37</v>
@@ -14103,18 +14094,18 @@
         <v>126</v>
       </c>
       <c r="BD71" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C72" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -14273,15 +14264,15 @@
         <v>116</v>
       </c>
       <c r="BD72" s="8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B73" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C73" t="s">
         <v>37</v>
@@ -14443,15 +14434,15 @@
         <v>123</v>
       </c>
       <c r="BD73" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B74" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C74" t="s">
         <v>37</v>
@@ -14592,7 +14583,7 @@
         <v>12.6</v>
       </c>
       <c r="AW74" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AX74" t="s">
         <v>115</v>
@@ -14613,15 +14604,15 @@
         <v>177</v>
       </c>
       <c r="BD74" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B75" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C75" t="s">
         <v>37</v>
@@ -14783,15 +14774,15 @@
         <v>116</v>
       </c>
       <c r="BD75" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="76" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B76" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C76" t="s">
         <v>37</v>
@@ -14953,15 +14944,15 @@
         <v>123</v>
       </c>
       <c r="BD76" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B77" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C77" t="s">
         <v>37</v>
@@ -15123,7 +15114,7 @@
         <v>123</v>
       </c>
       <c r="BD77" s="8" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -15211,11 +15202,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8401CC-45AA-794F-825D-4F3F9F3C5EA7}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15335,1804 +15326,1801 @@
         <v>125</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D4">
-        <v>2.673E-2</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="E4">
-        <v>2.984</v>
+        <v>2.83</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4">
+        <v>0.98</v>
+      </c>
+      <c r="I4">
+        <v>991</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="H4">
-        <v>0.998</v>
-      </c>
-      <c r="I4">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C5">
         <v>0.98</v>
       </c>
       <c r="D5">
-        <v>4.5900000000000003E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="E5">
-        <v>2.83</v>
+        <v>3.14</v>
       </c>
       <c r="F5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" t="s">
         <v>215</v>
-      </c>
-      <c r="G5" t="s">
-        <v>216</v>
       </c>
       <c r="H5">
         <v>0.98</v>
       </c>
       <c r="I5">
-        <v>991</v>
-      </c>
-      <c r="J5" t="s">
-        <v>217</v>
+        <v>662</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C6">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="D6">
-        <v>1.17E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E6">
-        <v>3.14</v>
+        <v>2.96</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I6">
+        <v>257</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="H6">
-        <v>0.98</v>
-      </c>
-      <c r="I6">
-        <v>662</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C7">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="D7">
-        <v>1.7000000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>2.96</v>
+        <v>2.91</v>
       </c>
       <c r="F7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I7">
+        <v>594</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="H7">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="I7">
-        <v>257</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C8">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="D8">
-        <v>2.1000000000000001E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="E8">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="F8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8">
+        <v>0.97</v>
+      </c>
+      <c r="I8">
+        <v>813</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="G8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="I8">
-        <v>594</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9">
-        <v>0.97</v>
-      </c>
-      <c r="D9">
-        <v>1.84E-2</v>
-      </c>
-      <c r="E9">
-        <v>2.94</v>
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="H9">
-        <v>0.97</v>
-      </c>
-      <c r="I9">
-        <v>813</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" t="s">
-        <v>115</v>
+        <v>149</v>
+      </c>
+      <c r="C10">
+        <v>0.99</v>
+      </c>
+      <c r="D10">
+        <v>1.7010000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>3.0419999999999998</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I10">
+        <v>111</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C11">
         <v>0.99</v>
       </c>
       <c r="D11">
-        <v>1.7010000000000001E-2</v>
+        <v>1.8710000000000001E-2</v>
       </c>
       <c r="E11">
-        <v>3.0419999999999998</v>
+        <v>2.996</v>
       </c>
       <c r="F11" t="s">
         <v>204</v>
       </c>
       <c r="G11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I11">
+        <v>2980</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="H11">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="I11">
-        <v>111</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12">
         <v>0.99</v>
       </c>
       <c r="D12">
-        <v>1.8710000000000001E-2</v>
+        <v>2.0480000000000002E-2</v>
       </c>
       <c r="E12">
-        <v>2.996</v>
+        <v>2.96</v>
       </c>
       <c r="F12" t="s">
         <v>204</v>
       </c>
       <c r="G12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I12">
+        <v>867</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="H12">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="I12">
-        <v>2980</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C13">
         <v>0.99</v>
       </c>
       <c r="D13">
-        <v>2.0480000000000002E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E13">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="F13" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13">
+        <v>0.99</v>
+      </c>
+      <c r="I13">
+        <v>1581</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="H13">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="I13">
-        <v>867</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C14">
         <v>0.99</v>
       </c>
       <c r="D14">
-        <v>4.2999999999999997E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="E14">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="F14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H14">
         <v>0.99</v>
       </c>
       <c r="I14">
-        <v>1581</v>
+        <v>2798</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C15">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D15">
-        <v>1.38E-2</v>
+        <v>5.1029999999999999E-2</v>
       </c>
       <c r="E15">
-        <v>3.05</v>
+        <v>2.7149999999999999</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G15" t="s">
+        <v>235</v>
+      </c>
+      <c r="H15">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="H15">
-        <v>0.99</v>
-      </c>
-      <c r="I15">
-        <v>2798</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C16">
         <v>0.98</v>
       </c>
       <c r="D16">
-        <v>5.1029999999999999E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="E16">
-        <v>2.7149999999999999</v>
+        <v>2.99</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16">
+        <v>0.98</v>
+      </c>
+      <c r="I16">
+        <v>143</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="H16">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="I16">
-        <v>9</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C17">
         <v>0.98</v>
       </c>
       <c r="D17">
-        <v>1.89E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="E17">
-        <v>2.99</v>
+        <v>3.0779999999999998</v>
       </c>
       <c r="F17" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I17">
+        <v>522</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="H17">
-        <v>0.98</v>
-      </c>
-      <c r="I17">
-        <v>143</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C18">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="D18">
-        <v>1.6899999999999998E-2</v>
+        <v>5.4599999999999996E-3</v>
       </c>
       <c r="E18">
-        <v>3.0779999999999998</v>
+        <v>3.2970000000000002</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G18" t="s">
+        <v>241</v>
+      </c>
+      <c r="H18">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="I18">
+        <v>371</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="H18">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="I18">
-        <v>522</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19">
-        <v>0.94</v>
-      </c>
-      <c r="D19">
-        <v>5.4599999999999996E-3</v>
-      </c>
-      <c r="E19">
-        <v>3.2970000000000002</v>
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>244</v>
-      </c>
-      <c r="H19">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="I19">
-        <v>371</v>
+        <v>115</v>
+      </c>
+      <c r="H19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" t="s">
+        <v>223</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" t="s">
-        <v>115</v>
+        <v>174</v>
+      </c>
+      <c r="C20">
+        <v>0.86</v>
+      </c>
+      <c r="D20">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E20">
+        <v>2.75</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" t="s">
-        <v>115</v>
+        <v>244</v>
+      </c>
+      <c r="H20">
+        <v>0.86</v>
       </c>
       <c r="I20" t="s">
         <v>115</v>
       </c>
-      <c r="J20" t="s">
-        <v>226</v>
-      </c>
       <c r="K20" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21">
-        <v>0.86</v>
-      </c>
-      <c r="D21">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E21">
-        <v>2.75</v>
+        <v>176</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
-        <v>247</v>
-      </c>
-      <c r="H21">
-        <v>0.86</v>
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
+        <v>115</v>
       </c>
       <c r="I21" t="s">
         <v>115</v>
       </c>
+      <c r="J21" t="s">
+        <v>223</v>
+      </c>
       <c r="K21" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" t="s">
-        <v>115</v>
+        <v>179</v>
+      </c>
+      <c r="C22">
+        <v>0.89</v>
+      </c>
+      <c r="D22">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E22">
+        <v>3.04</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" t="s">
-        <v>226</v>
+        <v>247</v>
+      </c>
+      <c r="H22">
+        <v>0.89</v>
+      </c>
+      <c r="I22">
+        <v>29</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C23">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="D23">
-        <v>1.26E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="E23">
-        <v>3.04</v>
+        <v>3.0409999999999999</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
+        <v>249</v>
+      </c>
+      <c r="H23">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I23">
+        <v>247</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="H23">
-        <v>0.89</v>
-      </c>
-      <c r="I23">
-        <v>29</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C24">
         <v>0.99</v>
       </c>
       <c r="D24">
-        <v>1.6500000000000001E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="E24">
-        <v>3.0409999999999999</v>
+        <v>3.18</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H24">
+        <v>0.99</v>
+      </c>
+      <c r="I24">
+        <v>4570</v>
+      </c>
+      <c r="K24" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="H24">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="I24">
-        <v>247</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C25">
         <v>0.99</v>
       </c>
       <c r="D25">
-        <v>1.15E-2</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="E25">
-        <v>3.18</v>
+        <v>3.1070000000000002</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
+        <v>253</v>
+      </c>
+      <c r="H25">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I25">
+        <v>67</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="H25">
-        <v>0.99</v>
-      </c>
-      <c r="I25">
-        <v>4570</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C26">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="D26">
-        <v>1.9900000000000001E-2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="E26">
-        <v>3.1070000000000002</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H26">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I26">
+        <v>736</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="H26">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="I26">
-        <v>67</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C27">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>3.2800000000000003E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="E27">
-        <v>2.7160000000000002</v>
+        <v>2.97</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G27" t="s">
+        <v>257</v>
+      </c>
+      <c r="H27">
+        <v>0.997</v>
+      </c>
+      <c r="I27">
+        <v>5260</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="H27">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="I27">
-        <v>736</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D28">
-        <v>1.4800000000000001E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E28">
-        <v>2.97</v>
+        <v>3.278</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="H28">
-        <v>0.997</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="I28">
-        <v>5260</v>
+        <v>140</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
-      </c>
-      <c r="C29">
-        <v>0.98</v>
-      </c>
-      <c r="D29">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="E29">
-        <v>3.278</v>
+        <v>273</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>274</v>
-      </c>
-      <c r="H29">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="I29">
-        <v>140</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>275</v>
+        <v>115</v>
+      </c>
+      <c r="H29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" t="s">
-        <v>115</v>
+        <v>275</v>
+      </c>
+      <c r="C30">
+        <v>0.99</v>
+      </c>
+      <c r="D30">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="E30">
+        <v>2.9529999999999998</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" t="s">
-        <v>115</v>
-      </c>
-      <c r="J30" t="s">
-        <v>226</v>
+        <v>279</v>
+      </c>
+      <c r="H30">
+        <v>0.99</v>
+      </c>
+      <c r="I30">
+        <v>74</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s">
-        <v>278</v>
-      </c>
-      <c r="C31">
-        <v>0.99</v>
-      </c>
-      <c r="D31">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="E31">
-        <v>2.9529999999999998</v>
+        <v>277</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
       </c>
       <c r="F31" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="G31" t="s">
-        <v>282</v>
-      </c>
-      <c r="H31">
-        <v>0.99</v>
-      </c>
-      <c r="I31">
-        <v>74</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>283</v>
+        <v>115</v>
+      </c>
+      <c r="H31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s">
-        <v>280</v>
-      </c>
-      <c r="C32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" t="s">
-        <v>115</v>
+        <v>281</v>
+      </c>
+      <c r="C32">
+        <v>0.98</v>
+      </c>
+      <c r="D32">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E32">
+        <v>3.077</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>287</v>
       </c>
       <c r="G32" t="s">
         <v>115</v>
       </c>
-      <c r="H32" t="s">
-        <v>115</v>
-      </c>
-      <c r="I32" t="s">
-        <v>115</v>
-      </c>
-      <c r="J32" t="s">
-        <v>226</v>
+      <c r="H32">
+        <v>0.98</v>
+      </c>
+      <c r="I32">
+        <v>76</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C33">
         <v>0.98</v>
       </c>
       <c r="D33">
-        <v>1.6E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E33">
-        <v>3.077</v>
+        <v>2.92</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="G33" t="s">
-        <v>115</v>
+        <v>285</v>
       </c>
       <c r="H33">
-        <v>0.98</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="I33">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C34">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="D34">
-        <v>1.7999999999999999E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="E34">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="F34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G34" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H34">
-        <v>0.98199999999999998</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="I34">
-        <v>323</v>
+        <v>16</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C35">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="D35">
-        <v>3.9800000000000002E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="E35">
-        <v>2.86</v>
+        <v>3.14</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H35">
-        <v>0.95099999999999996</v>
+        <v>0.97</v>
       </c>
       <c r="I35">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s">
-        <v>296</v>
-      </c>
-      <c r="C36">
-        <v>0.97</v>
-      </c>
-      <c r="D36">
-        <v>1.41E-2</v>
-      </c>
-      <c r="E36">
-        <v>3.14</v>
+        <v>297</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
       </c>
       <c r="F36" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
-        <v>298</v>
-      </c>
-      <c r="H36">
-        <v>0.97</v>
-      </c>
-      <c r="I36">
-        <v>209</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>299</v>
+        <v>115</v>
+      </c>
+      <c r="H36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B37" t="s">
-        <v>300</v>
-      </c>
-      <c r="C37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" t="s">
-        <v>115</v>
+        <v>299</v>
+      </c>
+      <c r="C37">
+        <v>0.99</v>
+      </c>
+      <c r="D37">
+        <v>4.41E-2</v>
+      </c>
+      <c r="E37">
+        <v>2.597</v>
       </c>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="G37" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" t="s">
-        <v>115</v>
-      </c>
-      <c r="J37" t="s">
-        <v>226</v>
+        <v>301</v>
+      </c>
+      <c r="H37">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I37">
+        <v>64</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C38">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D38">
-        <v>4.41E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="E38">
-        <v>2.597</v>
+        <v>2.95</v>
       </c>
       <c r="F38" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>115</v>
       </c>
       <c r="H38">
-        <v>0.98899999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="I38">
-        <v>64</v>
+        <v>413</v>
+      </c>
+      <c r="J38" t="s">
+        <v>305</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C39">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="D39">
-        <v>1.66E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="E39">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="F39" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G39" t="s">
-        <v>115</v>
+        <v>311</v>
       </c>
       <c r="H39">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="I39">
-        <v>413</v>
+        <v>2662</v>
       </c>
       <c r="J39" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C40">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="D40">
-        <v>1.1900000000000001E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="E40">
-        <v>3.1</v>
+        <v>2.8769999999999998</v>
       </c>
       <c r="F40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G40" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H40">
-        <v>0.95</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="I40">
-        <v>2662</v>
+        <v>117</v>
       </c>
       <c r="J40" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C41">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D41">
-        <v>2.29E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="E41">
-        <v>2.8769999999999998</v>
+        <v>3.01</v>
       </c>
       <c r="F41" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G41" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H41">
-        <v>0.97799999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="I41">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="J41" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>2.1700000000000001E-2</v>
+        <v>4.24E-2</v>
       </c>
       <c r="E42">
-        <v>3.01</v>
+        <v>2.8540000000000001</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G42" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H42">
-        <v>0.99</v>
+        <v>0.998</v>
       </c>
       <c r="I42">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="J42" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="D43">
-        <v>4.24E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E43">
-        <v>2.8540000000000001</v>
+        <v>2.95</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G43" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H43">
-        <v>0.998</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="I43">
-        <v>61</v>
+        <v>488</v>
       </c>
       <c r="J43" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C44">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="D44">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="E44">
-        <v>2.95</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="F44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G44" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H44">
-        <v>0.93799999999999994</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="I44">
-        <v>488</v>
+        <v>365</v>
       </c>
       <c r="J44" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C45">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>3.3599999999999998E-2</v>
+        <v>1.0869999999999999E-2</v>
       </c>
       <c r="E45">
-        <v>2.7919999999999998</v>
+        <v>3.06</v>
       </c>
       <c r="F45" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G45" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H45">
-        <v>0.98599999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="I45">
-        <v>365</v>
+        <v>2112</v>
       </c>
       <c r="J45" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D46">
-        <v>1.0869999999999999E-2</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="E46">
-        <v>3.06</v>
+        <v>2.99</v>
       </c>
       <c r="F46" t="s">
         <v>204</v>
       </c>
       <c r="G46" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H46">
-        <v>0.995</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="I46">
-        <v>2112</v>
+        <v>440</v>
       </c>
       <c r="J46" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C47">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="D47">
-        <v>1.9900000000000001E-2</v>
+        <v>2.47E-2</v>
       </c>
       <c r="E47">
-        <v>2.99</v>
+        <v>3.1059999999999999</v>
       </c>
       <c r="F47" t="s">
         <v>204</v>
       </c>
       <c r="G47" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H47">
-        <v>0.95599999999999996</v>
+        <v>0.98</v>
       </c>
       <c r="I47">
-        <v>440</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C48">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="D48">
-        <v>2.47E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="E48">
-        <v>3.1059999999999999</v>
+        <v>2.88</v>
       </c>
       <c r="F48" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G48" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H48">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="I48">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="J48" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C49">
-        <v>0.94</v>
+        <v>0.98</v>
       </c>
       <c r="D49">
-        <v>2.8799999999999999E-2</v>
+        <v>3.78E-2</v>
       </c>
       <c r="E49">
-        <v>2.88</v>
+        <v>2.8889999999999998</v>
       </c>
       <c r="F49" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G49" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H49">
-        <v>0.94</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="I49">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="J49" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C50">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D50">
-        <v>3.78E-2</v>
+        <v>4.2410000000000003E-2</v>
       </c>
       <c r="E50">
-        <v>2.8889999999999998</v>
+        <v>2.7410000000000001</v>
       </c>
       <c r="F50" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G50" t="s">
-        <v>372</v>
+        <v>115</v>
       </c>
       <c r="H50">
-        <v>0.98299999999999998</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C51">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D51">
-        <v>4.2410000000000003E-2</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="E51">
-        <v>2.7410000000000001</v>
+        <v>3.11</v>
       </c>
       <c r="F51" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G51" t="s">
-        <v>115</v>
+        <v>378</v>
       </c>
       <c r="H51">
-        <v>0.98699999999999999</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="I51">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C52">
         <v>0.98</v>
       </c>
       <c r="D52">
-        <v>2.4899999999999999E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="E52">
-        <v>3.11</v>
+        <v>2.91</v>
       </c>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H52">
-        <v>0.98199999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="I52">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="J52" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C53">
         <v>0.98</v>
       </c>
       <c r="D53">
-        <v>2.2800000000000001E-2</v>
+        <v>2.9499999999999999E-3</v>
       </c>
       <c r="E53">
-        <v>2.91</v>
+        <v>3.2389999999999999</v>
       </c>
       <c r="F53" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G53" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H53">
-        <v>0.98</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="I53">
-        <v>113</v>
+        <v>1387</v>
       </c>
       <c r="J53" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C54">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D54">
-        <v>2.9499999999999999E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E54">
-        <v>3.2389999999999999</v>
+        <v>3.01</v>
       </c>
       <c r="F54" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G54" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H54">
-        <v>0.98299999999999998</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="I54">
-        <v>1387</v>
+        <v>197</v>
       </c>
       <c r="J54" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C55">
         <v>0.99</v>
       </c>
       <c r="D55">
-        <v>4.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="E55">
-        <v>3.01</v>
+        <v>2.93</v>
       </c>
       <c r="F55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G55" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H55">
-        <v>0.99199999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="I55">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="J55" t="s">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C56">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="D56">
-        <v>0.02</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="E56">
-        <v>2.93</v>
+        <v>2.8</v>
       </c>
       <c r="F56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G56" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H56">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="I56">
-        <v>272</v>
+        <v>2296</v>
       </c>
       <c r="J56" t="s">
-        <v>403</v>
+        <v>312</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s">
-        <v>407</v>
-      </c>
-      <c r="C57">
-        <v>0.96</v>
-      </c>
-      <c r="D57">
-        <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="E57">
-        <v>2.8</v>
+        <v>409</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="s">
+        <v>115</v>
       </c>
       <c r="F57" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="G57" t="s">
-        <v>408</v>
-      </c>
-      <c r="H57">
-        <v>0.96</v>
-      </c>
-      <c r="I57">
-        <v>2296</v>
+        <v>115</v>
+      </c>
+      <c r="H57" t="s">
+        <v>115</v>
+      </c>
+      <c r="I57" t="s">
+        <v>115</v>
       </c>
       <c r="J57" t="s">
-        <v>315</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>409</v>
+        <v>411</v>
+      </c>
+      <c r="K57" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C58" t="s">
         <v>115</v>
@@ -17158,16 +17146,16 @@
       <c r="J58" t="s">
         <v>414</v>
       </c>
-      <c r="K58" t="s">
-        <v>115</v>
+      <c r="K58" s="8" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C59" t="s">
         <v>115</v>
@@ -17191,751 +17179,715 @@
         <v>115</v>
       </c>
       <c r="J59" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B60" t="s">
-        <v>421</v>
-      </c>
-      <c r="C60" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" t="s">
-        <v>115</v>
+        <v>422</v>
+      </c>
+      <c r="C60">
+        <v>0.99</v>
+      </c>
+      <c r="D60">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="E60">
+        <v>3.01</v>
       </c>
       <c r="F60" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="G60" t="s">
-        <v>115</v>
-      </c>
-      <c r="H60" t="s">
-        <v>115</v>
-      </c>
-      <c r="I60" t="s">
-        <v>115</v>
+        <v>423</v>
+      </c>
+      <c r="H60">
+        <v>0.99</v>
+      </c>
+      <c r="I60">
+        <v>2737</v>
       </c>
       <c r="J60" t="s">
-        <v>417</v>
+        <v>323</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B61" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C61">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D61">
-        <v>1.7500000000000002E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="E61">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="F61" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G61" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H61">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="I61">
-        <v>2737</v>
+        <v>1264</v>
       </c>
       <c r="J61" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B62" t="s">
-        <v>430</v>
-      </c>
-      <c r="C62">
-        <v>0.95</v>
-      </c>
-      <c r="D62">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="E62">
-        <v>3.04</v>
+        <v>432</v>
+      </c>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" t="s">
+        <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="G62" t="s">
-        <v>431</v>
-      </c>
-      <c r="H62">
-        <v>0.95</v>
-      </c>
-      <c r="I62">
-        <v>1264</v>
+        <v>115</v>
+      </c>
+      <c r="H62" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62" t="s">
+        <v>115</v>
       </c>
       <c r="J62" t="s">
-        <v>315</v>
+        <v>414</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s">
-        <v>435</v>
-      </c>
-      <c r="C63" t="s">
-        <v>115</v>
-      </c>
-      <c r="D63" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" t="s">
-        <v>115</v>
+        <v>436</v>
+      </c>
+      <c r="C63">
+        <v>0.96</v>
+      </c>
+      <c r="D63">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="E63">
+        <v>3.06</v>
       </c>
       <c r="F63" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="G63" t="s">
-        <v>115</v>
-      </c>
-      <c r="H63" t="s">
-        <v>115</v>
-      </c>
-      <c r="I63" t="s">
-        <v>115</v>
+        <v>437</v>
+      </c>
+      <c r="H63">
+        <v>0.96</v>
+      </c>
+      <c r="I63">
+        <v>1960</v>
       </c>
       <c r="J63" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B64" t="s">
-        <v>439</v>
-      </c>
-      <c r="C64">
-        <v>0.96</v>
-      </c>
-      <c r="D64">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="E64">
-        <v>3.06</v>
+        <v>441</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" t="s">
+        <v>115</v>
       </c>
       <c r="F64" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="G64" t="s">
-        <v>440</v>
-      </c>
-      <c r="H64">
-        <v>0.96</v>
-      </c>
-      <c r="I64">
-        <v>1960</v>
+        <v>115</v>
+      </c>
+      <c r="H64" t="s">
+        <v>115</v>
+      </c>
+      <c r="I64" t="s">
+        <v>115</v>
       </c>
       <c r="J64" t="s">
-        <v>403</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>441</v>
+        <v>411</v>
+      </c>
+      <c r="K64" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="9" t="s">
         <v>443</v>
       </c>
       <c r="B65" t="s">
         <v>444</v>
       </c>
-      <c r="C65" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" t="s">
-        <v>115</v>
+      <c r="C65">
+        <v>0.99</v>
+      </c>
+      <c r="D65">
+        <v>1.4409999999999999E-2</v>
+      </c>
+      <c r="E65">
+        <v>2.988</v>
       </c>
       <c r="F65" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="G65" t="s">
-        <v>115</v>
-      </c>
-      <c r="H65" t="s">
-        <v>115</v>
-      </c>
-      <c r="I65" t="s">
-        <v>115</v>
+        <v>445</v>
+      </c>
+      <c r="H65">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I65">
+        <v>547</v>
       </c>
       <c r="J65" t="s">
-        <v>414</v>
-      </c>
-      <c r="K65" t="s">
-        <v>115</v>
+        <v>317</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
-        <v>446</v>
+      <c r="A66" t="s">
+        <v>448</v>
       </c>
       <c r="B66" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C66">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="D66">
-        <v>1.4409999999999999E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="E66">
-        <v>2.988</v>
+        <v>3.21</v>
       </c>
       <c r="F66" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G66" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H66">
-        <v>0.99399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="I66">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="J66" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B67" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C67">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="D67">
-        <v>1.5100000000000001E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="E67">
-        <v>3.21</v>
+        <v>3.06</v>
       </c>
       <c r="F67" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G67" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H67">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="I67">
-        <v>614</v>
+        <v>1192</v>
       </c>
       <c r="J67" t="s">
-        <v>315</v>
+        <v>400</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C68">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="D68">
-        <v>1.6500000000000001E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="E68">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="F68" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G68" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H68">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="I68">
-        <v>1192</v>
+        <v>177</v>
       </c>
       <c r="J68" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B69" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C69">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="D69">
-        <v>2.52E-2</v>
+        <v>6.5299999999999997E-2</v>
       </c>
       <c r="E69">
-        <v>3.03</v>
+        <v>2.68</v>
       </c>
       <c r="F69" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G69" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H69">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="I69">
-        <v>177</v>
+        <v>895</v>
       </c>
       <c r="J69" t="s">
-        <v>464</v>
+        <v>323</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C70">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D70">
-        <v>6.5299999999999997E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="E70">
-        <v>2.68</v>
+        <v>3.0750000000000002</v>
       </c>
       <c r="F70" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G70" t="s">
-        <v>469</v>
+        <v>115</v>
       </c>
       <c r="H70">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="I70">
-        <v>895</v>
+        <v>127</v>
       </c>
       <c r="J70" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B71" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C71">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="D71">
-        <v>1.38E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="E71">
-        <v>3.0750000000000002</v>
+        <v>3.036</v>
       </c>
       <c r="F71" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G71" t="s">
-        <v>115</v>
+        <v>475</v>
       </c>
       <c r="H71">
-        <v>0.98</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="I71">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="J71" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B72" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C72">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="D72">
-        <v>4.4900000000000002E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="E72">
-        <v>3.036</v>
+        <v>2.85</v>
       </c>
       <c r="F72" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G72" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H72">
-        <v>0.92700000000000005</v>
+        <v>0.99</v>
       </c>
       <c r="I72">
-        <v>12</v>
+        <v>5069</v>
       </c>
       <c r="J72" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B73" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C73">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D73">
-        <v>3.2899999999999999E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="E73">
-        <v>2.85</v>
+        <v>2.9889999999999999</v>
       </c>
       <c r="F73" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G73" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H73">
-        <v>0.99</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="I73">
-        <v>5069</v>
+        <v>382</v>
       </c>
       <c r="J73" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B74" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C74">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="D74">
-        <v>1.66E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="E74">
-        <v>2.9889999999999999</v>
+        <v>3.0529999999999999</v>
       </c>
       <c r="F74" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G74" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H74">
-        <v>0.97599999999999998</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="I74">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="J74" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B75" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C75">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="D75">
-        <v>2.5399999999999999E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="E75">
-        <v>3.0529999999999999</v>
+        <v>3.16</v>
       </c>
       <c r="F75" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G75" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H75">
-        <v>0.95099999999999996</v>
+        <v>0.97</v>
       </c>
       <c r="I75">
-        <v>11</v>
+        <v>1023</v>
       </c>
       <c r="J75" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B76" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C76">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="D76">
-        <v>1.3100000000000001E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="E76">
-        <v>3.16</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="F76" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G76" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H76">
-        <v>0.97</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="I76">
-        <v>1023</v>
+        <v>284</v>
       </c>
       <c r="J76" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B77" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C77">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="D77">
-        <v>1.7500000000000002E-2</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="E77">
-        <v>2.8559999999999999</v>
+        <v>2.73</v>
       </c>
       <c r="F77" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G77" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H77">
-        <v>0.98899999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="I77">
-        <v>284</v>
+        <v>1477</v>
       </c>
       <c r="J77" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
         <v>506</v>
-      </c>
-      <c r="B78" t="s">
-        <v>507</v>
-      </c>
-      <c r="C78">
-        <v>0.97</v>
-      </c>
-      <c r="D78">
-        <v>4.5100000000000001E-2</v>
-      </c>
-      <c r="E78">
-        <v>2.73</v>
-      </c>
-      <c r="F78" t="s">
-        <v>215</v>
-      </c>
-      <c r="G78" t="s">
-        <v>508</v>
-      </c>
-      <c r="H78">
-        <v>0.97</v>
-      </c>
-      <c r="I78">
-        <v>1477</v>
-      </c>
-      <c r="J78" t="s">
-        <v>326</v>
-      </c>
-      <c r="K78" s="8" t="s">
-        <v>509</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{8F4D621E-43EB-8D4E-BA81-9914764DC562}"/>
     <hyperlink ref="K2" r:id="rId2" xr:uid="{CE0D795E-CBC3-5640-93F2-6E4183A062AF}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{73838D47-2FDD-8446-8BB3-D615A72952CE}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{E05ECAFE-EAAD-804F-98F6-A103E3271EAE}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{F6622A8C-B6A1-C542-B272-FAF2E977DB6D}"/>
-    <hyperlink ref="K7" r:id="rId6" xr:uid="{8CE69DF3-9219-214A-8677-6A78425CE6D5}"/>
-    <hyperlink ref="K8" r:id="rId7" xr:uid="{4C76DB39-A4EA-DC46-ADFC-94F6DE2AE7E4}"/>
-    <hyperlink ref="K9" r:id="rId8" xr:uid="{EAEA16B5-E4FD-9246-9EE1-C5E83C0DBC13}"/>
-    <hyperlink ref="K10" r:id="rId9" xr:uid="{58CC5ABB-F6C1-3542-9CDD-664A51EA1FF7}"/>
-    <hyperlink ref="K11" r:id="rId10" xr:uid="{D7E2D995-CAD7-9446-8AB5-44D79FC12E63}"/>
-    <hyperlink ref="K12" r:id="rId11" xr:uid="{7ABEB231-E5EC-024C-97CD-C17C17AA70FD}"/>
-    <hyperlink ref="K13" r:id="rId12" xr:uid="{8830493F-C047-B94C-BF49-0226AA9CC3C9}"/>
-    <hyperlink ref="K14" r:id="rId13" xr:uid="{E1A2C3C4-4B25-1040-A684-1001F70BF156}"/>
-    <hyperlink ref="K15" r:id="rId14" xr:uid="{E6C0A7D3-87F6-FF44-96C5-A67CD705F916}"/>
-    <hyperlink ref="K16" r:id="rId15" xr:uid="{FF8E2AD6-A5E6-F341-B898-B1D37144D670}"/>
-    <hyperlink ref="K17" r:id="rId16" xr:uid="{E41F6D15-7783-464F-961C-1FF851DFC485}"/>
-    <hyperlink ref="K18" r:id="rId17" xr:uid="{14E2620E-B61D-524F-BB98-4B64C3D6A21A}"/>
-    <hyperlink ref="K19" r:id="rId18" xr:uid="{EFB83752-E9E9-8645-82F8-ED6C5AAB5636}"/>
-    <hyperlink ref="K20" r:id="rId19" xr:uid="{F41C14F0-2848-2045-BF70-4E39EB33DAF3}"/>
-    <hyperlink ref="K21" r:id="rId20" xr:uid="{D9956A9E-F0CC-F245-9425-6783DF44E2EB}"/>
-    <hyperlink ref="K22" r:id="rId21" xr:uid="{4B030049-A4C8-4642-865C-EB8D8ED9CED2}"/>
-    <hyperlink ref="K23" r:id="rId22" xr:uid="{2409C74E-7543-D949-8CC7-8886087BE2B8}"/>
-    <hyperlink ref="K24" r:id="rId23" xr:uid="{6365C9B9-0714-1F4F-8CFC-385934885BC0}"/>
-    <hyperlink ref="K25" r:id="rId24" xr:uid="{810518F6-D776-744B-B653-45FE7E0B0654}"/>
-    <hyperlink ref="K26" r:id="rId25" xr:uid="{339C461A-9B2A-3042-81B0-713633982DD9}"/>
-    <hyperlink ref="K27" r:id="rId26" xr:uid="{80F7FB94-CB99-7F4F-89EC-A0676B20F509}"/>
-    <hyperlink ref="K28" r:id="rId27" xr:uid="{0018D18B-4CF2-F643-9FF2-61C2355BF2C6}"/>
-    <hyperlink ref="K29" r:id="rId28" xr:uid="{8E9151CE-32D9-C24B-AF38-7000C6F984F9}"/>
-    <hyperlink ref="K31" r:id="rId29" xr:uid="{F38C22EA-7CFC-8C40-ADE9-F891EB158215}"/>
-    <hyperlink ref="K34" r:id="rId30" xr:uid="{CC867BD3-8EF6-9D48-B207-17DA1A4F9334}"/>
-    <hyperlink ref="K33" r:id="rId31" xr:uid="{006C10E8-3F87-5543-A5CA-F6E79A0ED450}"/>
-    <hyperlink ref="K35" r:id="rId32" xr:uid="{02A4312A-02B7-1A42-B567-00DB9639614C}"/>
-    <hyperlink ref="K36" r:id="rId33" xr:uid="{1D7C0C62-2B5C-F343-9D46-0DC5D3214AD7}"/>
-    <hyperlink ref="K38" r:id="rId34" xr:uid="{E9C67390-AA73-634F-AD33-4E827C3BE18A}"/>
-    <hyperlink ref="K39" r:id="rId35" xr:uid="{C7ACF2E4-ABAC-EB49-ABFC-8174BD63CA34}"/>
-    <hyperlink ref="K40" r:id="rId36" xr:uid="{B05B4BD3-8944-8943-9E61-FAF7F9B45D54}"/>
-    <hyperlink ref="K41" r:id="rId37" xr:uid="{31AC09F3-6A3E-1F43-AAB9-A46C87599EB4}"/>
-    <hyperlink ref="K42" r:id="rId38" xr:uid="{23BE583B-C70B-6541-AF98-617EEBF99FBF}"/>
-    <hyperlink ref="K43" r:id="rId39" xr:uid="{6614CA26-EB16-7843-A30D-2F8CCBB27489}"/>
-    <hyperlink ref="K44" r:id="rId40" xr:uid="{A9B5A986-4734-4A4B-B27D-849BF8B96BFD}"/>
-    <hyperlink ref="K45" r:id="rId41" xr:uid="{E75A8072-F722-0142-9FF3-2F36ECB95EA9}"/>
-    <hyperlink ref="K46" r:id="rId42" xr:uid="{27EA60F2-AC78-C744-9838-CD3561EE7342}"/>
-    <hyperlink ref="K47" r:id="rId43" xr:uid="{70AF7CA8-4BB2-D94A-B70C-59B164D20116}"/>
-    <hyperlink ref="K48" r:id="rId44" xr:uid="{5274F535-2EE3-9E41-9868-7AC2A2AEB891}"/>
-    <hyperlink ref="K49" r:id="rId45" xr:uid="{1626B833-C2B4-0C43-968F-50629D435BAD}"/>
-    <hyperlink ref="K50" r:id="rId46" xr:uid="{E2FDABBD-924F-8B4D-87E2-0AAA04CC2CD0}"/>
-    <hyperlink ref="K51" r:id="rId47" xr:uid="{6C6F9A2A-AF16-884B-96C9-839461E437B7}"/>
-    <hyperlink ref="K52" r:id="rId48" xr:uid="{7E821359-01EF-2649-85AF-40218826975A}"/>
-    <hyperlink ref="K53" r:id="rId49" xr:uid="{019A4734-C553-844D-BF9B-CCF2DC0CFAB6}"/>
-    <hyperlink ref="K54" r:id="rId50" xr:uid="{7EC81289-CE4C-C048-887D-F74F697D7CDD}"/>
-    <hyperlink ref="K55" r:id="rId51" xr:uid="{18F5D54B-A6EC-124A-8363-8E41EB408D84}"/>
-    <hyperlink ref="K56" r:id="rId52" xr:uid="{DDFE800C-B427-664B-B0F7-3650D9CD7AC5}"/>
-    <hyperlink ref="K57" r:id="rId53" xr:uid="{2D5FF2E2-07BB-924C-97FF-63D108291BB9}"/>
-    <hyperlink ref="K59" r:id="rId54" xr:uid="{7ED0108D-4AC3-904A-B399-F6AC14D091D7}"/>
-    <hyperlink ref="K60" r:id="rId55" xr:uid="{CD6C33AE-0FAB-CB4A-A68C-EBC04861755E}"/>
-    <hyperlink ref="K61" r:id="rId56" xr:uid="{36E8277E-6B93-6346-A892-FB9A40EA1BDF}"/>
-    <hyperlink ref="K62" r:id="rId57" xr:uid="{F89C4C7D-BFBF-AC4A-8593-29EC0AF423FA}"/>
-    <hyperlink ref="K63" r:id="rId58" xr:uid="{97C03C4B-44C0-D044-A510-A583484DDCD2}"/>
-    <hyperlink ref="K64" r:id="rId59" xr:uid="{15FB9B60-9D6C-B748-B465-E39073DF6FDF}"/>
-    <hyperlink ref="K66" r:id="rId60" xr:uid="{428F9136-0AC8-834B-A8FD-3F7EB82375B7}"/>
-    <hyperlink ref="K67" r:id="rId61" xr:uid="{EC76F4BF-E8F8-974A-BC5A-77D6E53076FF}"/>
-    <hyperlink ref="K68" r:id="rId62" xr:uid="{508832A3-7699-514F-9867-63059FA4EBB7}"/>
-    <hyperlink ref="K69" r:id="rId63" xr:uid="{446DD36F-28F3-1A4E-BBD1-91775D583E05}"/>
-    <hyperlink ref="K70" r:id="rId64" xr:uid="{2DA09164-9066-9944-8D52-59AA3DCE839A}"/>
-    <hyperlink ref="K71" r:id="rId65" xr:uid="{9F838F01-6DE9-7747-B829-AD6CF4E0DB06}"/>
-    <hyperlink ref="K72" r:id="rId66" xr:uid="{63A25FAA-379B-FE4A-93D0-6F128703FDB4}"/>
-    <hyperlink ref="K73" r:id="rId67" xr:uid="{AC777DCE-A497-5B4B-88F3-6E6A0D63A5D8}"/>
-    <hyperlink ref="K74" r:id="rId68" xr:uid="{2EC75B5E-EDC7-BC45-957E-B847B60C94E4}"/>
-    <hyperlink ref="K75" r:id="rId69" xr:uid="{E68ADD9C-5100-954C-886C-86EDFC31159C}"/>
-    <hyperlink ref="K76" r:id="rId70" xr:uid="{6D985E90-4202-6A4C-9A6A-7A2557C863AA}"/>
-    <hyperlink ref="K77" r:id="rId71" xr:uid="{699345CD-C122-1A45-A820-78F238001436}"/>
-    <hyperlink ref="K78" r:id="rId72" xr:uid="{18197BAE-B457-1F48-BC36-CDE1B7667B75}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{E05ECAFE-EAAD-804F-98F6-A103E3271EAE}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{F6622A8C-B6A1-C542-B272-FAF2E977DB6D}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{8CE69DF3-9219-214A-8677-6A78425CE6D5}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{4C76DB39-A4EA-DC46-ADFC-94F6DE2AE7E4}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{EAEA16B5-E4FD-9246-9EE1-C5E83C0DBC13}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{58CC5ABB-F6C1-3542-9CDD-664A51EA1FF7}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{D7E2D995-CAD7-9446-8AB5-44D79FC12E63}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{7ABEB231-E5EC-024C-97CD-C17C17AA70FD}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{8830493F-C047-B94C-BF49-0226AA9CC3C9}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{E1A2C3C4-4B25-1040-A684-1001F70BF156}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{E6C0A7D3-87F6-FF44-96C5-A67CD705F916}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{FF8E2AD6-A5E6-F341-B898-B1D37144D670}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{E41F6D15-7783-464F-961C-1FF851DFC485}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{14E2620E-B61D-524F-BB98-4B64C3D6A21A}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{EFB83752-E9E9-8645-82F8-ED6C5AAB5636}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{F41C14F0-2848-2045-BF70-4E39EB33DAF3}"/>
+    <hyperlink ref="K20" r:id="rId19" xr:uid="{D9956A9E-F0CC-F245-9425-6783DF44E2EB}"/>
+    <hyperlink ref="K21" r:id="rId20" xr:uid="{4B030049-A4C8-4642-865C-EB8D8ED9CED2}"/>
+    <hyperlink ref="K22" r:id="rId21" xr:uid="{2409C74E-7543-D949-8CC7-8886087BE2B8}"/>
+    <hyperlink ref="K23" r:id="rId22" xr:uid="{6365C9B9-0714-1F4F-8CFC-385934885BC0}"/>
+    <hyperlink ref="K24" r:id="rId23" xr:uid="{810518F6-D776-744B-B653-45FE7E0B0654}"/>
+    <hyperlink ref="K25" r:id="rId24" xr:uid="{339C461A-9B2A-3042-81B0-713633982DD9}"/>
+    <hyperlink ref="K26" r:id="rId25" xr:uid="{80F7FB94-CB99-7F4F-89EC-A0676B20F509}"/>
+    <hyperlink ref="K27" r:id="rId26" xr:uid="{0018D18B-4CF2-F643-9FF2-61C2355BF2C6}"/>
+    <hyperlink ref="K28" r:id="rId27" xr:uid="{8E9151CE-32D9-C24B-AF38-7000C6F984F9}"/>
+    <hyperlink ref="K30" r:id="rId28" xr:uid="{F38C22EA-7CFC-8C40-ADE9-F891EB158215}"/>
+    <hyperlink ref="K33" r:id="rId29" xr:uid="{CC867BD3-8EF6-9D48-B207-17DA1A4F9334}"/>
+    <hyperlink ref="K32" r:id="rId30" xr:uid="{006C10E8-3F87-5543-A5CA-F6E79A0ED450}"/>
+    <hyperlink ref="K34" r:id="rId31" xr:uid="{02A4312A-02B7-1A42-B567-00DB9639614C}"/>
+    <hyperlink ref="K35" r:id="rId32" xr:uid="{1D7C0C62-2B5C-F343-9D46-0DC5D3214AD7}"/>
+    <hyperlink ref="K37" r:id="rId33" xr:uid="{E9C67390-AA73-634F-AD33-4E827C3BE18A}"/>
+    <hyperlink ref="K38" r:id="rId34" xr:uid="{C7ACF2E4-ABAC-EB49-ABFC-8174BD63CA34}"/>
+    <hyperlink ref="K39" r:id="rId35" xr:uid="{B05B4BD3-8944-8943-9E61-FAF7F9B45D54}"/>
+    <hyperlink ref="K40" r:id="rId36" xr:uid="{31AC09F3-6A3E-1F43-AAB9-A46C87599EB4}"/>
+    <hyperlink ref="K41" r:id="rId37" xr:uid="{23BE583B-C70B-6541-AF98-617EEBF99FBF}"/>
+    <hyperlink ref="K42" r:id="rId38" xr:uid="{6614CA26-EB16-7843-A30D-2F8CCBB27489}"/>
+    <hyperlink ref="K43" r:id="rId39" xr:uid="{A9B5A986-4734-4A4B-B27D-849BF8B96BFD}"/>
+    <hyperlink ref="K44" r:id="rId40" xr:uid="{E75A8072-F722-0142-9FF3-2F36ECB95EA9}"/>
+    <hyperlink ref="K45" r:id="rId41" xr:uid="{27EA60F2-AC78-C744-9838-CD3561EE7342}"/>
+    <hyperlink ref="K46" r:id="rId42" xr:uid="{70AF7CA8-4BB2-D94A-B70C-59B164D20116}"/>
+    <hyperlink ref="K47" r:id="rId43" xr:uid="{5274F535-2EE3-9E41-9868-7AC2A2AEB891}"/>
+    <hyperlink ref="K48" r:id="rId44" xr:uid="{1626B833-C2B4-0C43-968F-50629D435BAD}"/>
+    <hyperlink ref="K49" r:id="rId45" xr:uid="{E2FDABBD-924F-8B4D-87E2-0AAA04CC2CD0}"/>
+    <hyperlink ref="K50" r:id="rId46" xr:uid="{6C6F9A2A-AF16-884B-96C9-839461E437B7}"/>
+    <hyperlink ref="K51" r:id="rId47" xr:uid="{7E821359-01EF-2649-85AF-40218826975A}"/>
+    <hyperlink ref="K52" r:id="rId48" xr:uid="{019A4734-C553-844D-BF9B-CCF2DC0CFAB6}"/>
+    <hyperlink ref="K53" r:id="rId49" xr:uid="{7EC81289-CE4C-C048-887D-F74F697D7CDD}"/>
+    <hyperlink ref="K54" r:id="rId50" xr:uid="{18F5D54B-A6EC-124A-8363-8E41EB408D84}"/>
+    <hyperlink ref="K55" r:id="rId51" xr:uid="{DDFE800C-B427-664B-B0F7-3650D9CD7AC5}"/>
+    <hyperlink ref="K56" r:id="rId52" xr:uid="{2D5FF2E2-07BB-924C-97FF-63D108291BB9}"/>
+    <hyperlink ref="K58" r:id="rId53" xr:uid="{7ED0108D-4AC3-904A-B399-F6AC14D091D7}"/>
+    <hyperlink ref="K59" r:id="rId54" xr:uid="{CD6C33AE-0FAB-CB4A-A68C-EBC04861755E}"/>
+    <hyperlink ref="K60" r:id="rId55" xr:uid="{36E8277E-6B93-6346-A892-FB9A40EA1BDF}"/>
+    <hyperlink ref="K61" r:id="rId56" xr:uid="{F89C4C7D-BFBF-AC4A-8593-29EC0AF423FA}"/>
+    <hyperlink ref="K62" r:id="rId57" xr:uid="{97C03C4B-44C0-D044-A510-A583484DDCD2}"/>
+    <hyperlink ref="K63" r:id="rId58" xr:uid="{15FB9B60-9D6C-B748-B465-E39073DF6FDF}"/>
+    <hyperlink ref="K65" r:id="rId59" xr:uid="{428F9136-0AC8-834B-A8FD-3F7EB82375B7}"/>
+    <hyperlink ref="K66" r:id="rId60" xr:uid="{EC76F4BF-E8F8-974A-BC5A-77D6E53076FF}"/>
+    <hyperlink ref="K67" r:id="rId61" xr:uid="{508832A3-7699-514F-9867-63059FA4EBB7}"/>
+    <hyperlink ref="K68" r:id="rId62" xr:uid="{446DD36F-28F3-1A4E-BBD1-91775D583E05}"/>
+    <hyperlink ref="K69" r:id="rId63" xr:uid="{2DA09164-9066-9944-8D52-59AA3DCE839A}"/>
+    <hyperlink ref="K70" r:id="rId64" xr:uid="{9F838F01-6DE9-7747-B829-AD6CF4E0DB06}"/>
+    <hyperlink ref="K71" r:id="rId65" xr:uid="{63A25FAA-379B-FE4A-93D0-6F128703FDB4}"/>
+    <hyperlink ref="K72" r:id="rId66" xr:uid="{AC777DCE-A497-5B4B-88F3-6E6A0D63A5D8}"/>
+    <hyperlink ref="K73" r:id="rId67" xr:uid="{2EC75B5E-EDC7-BC45-957E-B847B60C94E4}"/>
+    <hyperlink ref="K74" r:id="rId68" xr:uid="{E68ADD9C-5100-954C-886C-86EDFC31159C}"/>
+    <hyperlink ref="K75" r:id="rId69" xr:uid="{6D985E90-4202-6A4C-9A6A-7A2557C863AA}"/>
+    <hyperlink ref="K76" r:id="rId70" xr:uid="{699345CD-C122-1A45-A820-78F238001436}"/>
+    <hyperlink ref="K77" r:id="rId71" xr:uid="{18197BAE-B457-1F48-BC36-CDE1B7667B75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17958,14 +17910,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
